--- a/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1059.xlsx
+++ b/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1059.xlsx
@@ -914,24 +914,24 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="168" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2738,19 +2738,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$K$65:$K$2000</f>
+              <f>'1'!$K$65:$K$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$J$65:$J$2000</f>
+              <f>'1'!$J$65:$J$200000</f>
               <numCache>
                 <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -2781,19 +2781,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$M$65:$M$2000</f>
+              <f>'1'!$M$65:$M$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$L$65:$L$2000</f>
+              <f>'1'!$L$65:$L$200000</f>
               <numCache>
                 <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -2824,19 +2824,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$O$65:$O$2000</f>
+              <f>'1'!$O$65:$O$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$N$65:$N$2000</f>
+              <f>'1'!$N$65:$N$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3181,19 +3181,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$G$65:$G$2000</f>
+              <f>'1'!$G$65:$G$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$F$65:$F$2000</f>
+              <f>'1'!$F$65:$F$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3399,7 +3399,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.0000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -3508,7 +3508,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -3657,19 +3657,19 @@
           </trendline>
           <xVal>
             <numRef>
-              <f>'1'!$G$65:$G$2000</f>
+              <f>'1'!$G$65:$G$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$F$65:$F$2000</f>
+              <f>'1'!$F$65:$F$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3749,10 +3749,9 @@
             <numRef>
               <f>'1'!$A$81:$A$82</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <formatCode>General</formatCode>
                   <v>0</v>
                 </pt>
                 <pt idx="1">
@@ -3814,10 +3813,9 @@
             <numRef>
               <f>'1'!$A$75:$A$76</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <formatCode>General</formatCode>
                   <v>0</v>
                 </pt>
                 <pt idx="1">
@@ -3869,7 +3867,7 @@
             <numRef>
               <f>'1'!$A$85:$A$86</f>
               <numCache>
-                <formatCode>0.000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>0</v>
@@ -3923,7 +3921,7 @@
             <numRef>
               <f>'1'!$A$88:$A$89</f>
               <numCache>
-                <formatCode>0.000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>#N/A</v>
@@ -3978,7 +3976,7 @@
             <numRef>
               <f>'1'!$A$78:$A$79</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>0</v>
@@ -4088,7 +4086,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.0000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -4198,7 +4196,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -4886,8 +4884,8 @@
   </sheetPr>
   <dimension ref="A1:BF264"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="S81" sqref="S81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -4917,13 +4915,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="150" t="inlineStr">
+      <c r="A1" s="153" t="inlineStr">
         <is>
           <t>Общество с ограниченной ответственностью "Инженерная геология" (ООО "ИнжГео")</t>
         </is>
       </c>
-      <c r="L1" s="150" t="n"/>
-      <c r="M1" s="150" t="inlineStr">
+      <c r="L1" s="153" t="n"/>
+      <c r="M1" s="153" t="inlineStr">
         <is>
           <t>Общество с ограниченной ответственностью "Инженерная геология" (ООО "ИнжГео")</t>
         </is>
@@ -4974,13 +4972,13 @@
       <c r="BC1" s="40" t="n"/>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="150" t="inlineStr">
+      <c r="A2" s="153" t="inlineStr">
         <is>
           <t>Юр. адрес: 117279, г. Москва, ул. Миклухо-Маклая, 36 а, этаж 5, пом. XXIII к. 76-84</t>
         </is>
       </c>
-      <c r="L2" s="150" t="n"/>
-      <c r="M2" s="150" t="inlineStr">
+      <c r="L2" s="153" t="n"/>
+      <c r="M2" s="153" t="inlineStr">
         <is>
           <t>Юр. адрес: 117279, г. Москва, ул. Миклухо-Маклая, 36 а, этаж 5, пом. XXIII к. 76-84</t>
         </is>
@@ -5096,13 +5094,13 @@
       <c r="BD2" s="50" t="n"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="150" t="inlineStr">
+      <c r="A3" s="153" t="inlineStr">
         <is>
           <t>Телефон/факс +7 (495) 132-30-00,  Адрес электронной почты inbox@inj-geo.ru</t>
         </is>
       </c>
-      <c r="L3" s="150" t="n"/>
-      <c r="M3" s="150" t="inlineStr">
+      <c r="L3" s="153" t="n"/>
+      <c r="M3" s="153" t="inlineStr">
         <is>
           <t>Телефон/факс +7 (495) 132-30-00,  Адрес электронной почты inbox@inj-geo.ru</t>
         </is>
@@ -5173,27 +5171,27 @@
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="150" t="n"/>
-      <c r="B4" s="150" t="n"/>
-      <c r="C4" s="150" t="n"/>
-      <c r="D4" s="150" t="n"/>
-      <c r="E4" s="150" t="n"/>
-      <c r="F4" s="150" t="n"/>
-      <c r="G4" s="150" t="n"/>
-      <c r="H4" s="150" t="n"/>
-      <c r="I4" s="150" t="n"/>
-      <c r="J4" s="150" t="n"/>
-      <c r="K4" s="150" t="n"/>
-      <c r="L4" s="150" t="n"/>
-      <c r="M4" s="150" t="n"/>
-      <c r="N4" s="150" t="n"/>
-      <c r="O4" s="150" t="n"/>
-      <c r="P4" s="150" t="n"/>
-      <c r="Q4" s="150" t="n"/>
-      <c r="R4" s="150" t="n"/>
-      <c r="S4" s="150" t="n"/>
-      <c r="T4" s="150" t="n"/>
-      <c r="U4" s="150" t="n"/>
+      <c r="A4" s="153" t="n"/>
+      <c r="B4" s="153" t="n"/>
+      <c r="C4" s="153" t="n"/>
+      <c r="D4" s="153" t="n"/>
+      <c r="E4" s="153" t="n"/>
+      <c r="F4" s="153" t="n"/>
+      <c r="G4" s="153" t="n"/>
+      <c r="H4" s="153" t="n"/>
+      <c r="I4" s="153" t="n"/>
+      <c r="J4" s="153" t="n"/>
+      <c r="K4" s="153" t="n"/>
+      <c r="L4" s="153" t="n"/>
+      <c r="M4" s="153" t="n"/>
+      <c r="N4" s="153" t="n"/>
+      <c r="O4" s="153" t="n"/>
+      <c r="P4" s="153" t="n"/>
+      <c r="Q4" s="153" t="n"/>
+      <c r="R4" s="153" t="n"/>
+      <c r="S4" s="153" t="n"/>
+      <c r="T4" s="153" t="n"/>
+      <c r="U4" s="153" t="n"/>
       <c r="X4" s="66">
         <f>X2-X1</f>
         <v/>
@@ -5256,13 +5254,13 @@
       <c r="BC4" s="58" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="150" t="inlineStr">
+      <c r="A5" s="153" t="inlineStr">
         <is>
           <t>Испытательная лаборатория ООО «ИнжГео»</t>
         </is>
       </c>
-      <c r="L5" s="150" t="n"/>
-      <c r="M5" s="150" t="inlineStr">
+      <c r="L5" s="153" t="n"/>
+      <c r="M5" s="153" t="inlineStr">
         <is>
           <t>Испытательная лаборатория ООО «ИнжГео»</t>
         </is>
@@ -5377,13 +5375,13 @@
       <c r="BC5" s="58" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="154" t="inlineStr">
+      <c r="A6" s="152" t="inlineStr">
         <is>
           <t>Адрес места осуществления деятельности лаборатории: г. Москва, просп. Вернадского, д. 51, стр. 1</t>
         </is>
       </c>
-      <c r="L6" s="154" t="n"/>
-      <c r="M6" s="154" t="inlineStr">
+      <c r="L6" s="152" t="n"/>
+      <c r="M6" s="152" t="inlineStr">
         <is>
           <t>Адрес места осуществления деятельности лаборатории: г. Москва, просп. Вернадского, д. 51, стр. 1</t>
         </is>
@@ -5456,13 +5454,13 @@
       <c r="BF6" s="67" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="150" t="inlineStr">
+      <c r="A7" s="153" t="inlineStr">
         <is>
           <t>Телефон +7(910)4557682, E-mail: slg85@mail.ru</t>
         </is>
       </c>
-      <c r="L7" s="150" t="n"/>
-      <c r="M7" s="150" t="inlineStr">
+      <c r="L7" s="153" t="n"/>
+      <c r="M7" s="153" t="inlineStr">
         <is>
           <t>Телефон +7(910)4557682, E-mail: slg85@mail.ru</t>
         </is>
@@ -5624,8 +5622,8 @@
       <c r="BF8" s="67" t="n"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="156" t="n"/>
-      <c r="M9" s="156" t="inlineStr">
+      <c r="A9" s="155" t="n"/>
+      <c r="M9" s="155" t="inlineStr">
         <is>
           <t>Протокол испытаний № 13-63/24 от 22-11-2022</t>
         </is>
@@ -6442,13 +6440,13 @@
       <c r="BC17" s="58" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="155" t="inlineStr">
+      <c r="A18" s="154" t="inlineStr">
         <is>
           <t>Испытание грунтов методом трехосного сжатия</t>
         </is>
       </c>
-      <c r="L18" s="155" t="n"/>
-      <c r="M18" s="155" t="inlineStr">
+      <c r="L18" s="154" t="n"/>
+      <c r="M18" s="154" t="inlineStr">
         <is>
           <t>Испытание грунтов методом трехосного сжатия</t>
         </is>
@@ -7328,13 +7326,13 @@
       <c r="BC26" s="58" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="155" t="inlineStr">
+      <c r="A27" s="154" t="inlineStr">
         <is>
           <t xml:space="preserve">Результаты испытаний </t>
         </is>
       </c>
-      <c r="L27" s="155" t="n"/>
-      <c r="M27" s="155" t="inlineStr">
+      <c r="L27" s="154" t="n"/>
+      <c r="M27" s="154" t="inlineStr">
         <is>
           <t xml:space="preserve">Результаты испытаний </t>
         </is>
@@ -9133,26 +9131,26 @@
       <c r="U59" s="10" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="152" t="inlineStr">
+      <c r="A60" s="156" t="inlineStr">
         <is>
           <t>Лист 1 , всего листов 2</t>
         </is>
       </c>
-      <c r="L60" s="152" t="n"/>
-      <c r="M60" s="152" t="inlineStr">
+      <c r="L60" s="156" t="n"/>
+      <c r="M60" s="156" t="inlineStr">
         <is>
           <t>Лист 2 , всего листов 2</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="153" t="inlineStr">
+      <c r="A61" s="150" t="inlineStr">
         <is>
           <t>Частичное воспроизведение протокола испытаний без письменного разрешения  ООО «ИнжГео» ЗАПРЕЩАЕТСЯ</t>
         </is>
       </c>
-      <c r="L61" s="153" t="n"/>
-      <c r="M61" s="153" t="inlineStr">
+      <c r="L61" s="150" t="n"/>
+      <c r="M61" s="150" t="inlineStr">
         <is>
           <t>Частичное воспроизведение протокола испытаний без письменного разрешения  ООО «ИнжГео» ЗАПРЕЩАЕТСЯ</t>
         </is>
@@ -9257,7 +9255,7 @@
         <v>0.0174681646244358</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9272,29 +9270,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0.0001600000000000074</v>
+        <v>-0.0002749999999999975</v>
       </c>
       <c r="G65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0.0001600000000000074</v>
+        <v>-0.0002749999999999975</v>
       </c>
       <c r="K65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.01440503997909276</v>
+        <v>0.01836642597334326</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0.0003263999138119826</v>
+        <v>0.0003887045127015546</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>-9.999999999998899e-05</v>
+        <v>0.02509623622467289</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0</v>
+        <v>0.0003280529150706039</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9314,29 +9312,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.01013153548217276</v>
+        <v>0.01030621712841712</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006749291220374089</v>
+        <v>0.0006870759887859107</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.01013153548217276</v>
+        <v>0.01030621712841712</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0006749291220374089</v>
+        <v>0.0006870759887859107</v>
       </c>
       <c r="L66" s="172" t="n">
         <v>0.03601259994773187</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001223999676794934</v>
+        <v>0.001143248566769278</v>
       </c>
       <c r="N66" s="171" t="n">
         <v>0.05455703527102795</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001198156428452191</v>
+        <v>0.001069737766534577</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9357,26 +9355,26 @@
         <v>0.0174681646244358</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
         <v>0.0174681646244358</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.04074565507454528</v>
+        <v>0.03806968507636119</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001666081358134711</v>
+        <v>0.001591138398890906</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.06171783884559434</v>
+        <v>0.05652942658116489</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001665821626995589</v>
+        <v>0.001590399596878496</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9396,29 +9394,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01803570431072558</v>
+        <v>0.01792980606421041</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002506983946849833</v>
+        <v>0.002395806414334612</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01803570431072558</v>
+        <v>0.01792980606421041</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002506983946849833</v>
+        <v>0.002395806414334612</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.03850298033815314</v>
+        <v>0.0392639074633844</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002499122037202067</v>
+        <v>0.002386707598336358</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.0665437023537338</v>
+        <v>0.05728250115508648</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002498732440493383</v>
+        <v>0.002385599395317745</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9443,29 +9441,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01937169561973286</v>
+        <v>0.01955544042142113</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003342645262466444</v>
+        <v>0.003194408552446149</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01937169561973286</v>
+        <v>0.01955544042142113</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003342645262466444</v>
+        <v>0.003194408552446149</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.04146673951877294</v>
+        <v>0.04256974701227739</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003332162716269423</v>
+        <v>0.003182276797781811</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.06698959164553381</v>
+        <v>0.06377822435395458</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003331643253991177</v>
+        <v>0.003180799193756993</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9480,62 +9478,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0006749291220374089</v>
+        <v>0.0006870759887859107</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01013153548217276</v>
+        <v>0.01030621712841712</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.02231020386453329</v>
+        <v>0.02012990547058958</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004178306578083055</v>
+        <v>0.003993010690557687</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02231020386453329</v>
+        <v>0.02012990547058958</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.004178306578083055</v>
+        <v>0.003993010690557687</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04468263306069112</v>
+        <v>0.04252261913198199</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.004165203395336778</v>
+        <v>0.003977845997227264</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.0727937137909806</v>
+        <v>0.06638627980859896</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.004164554067488971</v>
+        <v>0.003975998992196241</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02253944572602253</v>
+        <v>0.02100105266820586</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.005013967893699667</v>
+        <v>0.004791612828669223</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02253944572602253</v>
+        <v>0.02100105266820586</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.005013967893699667</v>
+        <v>0.004791612828669223</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04542395081918466</v>
+        <v>0.04537242628077626</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004998244074404135</v>
+        <v>0.004773415196672716</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.07294228350865023</v>
+        <v>0.07260263897171293</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004997464880986765</v>
+        <v>0.004771198790635489</v>
       </c>
     </row>
     <row r="72">
@@ -9550,29 +9548,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.02217335767138522</v>
+        <v>0.02290144112731379</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005849629209316277</v>
+        <v>0.00559021496678076</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02217335767138522</v>
+        <v>0.02290144112731379</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005849629209316277</v>
+        <v>0.00559021496678076</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04789026874338956</v>
+        <v>0.04956576848567554</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.00583128475347149</v>
+        <v>0.005568984396118169</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.07508797134713824</v>
+        <v>0.07556031298701815</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.00583037569448456</v>
+        <v>0.005566398589074737</v>
       </c>
     </row>
     <row r="73">
@@ -9596,29 +9594,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02298570109975996</v>
+        <v>0.02291967392943461</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006685290524932888</v>
+        <v>0.006388817104892298</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02298570109975996</v>
+        <v>0.02291967392943461</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006685290524932888</v>
+        <v>0.006388817104892298</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.05402571451910637</v>
+        <v>0.04914595456606544</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006664325432538845</v>
+        <v>0.006364553595563622</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.07455703086773707</v>
+        <v>0.07646720327309586</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006663286507982354</v>
+        <v>0.006361598387513986</v>
       </c>
     </row>
     <row r="74">
@@ -9633,29 +9631,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02364406060222381</v>
+        <v>0.02388457734347746</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007520951840549499</v>
+        <v>0.007187419243003835</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02364406060222381</v>
+        <v>0.02388457734347746</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007520951840549499</v>
+        <v>0.007187419243003835</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.05046864680542429</v>
+        <v>0.05030210402616334</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007497366111606202</v>
+        <v>0.007160122795009075</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.08099112585220108</v>
+        <v>0.07836006924970951</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007496197321480149</v>
+        <v>0.007156798185953234</v>
       </c>
     </row>
     <row r="75">
@@ -9677,29 +9675,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.02368986611208324</v>
+        <v>0.02445958460967809</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.00835661315616611</v>
+        <v>0.007986021381115373</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02368986611208324</v>
+        <v>0.02445958460967809</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.00835661315616611</v>
+        <v>0.007986021381115373</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05182785015585153</v>
+        <v>0.0513574328088765</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.008330406790673556</v>
+        <v>0.007955691994454528</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.08445482430921319</v>
+        <v>0.08113124006886413</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.008329108134977942</v>
+        <v>0.007951997984392481</v>
       </c>
     </row>
     <row r="76">
@@ -9719,29 +9717,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02647114572669326</v>
+        <v>0.02456991156769271</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.009192274471782721</v>
+        <v>0.00878462351922691</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02647114572669326</v>
+        <v>0.02456991156769271</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.009192274471782721</v>
+        <v>0.00878462351922691</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05663167366724625</v>
+        <v>0.05452936700119471</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.009163447469740913</v>
+        <v>0.008751261193899981</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.07895343289215728</v>
+        <v>0.08008413877445508</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.009162018948475736</v>
+        <v>0.00874719778283173</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9756,28 +9754,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02482351986356711</v>
+        <v>0.02598926536595253</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01002793578739933</v>
+        <v>0.009583225657338447</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02482351986356711</v>
+        <v>0.02598926536595253</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01002793578739933</v>
+        <v>0.009583225657338447</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05571359852277979</v>
+        <v>0.05231787594506973</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009996488148808269</v>
+        <v>0.009546830393345432</v>
       </c>
       <c r="N77" t="n">
-        <v>0.08695971551887233</v>
+        <v>0.08028506954310299</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009994929761973531</v>
+        <v>0.009542397581270979</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9796,28 +9794,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02657807201418609</v>
+        <v>0.02586824961305272</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01086359710301594</v>
+        <v>0.01038182779544998</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02657807201418609</v>
+        <v>0.02586824961305272</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01086359710301594</v>
+        <v>0.01038182779544998</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05425294810186676</v>
+        <v>0.05441254220573988</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01082952882787562</v>
+        <v>0.01034239959279089</v>
       </c>
       <c r="N78" t="n">
-        <v>0.08677303912633016</v>
+        <v>0.08225010847366265</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01082784057547133</v>
+        <v>0.01033759737971023</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9838,28 +9836,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02736622142887037</v>
+        <v>0.02722106025070593</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01169925841863255</v>
+        <v>0.01118042993356152</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02736622142887037</v>
+        <v>0.02722106025070593</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01169925841863255</v>
+        <v>0.01118042993356152</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05652146979234851</v>
+        <v>0.05746127643043447</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01166256950694298</v>
+        <v>0.01113796879223634</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08080829580890897</v>
+        <v>0.0830169970998646</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01166075138896912</v>
+        <v>0.01113279717814947</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9869,28 +9867,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02621838644032824</v>
+        <v>0.02782207577634373</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01253491973424917</v>
+        <v>0.01197903207167306</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02621838644032824</v>
+        <v>0.02782207577634373</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01253491973424917</v>
+        <v>0.01197903207167306</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05666493373015946</v>
+        <v>0.05675130421842017</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01249561018601033</v>
+        <v>0.01193353799168179</v>
       </c>
       <c r="N80" t="n">
-        <v>0.09266835381306382</v>
+        <v>0.08684534411744538</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01249366220246691</v>
+        <v>0.01192799697658872</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9906,28 +9904,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02622904513201241</v>
+        <v>0.02748312857958767</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01337058104986578</v>
+        <v>0.0127776342097846</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02622904513201241</v>
+        <v>0.02748312857958767</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01337058104986578</v>
+        <v>0.0127776342097846</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0628665809017159</v>
+        <v>0.05860789208571598</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01332865086507769</v>
+        <v>0.01272910719112724</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08692033216596995</v>
+        <v>0.08910345891146859</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01332657301596471</v>
+        <v>0.01272319677502797</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9940,28 +9938,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02769808141333074</v>
+        <v>0.02820735701011458</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01420624236548239</v>
+        <v>0.01357623634789613</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02769808141333074</v>
+        <v>0.02820735701011458</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01420624236548239</v>
+        <v>0.01357623634789613</v>
       </c>
       <c r="L82" t="n">
-        <v>0.06000832363900704</v>
+        <v>0.05641936186469232</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01416169154414505</v>
+        <v>0.0135246763905727</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08685830682266488</v>
+        <v>0.08557006080094404</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0141594838294625</v>
+        <v>0.01351839657346722</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9971,28 +9969,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02904974827679606</v>
+        <v>0.02879268785855467</v>
       </c>
       <c r="G83" t="n">
-        <v>0.015041903681099</v>
+        <v>0.01437483848600767</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02904974827679606</v>
+        <v>0.02879268785855467</v>
       </c>
       <c r="K83" t="n">
-        <v>0.015041903681099</v>
+        <v>0.01437483848600767</v>
       </c>
       <c r="L83" t="n">
-        <v>0.06062008897655521</v>
+        <v>0.05678468598008884</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0149947322232124</v>
+        <v>0.01432024559001815</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0910681484722688</v>
+        <v>0.09228406568495906</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0149923946429603</v>
+        <v>0.01431359637190647</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10007,28 +10005,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02865286289044811</v>
+        <v>0.02944784281997419</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01587756499671561</v>
+        <v>0.01517344062411921</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02865286289044811</v>
+        <v>0.02944784281997419</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01587756499671561</v>
+        <v>0.01517344062411921</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05717621344352014</v>
+        <v>0.05775713527396162</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01582777290227976</v>
+        <v>0.0151158147894636</v>
       </c>
       <c r="N84" t="n">
-        <v>0.09116313784753238</v>
+        <v>0.09170987464325153</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01582530545645809</v>
+        <v>0.01510879617034571</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10047,28 +10045,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02810320251853311</v>
+        <v>0.02846461678728546</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01671322631233222</v>
+        <v>0.01597204276223075</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02810320251853311</v>
+        <v>0.02846461678728546</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01671322631233222</v>
+        <v>0.01597204276223075</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05680197479922622</v>
+        <v>0.05869861718175157</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01666081358134711</v>
+        <v>0.01591138398890906</v>
       </c>
       <c r="N85" t="n">
-        <v>0.09403687277637934</v>
+        <v>0.09232147744403396</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01665821626995588</v>
+        <v>0.01590399596878496</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10089,28 +10087,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02988193090475284</v>
+        <v>0.02841266675525789</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01754888762794883</v>
+        <v>0.01677064490034228</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02988193090475284</v>
+        <v>0.02841266675525789</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01754888762794883</v>
+        <v>0.01677064490034228</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06472834253603646</v>
+        <v>0.0615898807636959</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01749385426041447</v>
+        <v>0.01670695318835451</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0921758900141888</v>
+        <v>0.09347151850929541</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01749112708345368</v>
+        <v>0.01669919576722421</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10120,28 +10118,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02844083952239547</v>
+        <v>0.02920429453517294</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01838454894356544</v>
+        <v>0.01756924703845382</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02844083952239547</v>
+        <v>0.02920429453517294</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01838454894356544</v>
+        <v>0.01756924703845382</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0617374867097554</v>
+        <v>0.06248768616021602</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01832689493948183</v>
+        <v>0.01750252238779996</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08758646184488184</v>
+        <v>0.09378212167684841</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01832403789695147</v>
+        <v>0.01749439556566346</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10155,28 +10153,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.03032263562692147</v>
+        <v>0.02991125063254234</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01922021025918205</v>
+        <v>0.01836784917656535</v>
       </c>
       <c r="J88" t="n">
-        <v>0.03032263562692147</v>
+        <v>0.02991125063254234</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01922021025918205</v>
+        <v>0.01836784917656535</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05932367911959385</v>
+        <v>0.05974852195314828</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01915993561854918</v>
+        <v>0.01829809158724541</v>
       </c>
       <c r="N88" t="n">
-        <v>0.09688698164163112</v>
+        <v>0.0953807274663051</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01915694871044927</v>
+        <v>0.01828959536410271</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10189,4578 +10187,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.0305906073006245</v>
+        <v>0.02951647639784839</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02005587157479867</v>
+        <v>0.01916645131467689</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0305906073006245</v>
+        <v>0.02951647639784839</v>
       </c>
       <c r="K89" t="n">
-        <v>0.02005587157479867</v>
+        <v>0.01916645131467689</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06587848528261722</v>
+        <v>0.05966838162030244</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01999297629761654</v>
+        <v>0.01909366078669086</v>
       </c>
       <c r="N89" t="n">
-        <v>0.09373655084526733</v>
+        <v>0.09158105310882164</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01998985952394706</v>
+        <v>0.01908479516254196</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.029921592951192</v>
+        <v>0.03041145689451841</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02089153289041528</v>
+        <v>0.01996505345278843</v>
       </c>
       <c r="J90" t="n">
-        <v>0.029921592951192</v>
+        <v>0.03041145689451841</v>
       </c>
       <c r="K90" t="n">
-        <v>0.02089153289041528</v>
+        <v>0.01996505345278843</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06331191365428671</v>
+        <v>0.06360466329672679</v>
       </c>
       <c r="M90" t="n">
-        <v>0.02082601697668389</v>
+        <v>0.01988922998613632</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08997868088201844</v>
+        <v>0.09195119005725777</v>
       </c>
       <c r="O90" t="n">
-        <v>0.02082277033744486</v>
+        <v>0.01987999496098121</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03072745432743788</v>
+        <v>0.02973146873959423</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02172719420603189</v>
+        <v>0.02076365559089997</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03072745432743788</v>
+        <v>0.02973146873959423</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02172719420603189</v>
+        <v>0.02076365559089997</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06513374621003745</v>
+        <v>0.06263414889646912</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02165905765575125</v>
+        <v>0.02068479918558177</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0922919356357837</v>
+        <v>0.09471784698010727</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02165568115094265</v>
+        <v>0.02067519475942045</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.0305265544476792</v>
+        <v>0.0300713965939948</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0225628555216485</v>
+        <v>0.02156225772901151</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0305265544476792</v>
+        <v>0.0300713965939948</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0225628555216485</v>
+        <v>0.02156225772901151</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06204383581292849</v>
+        <v>0.06069109979514639</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02249209833481861</v>
+        <v>0.02148036838502723</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09111682700101292</v>
+        <v>0.09566190518179918</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02248859196444045</v>
+        <v>0.0214703945578597</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03136397428652649</v>
+        <v>0.02994213477291813</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02339851683726511</v>
+        <v>0.02236085986712304</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03136397428652649</v>
+        <v>0.02994213477291813</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02339851683726511</v>
+        <v>0.02236085986712304</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06280762882099433</v>
+        <v>0.06271772605295303</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02332513901388596</v>
+        <v>0.02227593758447268</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09680794612793231</v>
+        <v>0.09379327479295246</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02332150277793824</v>
+        <v>0.02226559435629895</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03178076207351882</v>
+        <v>0.02983989604186904</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02423417815288172</v>
+        <v>0.02315946200523458</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03178076207351882</v>
+        <v>0.02983989604186904</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02423417815288172</v>
+        <v>0.02315946200523458</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06628029210137376</v>
+        <v>0.06081341306927696</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02415817969295332</v>
+        <v>0.02307150678391813</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1007682133512894</v>
+        <v>0.0925644926357812</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02415441359143604</v>
+        <v>0.0230607941547382</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03101795935364958</v>
+        <v>0.03049031770157819</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02506983946849833</v>
+        <v>0.02395806414334612</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03101795935364958</v>
+        <v>0.03049031770157819</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02506983946849833</v>
+        <v>0.02395806414334612</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06264625475408978</v>
+        <v>0.06388205179598533</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02499122037202067</v>
+        <v>0.02386707598336358</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09175557024293701</v>
+        <v>0.09813906243986575</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02498732440493383</v>
+        <v>0.02385599395317745</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03060914836445863</v>
+        <v>0.03144372741864973</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02590550078411494</v>
+        <v>0.02475666628145766</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03060914836445863</v>
+        <v>0.03144372741864973</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02590550078411494</v>
+        <v>0.02475666628145766</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06046985216218645</v>
+        <v>0.06238895283563248</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02582426105108803</v>
+        <v>0.02466264518280904</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09741365796805229</v>
+        <v>0.09823936835918251</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02582023521843162</v>
+        <v>0.02465119375161669</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03246780407672363</v>
+        <v>0.03055170782059433</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02674116209973155</v>
+        <v>0.02555526841956919</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03246780407672363</v>
+        <v>0.03055170782059433</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02674116209973155</v>
+        <v>0.02555526841956919</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06527121020566953</v>
+        <v>0.06302641645783341</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02665730173015538</v>
+        <v>0.02545821438225449</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1039731729555651</v>
+        <v>0.09728397862345972</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02665314603192942</v>
+        <v>0.02544639355005594</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03134257814175007</v>
+        <v>0.03047047345585747</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02757682341534816</v>
+        <v>0.02635387055768073</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03134257814175007</v>
+        <v>0.03047047345585747</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02757682341534816</v>
+        <v>0.02635387055768073</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06389998601321892</v>
+        <v>0.06328715126481585</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02749034240922274</v>
+        <v>0.02625378358169994</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09711483213355038</v>
+        <v>0.09443182032314151</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02748605684542721</v>
+        <v>0.02624159334849519</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03165459685335531</v>
+        <v>0.0318049961415434</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02841248473096478</v>
+        <v>0.02715247269579226</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03165459685335531</v>
+        <v>0.0318049961415434</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02841248473096478</v>
+        <v>0.02715247269579226</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06793651929822977</v>
+        <v>0.06445211361918241</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02832338308829009</v>
+        <v>0.02704935278114539</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1019421336984753</v>
+        <v>0.09507039250261295</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02831896765892501</v>
+        <v>0.02703679314693444</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03254630459232005</v>
+        <v>0.03172170667502763</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02924814604658139</v>
+        <v>0.02795107483390381</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03254630459232005</v>
+        <v>0.03172170667502763</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02924814604658139</v>
+        <v>0.02795107483390381</v>
       </c>
       <c r="L100" t="n">
-        <v>0.07034511367630736</v>
+        <v>0.06295493969748608</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02915642376735745</v>
+        <v>0.02784492198059085</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1014044460112323</v>
+        <v>0.09958229446080719</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0291518784724228</v>
+        <v>0.02783199294537369</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03288893834916055</v>
+        <v>0.03097644830119031</v>
       </c>
       <c r="G101" t="n">
-        <v>0.030083807362198</v>
+        <v>0.02874967697201534</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03288893834916055</v>
+        <v>0.03097644830119031</v>
       </c>
       <c r="K101" t="n">
-        <v>0.030083807362198</v>
+        <v>0.02874967697201534</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06538852892033728</v>
+        <v>0.06345995408738622</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02998946444642481</v>
+        <v>0.0286404911800363</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1072101843296426</v>
+        <v>0.09719534844240413</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0299847892859206</v>
+        <v>0.02862719274381293</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03293045322028684</v>
+        <v>0.03232290087155304</v>
       </c>
       <c r="G102" t="n">
-        <v>0.03091946867781461</v>
+        <v>0.02954827911012688</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03293045322028684</v>
+        <v>0.03232290087155304</v>
       </c>
       <c r="K102" t="n">
-        <v>0.03091946867781461</v>
+        <v>0.02954827911012688</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06487405666871573</v>
+        <v>0.06763116061944793</v>
       </c>
       <c r="M102" t="n">
-        <v>0.03082250512549216</v>
+        <v>0.02943606037948176</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1051403778587754</v>
+        <v>0.0978990993690671</v>
       </c>
       <c r="O102" t="n">
-        <v>0.03081770009941839</v>
+        <v>0.02942239254225218</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03182866176091517</v>
+        <v>0.03120869942550913</v>
       </c>
       <c r="G103" t="n">
-        <v>0.03175512999343122</v>
+        <v>0.03034688124823841</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03182866176091517</v>
+        <v>0.03120869942550913</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03175512999343122</v>
+        <v>0.03034688124823841</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06772771426262042</v>
+        <v>0.0672224023013531</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03165554580455952</v>
+        <v>0.0302316295789272</v>
       </c>
       <c r="N103" t="n">
-        <v>0.09829793855031033</v>
+        <v>0.1013488471171583</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03165061091291618</v>
+        <v>0.03021759234069143</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03277079363879916</v>
+        <v>0.0323915571615022</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03259079130904783</v>
+        <v>0.03114548338634995</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03277079363879916</v>
+        <v>0.0323915571615022</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03259079130904783</v>
+        <v>0.03114548338634995</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06718617919040457</v>
+        <v>0.06609626504276483</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03248858648362687</v>
+        <v>0.03102719877837265</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1003758894032475</v>
+        <v>0.09647532366455863</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03248352172641398</v>
+        <v>0.03101279213913068</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03364965457114172</v>
+        <v>0.03219149643430738</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03342645262466444</v>
+        <v>0.03194408552446149</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03364965457114172</v>
+        <v>0.03219149643430738</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03342645262466444</v>
+        <v>0.03194408552446149</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06794600049183477</v>
+        <v>0.06483966397140775</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03332162716269423</v>
+        <v>0.03182276797781811</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1016176780862951</v>
+        <v>0.09994008271457749</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03331643253991177</v>
+        <v>0.03180799193756993</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.0322910305816118</v>
+        <v>0.03208331983060805</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03426211394028105</v>
+        <v>0.03274268766257302</v>
       </c>
       <c r="J106" t="n">
-        <v>0.0322910305816118</v>
+        <v>0.03208331983060805</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03426211394028105</v>
+        <v>0.03274268766257302</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06567033065377303</v>
+        <v>0.06645504434674604</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03415466784176158</v>
+        <v>0.03261833717726356</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1098170973266977</v>
+        <v>0.1022504138944889</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03414934335340956</v>
+        <v>0.03260319173600917</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03218523194100566</v>
+        <v>0.03154871728418174</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03509777525589766</v>
+        <v>0.03354128980068456</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03218523194100566</v>
+        <v>0.03154871728418174</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03509777525589766</v>
+        <v>0.03354128980068456</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06682003450988167</v>
+        <v>0.06633301328282062</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03498770852082894</v>
+        <v>0.03341390637670902</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1025373262807339</v>
+        <v>0.09767749345775983</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03498225416690736</v>
+        <v>0.03339839153444842</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.0326587940457056</v>
+        <v>0.03250419732264094</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03593343657151428</v>
+        <v>0.0343398919387961</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0326587940457056</v>
+        <v>0.03250419732264094</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03593343657151428</v>
+        <v>0.0343398919387961</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06564608772094041</v>
+        <v>0.06427826321323787</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03582074919989629</v>
+        <v>0.03420947557615447</v>
       </c>
       <c r="N108" t="n">
-        <v>0.110834351607796</v>
+        <v>0.1010106753013673</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03581516498040516</v>
+        <v>0.03419359133288767</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03203328338020993</v>
+        <v>0.03206409573524563</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03676909788713088</v>
+        <v>0.03513849407690764</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03203328338020993</v>
+        <v>0.03206409573524563</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03676909788713088</v>
+        <v>0.03513849407690764</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06762214635457392</v>
+        <v>0.06758193836244306</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03665378987896365</v>
+        <v>0.03500504477559992</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1030361461110554</v>
+        <v>0.09917943890460751</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03664807579390295</v>
+        <v>0.03498879113132692</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03472722624139619</v>
+        <v>0.03286396086089854</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03760475920274749</v>
+        <v>0.03593709621501918</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03472722624139619</v>
+        <v>0.03286396086089854</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03760475920274749</v>
+        <v>0.03593709621501918</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06663597044453365</v>
+        <v>0.06512728748371993</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03748683055803101</v>
+        <v>0.03580061397504537</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1111888079927878</v>
+        <v>0.1018962832926731</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03748098660740074</v>
+        <v>0.03578399092976617</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03368129854151979</v>
+        <v>0.03210019636213025</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0384404205183641</v>
+        <v>0.03673569835313071</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03368129854151979</v>
+        <v>0.03210019636213025</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0384404205183641</v>
+        <v>0.03673569835313071</v>
       </c>
       <c r="L111" t="n">
-        <v>0.07258057184768754</v>
+        <v>0.06866656042439359</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03831987123709837</v>
+        <v>0.03659618317449082</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1119485238424969</v>
+        <v>0.09811239860934251</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03831389742089854</v>
+        <v>0.03657919072820542</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03455614275747236</v>
+        <v>0.03260855120259766</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03927608183398072</v>
+        <v>0.03753430049124225</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03455614275747236</v>
+        <v>0.03260855120259766</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03927608183398072</v>
+        <v>0.03753430049124225</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06891393670807036</v>
+        <v>0.06661056284686809</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03915291191616572</v>
+        <v>0.03739175237393628</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1116187183957489</v>
+        <v>0.1021440251738686</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03914680823439633</v>
+        <v>0.03737439052664467</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03533419895255636</v>
+        <v>0.03339398945844352</v>
       </c>
       <c r="G113" t="n">
-        <v>0.04011174314959733</v>
+        <v>0.03833290262935379</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03533419895255636</v>
+        <v>0.03339398945844352</v>
       </c>
       <c r="K113" t="n">
-        <v>0.04011174314959733</v>
+        <v>0.03833290262935379</v>
       </c>
       <c r="L113" t="n">
-        <v>0.07294928482445742</v>
+        <v>0.06628734449941653</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03998595259523308</v>
+        <v>0.03818732157338173</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1081914960877886</v>
+        <v>0.1004341531036529</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03997971904789412</v>
+        <v>0.03816959032508391</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03279095844252634</v>
+        <v>0.0328536710821436</v>
       </c>
       <c r="G114" t="n">
-        <v>0.04094740446521394</v>
+        <v>0.03913150476746532</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03279095844252634</v>
+        <v>0.0328536710821436</v>
       </c>
       <c r="K114" t="n">
-        <v>0.04094740446521394</v>
+        <v>0.03913150476746532</v>
       </c>
       <c r="L114" t="n">
-        <v>0.0734935055743656</v>
+        <v>0.06857612514448921</v>
       </c>
       <c r="M114" t="n">
-        <v>0.04081899327430043</v>
+        <v>0.03898289077282718</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1107151269118862</v>
+        <v>0.1022018160233447</v>
       </c>
       <c r="O114" t="n">
-        <v>0.04081262986139192</v>
+        <v>0.03896479012352316</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03554361493337167</v>
+        <v>0.0325528793699803</v>
       </c>
       <c r="G115" t="n">
-        <v>0.04178306578083055</v>
+        <v>0.03993010690557686</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03554361493337167</v>
+        <v>0.0325528793699803</v>
       </c>
       <c r="K115" t="n">
-        <v>0.04178306578083055</v>
+        <v>0.03993010690557686</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06909420519789486</v>
+        <v>0.06882215731827737</v>
       </c>
       <c r="M115" t="n">
-        <v>0.04165203395336779</v>
+        <v>0.03977845997227264</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1023621799258412</v>
+        <v>0.09960986404194533</v>
       </c>
       <c r="O115" t="n">
-        <v>0.04164554067488972</v>
+        <v>0.03975998992196241</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03403261000079243</v>
+        <v>0.03364339714851354</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04261872709644716</v>
+        <v>0.0407287090436884</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03403261000079243</v>
+        <v>0.03364339714851354</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04261872709644716</v>
+        <v>0.0407287090436884</v>
       </c>
       <c r="L116" t="n">
-        <v>0.07102999070335245</v>
+        <v>0.06845842254080009</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04248507463243514</v>
+        <v>0.0405740291717181</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1037064220385007</v>
+        <v>0.1054699405952463</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04247845148838751</v>
+        <v>0.04055518972040166</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03479007992337112</v>
+        <v>0.033280920166598</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04345438841206378</v>
+        <v>0.04152731118179993</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03479007992337112</v>
+        <v>0.033280920166598</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04345438841206378</v>
+        <v>0.04152731118179993</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06887221256060158</v>
+        <v>0.06690105232409149</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04331811531150249</v>
+        <v>0.04136959837116354</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1112796003468491</v>
+        <v>0.1032226405621869</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04331136230188531</v>
+        <v>0.0413503895188409</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.03334871425894041</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04429004972768038</v>
+        <v>0.04232591331991148</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.03334871425894041</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04429004972768038</v>
+        <v>0.04232591331991148</v>
       </c>
       <c r="L118" t="n">
-        <v>0.07021282346172766</v>
+        <v>0.06639465969556096</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04415115599056985</v>
+        <v>0.04216516757060899</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1115032615416804</v>
+        <v>0.1034199257480889</v>
       </c>
       <c r="O118" t="n">
-        <v>0.0441442731153831</v>
+        <v>0.04214558931728016</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03489158671660794</v>
+        <v>0.0325843629994033</v>
       </c>
       <c r="G119" t="n">
-        <v>0.045125711043297</v>
+        <v>0.04312451545802301</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03489158671660794</v>
+        <v>0.0325843629994033</v>
       </c>
       <c r="K119" t="n">
-        <v>0.045125711043297</v>
+        <v>0.04312451545802301</v>
       </c>
       <c r="L119" t="n">
-        <v>0.07194459393505001</v>
+        <v>0.06999148656980425</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04498419666963721</v>
+        <v>0.04296073677005445</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1090249738402038</v>
+        <v>0.1007464764926483</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04497718392888089</v>
+        <v>0.0429407891157194</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03528166670462994</v>
+        <v>0.03355700322196188</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04596137235891361</v>
+        <v>0.04392311759613455</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03528166670462994</v>
+        <v>0.03355700322196188</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04596137235891361</v>
+        <v>0.04392311759613455</v>
       </c>
       <c r="L120" t="n">
-        <v>0.07053368829487849</v>
+        <v>0.06844914776733702</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04581723734870456</v>
+        <v>0.0437563059694999</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1064315439462656</v>
+        <v>0.100061461828475</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04581009474237868</v>
+        <v>0.04373598891415865</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03534203595381581</v>
+        <v>0.03254997445550749</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04679703367453022</v>
+        <v>0.04472171973424608</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03534203595381581</v>
+        <v>0.03254997445550749</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04679703367453022</v>
+        <v>0.04472171973424608</v>
       </c>
       <c r="L121" t="n">
-        <v>0.07216431704493348</v>
+        <v>0.06650326233155474</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04665027802777192</v>
+        <v>0.04455187516894536</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1011565685714914</v>
+        <v>0.1067914858659866</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04664300555587648</v>
+        <v>0.0445311887125979</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03474915721142684</v>
+        <v>0.03307495168506157</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04763269499014683</v>
+        <v>0.04552032187235762</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03474915721142684</v>
+        <v>0.03307495168506157</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04763269499014683</v>
+        <v>0.04552032187235762</v>
       </c>
       <c r="L122" t="n">
-        <v>0.07410181782920153</v>
+        <v>0.07077845940950417</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04748331870683928</v>
+        <v>0.0453474443683908</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1032731368366193</v>
+        <v>0.1055320173393737</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04747591636937427</v>
+        <v>0.04532638851103715</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03363780622761955</v>
+        <v>0.03242543391528974</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04846835630576344</v>
+        <v>0.04631892401046916</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03363780622761955</v>
+        <v>0.03242543391528974</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04846835630576344</v>
+        <v>0.04631892401046916</v>
       </c>
       <c r="L123" t="n">
-        <v>0.07457948578136217</v>
+        <v>0.06960928701091526</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04831635938590664</v>
+        <v>0.04614301356783625</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1059223379624953</v>
+        <v>0.1068201462240275</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04830882718287207</v>
+        <v>0.04612158830947639</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03598033017068902</v>
+        <v>0.03344430550416642</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04930401762138006</v>
+        <v>0.0471175261485807</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03598033017068902</v>
+        <v>0.03344430550416642</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04930401762138006</v>
+        <v>0.0471175261485807</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06954053255978071</v>
+        <v>0.07026376656024627</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04914940006497398</v>
+        <v>0.04693858276728171</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1116274743820108</v>
+        <v>0.1049228168296117</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04914173799636987</v>
+        <v>0.04691678810791564</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03349342570417248</v>
+        <v>0.03256066080419914</v>
       </c>
       <c r="G125" t="n">
-        <v>0.05013967893699666</v>
+        <v>0.04791612828669223</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03349342570417248</v>
+        <v>0.03256066080419914</v>
       </c>
       <c r="K125" t="n">
-        <v>0.05013967893699666</v>
+        <v>0.04791612828669223</v>
       </c>
       <c r="L125" t="n">
-        <v>0.07076373630486096</v>
+        <v>0.07112767976126702</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04998244074404134</v>
+        <v>0.04773415196672717</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1024583545602085</v>
+        <v>0.1015684406550875</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04997464880986766</v>
+        <v>0.04771198790635489</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03404211047095833</v>
+        <v>0.0342086226700074</v>
       </c>
       <c r="G126" t="n">
-        <v>0.05097534025261327</v>
+        <v>0.04871473042480377</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03404211047095833</v>
+        <v>0.0342086226700074</v>
       </c>
       <c r="K126" t="n">
-        <v>0.05097534025261327</v>
+        <v>0.04871473042480377</v>
       </c>
       <c r="L126" t="n">
-        <v>0.07202519989546374</v>
+        <v>0.07106984109521614</v>
       </c>
       <c r="M126" t="n">
-        <v>0.0508154814231087</v>
+        <v>0.04852972116617262</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1134099081599688</v>
+        <v>0.1026354567143174</v>
       </c>
       <c r="O126" t="n">
-        <v>0.05080755962336545</v>
+        <v>0.04850718770479414</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03479501825672555</v>
+        <v>0.03429381703892277</v>
       </c>
       <c r="G127" t="n">
-        <v>0.05181100156822988</v>
+        <v>0.04951333256291531</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03479501825672555</v>
+        <v>0.03429381703892277</v>
       </c>
       <c r="K127" t="n">
-        <v>0.05181100156822988</v>
+        <v>0.04951333256291531</v>
       </c>
       <c r="L127" t="n">
-        <v>0.07199310587560315</v>
+        <v>0.07114845049794205</v>
       </c>
       <c r="M127" t="n">
-        <v>0.05164852210217605</v>
+        <v>0.04932529036561807</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1047046614349756</v>
+        <v>0.101772316110615</v>
       </c>
       <c r="O127" t="n">
-        <v>0.05164047043686324</v>
+        <v>0.04930238750323339</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03575023107559856</v>
+        <v>0.03339144081216258</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0526466628838465</v>
+        <v>0.05031193470102685</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03575023107559856</v>
+        <v>0.03339144081216258</v>
       </c>
       <c r="K128" t="n">
-        <v>0.0526466628838465</v>
+        <v>0.05031193470102685</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06760089527665794</v>
+        <v>0.07097014260453682</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05248156278124341</v>
+        <v>0.05012085956506353</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1084053316445646</v>
+        <v>0.1052491404755035</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05247338125036104</v>
+        <v>0.05009758730167264</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03370885852966501</v>
+        <v>0.0331587103368975</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0534823241994631</v>
+        <v>0.05111053683913838</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03370885852966501</v>
+        <v>0.0331587103368975</v>
       </c>
       <c r="K129" t="n">
-        <v>0.0534823241994631</v>
+        <v>0.05111053683913838</v>
       </c>
       <c r="L129" t="n">
-        <v>0.07224328743645578</v>
+        <v>0.07119838674244555</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05331460346031076</v>
+        <v>0.05091642876450898</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1059118849673217</v>
+        <v>0.1091140705420559</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05330629206385883</v>
+        <v>0.05089278710011189</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03650311989005819</v>
+        <v>0.03281566165387312</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05431798551507971</v>
+        <v>0.05190913897724992</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03650311989005819</v>
+        <v>0.03281566165387312</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05431798551507971</v>
+        <v>0.05190913897724992</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06893469587461737</v>
+        <v>0.06776322744524868</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05414764413937812</v>
+        <v>0.05171199796395443</v>
       </c>
       <c r="N130" t="n">
-        <v>0.106185171470881</v>
+        <v>0.1022865313660166</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05413920287735663</v>
+        <v>0.05168798689855113</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03451735692667393</v>
+        <v>0.03459219727404834</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05515364683069632</v>
+        <v>0.05270774111536145</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03451735692667393</v>
+        <v>0.03459219727404834</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05515364683069632</v>
+        <v>0.05270774111536145</v>
       </c>
       <c r="L131" t="n">
-        <v>0.07072928164647815</v>
+        <v>0.06890900342268191</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05498068481844548</v>
+        <v>0.05250756716339988</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1097064533118633</v>
+        <v>0.1073007609029491</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05497211369085443</v>
+        <v>0.05248318669699038</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03402131998189072</v>
+        <v>0.03393807752455173</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05598930814631294</v>
+        <v>0.053506343253473</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03402131998189072</v>
+        <v>0.03393807752455173</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05598930814631294</v>
+        <v>0.053506343253473</v>
       </c>
       <c r="L132" t="n">
-        <v>0.07260491029800464</v>
+        <v>0.0706507797966423</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05581372549751283</v>
+        <v>0.05330313636284534</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1103853873911093</v>
+        <v>0.1057011850676995</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05580502450435222</v>
+        <v>0.05327838649542963</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03509793751219326</v>
+        <v>0.03350563459535745</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05682496946192955</v>
+        <v>0.05430494539158453</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03509793751219326</v>
+        <v>0.03350563459535745</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05682496946192955</v>
+        <v>0.05430494539158453</v>
       </c>
       <c r="L133" t="n">
-        <v>0.07286109099941357</v>
+        <v>0.07202519989546374</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05664676617658019</v>
+        <v>0.05409870556229078</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1093422401523664</v>
+        <v>0.1026945173321684</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05663793531785002</v>
+        <v>0.05407358629386887</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03556341737314586</v>
+        <v>0.03413299834873851</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05766063077754616</v>
+        <v>0.05510354752969607</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03556341737314586</v>
+        <v>0.03413299834873851</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05766063077754616</v>
+        <v>0.05510354752969607</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06944366101470106</v>
+        <v>0.07050807082086749</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05747980685564755</v>
+        <v>0.05489427476173624</v>
       </c>
       <c r="N134" t="n">
-        <v>0.105999840034652</v>
+        <v>0.1056932350481582</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05747084613134781</v>
+        <v>0.05486878609230812</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03388915756968451</v>
+        <v>0.03429153824747505</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05849629209316278</v>
+        <v>0.05590214966780761</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03388915756968451</v>
+        <v>0.03429153824747505</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05849629209316278</v>
+        <v>0.05590214966780761</v>
       </c>
       <c r="L135" t="n">
-        <v>0.07416660564961977</v>
+        <v>0.07021532846349979</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05831284753471491</v>
+        <v>0.05568984396118169</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1076770561576947</v>
+        <v>0.1032664443604166</v>
       </c>
       <c r="O135" t="n">
-        <v>0.0583037569448456</v>
+        <v>0.05566398589074737</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03388623024548996</v>
+        <v>0.03446894629084282</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05933195340877939</v>
+        <v>0.05670075180591914</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03388623024548996</v>
+        <v>0.03446894629084282</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05933195340877939</v>
+        <v>0.05670075180591914</v>
       </c>
       <c r="L136" t="n">
-        <v>0.07256604588366358</v>
+        <v>0.0690261349330103</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05914588821378226</v>
+        <v>0.05648541316062714</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1162482467658241</v>
+        <v>0.1046100267651832</v>
       </c>
       <c r="O136" t="n">
-        <v>0.0591366677583434</v>
+        <v>0.05645918568918663</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03564892756496872</v>
+        <v>0.0342410831857162</v>
       </c>
       <c r="G137" t="n">
-        <v>0.060167614724396</v>
+        <v>0.05749935394403068</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03564892756496872</v>
+        <v>0.0342410831857162</v>
       </c>
       <c r="K137" t="n">
-        <v>0.060167614724396</v>
+        <v>0.05749935394403068</v>
       </c>
       <c r="L137" t="n">
-        <v>0.07333513718613366</v>
+        <v>0.07126889456380384</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05997892889284961</v>
+        <v>0.0572809823600726</v>
       </c>
       <c r="N137" t="n">
-        <v>0.107179724706179</v>
+        <v>0.1052708496640698</v>
       </c>
       <c r="O137" t="n">
-        <v>0.0599695785718412</v>
+        <v>0.05725438548762587</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03614121941616208</v>
+        <v>0.03457154147215126</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0610032760400126</v>
+        <v>0.05829795608214221</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03614121941616208</v>
+        <v>0.03457154147215126</v>
       </c>
       <c r="K138" t="n">
-        <v>0.0610032760400126</v>
+        <v>0.05829795608214221</v>
       </c>
       <c r="L138" t="n">
-        <v>0.07705604190483975</v>
+        <v>0.07112954721237047</v>
       </c>
       <c r="M138" t="n">
-        <v>0.06081196957191697</v>
+        <v>0.05807655155951805</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1050457751184064</v>
+        <v>0.1078135531314198</v>
       </c>
       <c r="O138" t="n">
-        <v>0.06080248938533898</v>
+        <v>0.05804958528606512</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03548763160795827</v>
+        <v>0.03405507835734481</v>
       </c>
       <c r="G139" t="n">
-        <v>0.06183893735562921</v>
+        <v>0.05909655822025375</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03548763160795827</v>
+        <v>0.03405507835734481</v>
       </c>
       <c r="K139" t="n">
-        <v>0.06183893735562921</v>
+        <v>0.05909655822025375</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06953417116807231</v>
+        <v>0.07308101088024532</v>
       </c>
       <c r="M139" t="n">
-        <v>0.06164501025098432</v>
+        <v>0.05887212075896351</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1160532796000018</v>
+        <v>0.1039861798565724</v>
       </c>
       <c r="O139" t="n">
-        <v>0.06163540019883677</v>
+        <v>0.05884478508450437</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03482625115465285</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="G140" t="n">
-        <v>0.06267459867124583</v>
+        <v>0.0598951603583653</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03482625115465285</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="K140" t="n">
-        <v>0.06267459867124583</v>
+        <v>0.0598951603583653</v>
       </c>
       <c r="L140" t="n">
-        <v>0.0741726352293724</v>
+        <v>0.06920924818714022</v>
       </c>
       <c r="M140" t="n">
-        <v>0.06247805093005167</v>
+        <v>0.05966768995840895</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1115725389873113</v>
+        <v>0.1044433388889797</v>
       </c>
       <c r="O140" t="n">
-        <v>0.06246831101233457</v>
+        <v>0.05963998488294362</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03513385667165869</v>
+        <v>0.03437909835254348</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06351025998686244</v>
+        <v>0.06069376249647682</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03513385667165869</v>
+        <v>0.03437909835254348</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06351025998686244</v>
+        <v>0.06069376249647682</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06968433870221785</v>
+        <v>0.07114712999616368</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06331109160911903</v>
+        <v>0.06046325915785441</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1132052023342002</v>
+        <v>0.1058668615080056</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06330122182583237</v>
+        <v>0.06043518468138286</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03603177954219129</v>
+        <v>0.03415629980028446</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06434592130247904</v>
+        <v>0.06149236463458837</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03603177954219129</v>
+        <v>0.03415629980028446</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06434592130247904</v>
+        <v>0.06149236463458837</v>
       </c>
       <c r="L142" t="n">
-        <v>0.07122578377784214</v>
+        <v>0.07279579572848827</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06414413228818638</v>
+        <v>0.06125882835729986</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1136642100142587</v>
+        <v>0.1061873817986976</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06413413263933015</v>
+        <v>0.06123038447982211</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03412683228075813</v>
+        <v>0.03397284054746173</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06518158261809566</v>
+        <v>0.06229096677269991</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03412683228075813</v>
+        <v>0.03397284054746173</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06518158261809566</v>
+        <v>0.06229096677269991</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06966676559920057</v>
+        <v>0.06862784999212601</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06497717296725374</v>
+        <v>0.06205439755674531</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1111394168111677</v>
+        <v>0.1095806401338505</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06496704345282796</v>
+        <v>0.06202558427826136</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03669436522860325</v>
+        <v>0.03368269351920279</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06601724393371228</v>
+        <v>0.06308956891081144</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03669436522860325</v>
+        <v>0.03368269351920279</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06601724393371228</v>
+        <v>0.06308956891081144</v>
       </c>
       <c r="L144" t="n">
-        <v>0.07572849255997216</v>
+        <v>0.07238144133186689</v>
       </c>
       <c r="M144" t="n">
-        <v>0.0658102136463211</v>
+        <v>0.06284996675619077</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1139170039355188</v>
+        <v>0.1091821339038657</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06579995426632575</v>
+        <v>0.06282078407670061</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0364262921637559</v>
+        <v>0.03407769349467836</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06685290524932888</v>
+        <v>0.06388817104892298</v>
       </c>
       <c r="J145" t="n">
-        <v>0.0364262921637559</v>
+        <v>0.03407769349467836</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06685290524932888</v>
+        <v>0.06388817104892298</v>
       </c>
       <c r="L145" t="n">
-        <v>0.07127953219396022</v>
+        <v>0.07030273351675656</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06664325432538845</v>
+        <v>0.06364553595563623</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1103554314471958</v>
+        <v>0.1050888030179296</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06663286507982354</v>
+        <v>0.06361598387513985</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.034570856492553</v>
+        <v>0.03519033166375864</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06768856656494548</v>
+        <v>0.06468677318703452</v>
       </c>
       <c r="J146" t="n">
-        <v>0.034570856492553</v>
+        <v>0.03519033166375864</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06768856656494548</v>
+        <v>0.06468677318703452</v>
       </c>
       <c r="L146" t="n">
-        <v>0.07104349222028816</v>
+        <v>0.07341597738744685</v>
       </c>
       <c r="M146" t="n">
-        <v>0.0674762950044558</v>
+        <v>0.06444110515508168</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1099827721647454</v>
+        <v>0.1074136693740774</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06746577589332134</v>
+        <v>0.06441118367357911</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03391157477233595</v>
+        <v>0.03425213471598153</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0685242278805621</v>
+        <v>0.06548537532514605</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03391157477233595</v>
+        <v>0.03425213471598153</v>
       </c>
       <c r="K147" t="n">
-        <v>0.0685242278805621</v>
+        <v>0.06548537532514605</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07774890558912256</v>
+        <v>0.07163298534546017</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06830933568352317</v>
+        <v>0.06523667435452712</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1139795338389542</v>
+        <v>0.1100464483444711</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06829868670681913</v>
+        <v>0.06520638347201835</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03634352247809514</v>
+        <v>0.03462108073036489</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06935988919617872</v>
+        <v>0.06628397746325759</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03634352247809514</v>
+        <v>0.03462108073036489</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06935988919617872</v>
+        <v>0.06628397746325759</v>
       </c>
       <c r="L148" t="n">
-        <v>0.07355818712732803</v>
+        <v>0.07181657952428872</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06914237636259052</v>
+        <v>0.06603224355397258</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1119920747989665</v>
+        <v>0.1082761585343553</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06913159752031693</v>
+        <v>0.0660015832704576</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03402608614161791</v>
+        <v>0.03408725293076149</v>
       </c>
       <c r="G149" t="n">
-        <v>0.07019555051179532</v>
+        <v>0.06708257960136912</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03402608614161791</v>
+        <v>0.03408725293076149</v>
       </c>
       <c r="K149" t="n">
-        <v>0.07019555051179532</v>
+        <v>0.06708257960136912</v>
       </c>
       <c r="L149" t="n">
-        <v>0.07031603609301748</v>
+        <v>0.07057293202032247</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06997541704165788</v>
+        <v>0.06682781275341804</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1177108928473306</v>
+        <v>0.1058327153394305</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06996450833381472</v>
+        <v>0.06679678306889685</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03447318680129242</v>
+        <v>0.03505350666289936</v>
       </c>
       <c r="G150" t="n">
-        <v>0.07103121182741194</v>
+        <v>0.06788118173948067</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03447318680129242</v>
+        <v>0.03505350666289936</v>
       </c>
       <c r="K150" t="n">
-        <v>0.07103121182741194</v>
+        <v>0.06788118173948067</v>
       </c>
       <c r="L150" t="n">
-        <v>0.07781974239050168</v>
+        <v>0.07162984990998528</v>
       </c>
       <c r="M150" t="n">
-        <v>0.07080845772072523</v>
+        <v>0.06762338195286348</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1169558248787405</v>
+        <v>0.1104507896541538</v>
       </c>
       <c r="O150" t="n">
-        <v>0.07079741914731252</v>
+        <v>0.0675919828673361</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03517416289118043</v>
+        <v>0.03513536350430034</v>
       </c>
       <c r="G151" t="n">
-        <v>0.07186687314302856</v>
+        <v>0.0686797838775922</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03517416289118043</v>
+        <v>0.03513536350430034</v>
       </c>
       <c r="K151" t="n">
-        <v>0.07186687314302856</v>
+        <v>0.0686797838775922</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07070930118438395</v>
+        <v>0.07000401452639252</v>
       </c>
       <c r="M151" t="n">
-        <v>0.07164149839979259</v>
+        <v>0.06841895115230893</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1165142766105925</v>
+        <v>0.1063161493726663</v>
       </c>
       <c r="O151" t="n">
-        <v>0.07163032996081031</v>
+        <v>0.06838718266577534</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03406746751075573</v>
+        <v>0.03547649686622119</v>
       </c>
       <c r="G152" t="n">
-        <v>0.07270253445864516</v>
+        <v>0.06947838601570373</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03406746751075573</v>
+        <v>0.03547649686622119</v>
       </c>
       <c r="K152" t="n">
-        <v>0.07270253445864516</v>
+        <v>0.06947838601570373</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06996531068125392</v>
+        <v>0.07030041730247769</v>
       </c>
       <c r="M152" t="n">
-        <v>0.07247453907885995</v>
+        <v>0.06921452035175439</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1060382852456575</v>
+        <v>0.10792815173758</v>
       </c>
       <c r="O152" t="n">
-        <v>0.0724632407743081</v>
+        <v>0.0691823824642146</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03602229254249915</v>
+        <v>0.0345481939627566</v>
       </c>
       <c r="G153" t="n">
-        <v>0.07353819577426177</v>
+        <v>0.07027698815381528</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03602229254249915</v>
+        <v>0.0345481939627566</v>
       </c>
       <c r="K153" t="n">
-        <v>0.07353819577426177</v>
+        <v>0.07027698815381528</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07245925654934754</v>
+        <v>0.06986646770884972</v>
       </c>
       <c r="M153" t="n">
-        <v>0.0733075797579273</v>
+        <v>0.07001008955119985</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1136206530593056</v>
+        <v>0.1072237959801845</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07329615158780589</v>
+        <v>0.06997758226265384</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03415455730607656</v>
+        <v>0.03467126768419902</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07437385708987838</v>
+        <v>0.07107559029192681</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03415455730607656</v>
+        <v>0.03467126768419902</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07437385708987838</v>
+        <v>0.07107559029192681</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07315432689082121</v>
+        <v>0.07344271445800202</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07414062043699465</v>
+        <v>0.07080565875064529</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1055497558952496</v>
+        <v>0.1106768542365094</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07412906240130368</v>
+        <v>0.0707727820610931</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03564597355506911</v>
+        <v>0.03491453276689599</v>
       </c>
       <c r="G155" t="n">
-        <v>0.07520951840549499</v>
+        <v>0.07187419243003836</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03564597355506911</v>
+        <v>0.03491453276689599</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07520951840549499</v>
+        <v>0.07187419243003836</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07249630907363733</v>
+        <v>0.07123680260414775</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07497366111606202</v>
+        <v>0.07160122795009075</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1050390486516757</v>
+        <v>0.1086623681549506</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07496197321480148</v>
+        <v>0.07156798185953234</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03703194514190618</v>
+        <v>0.03515577742722523</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07604517972111161</v>
+        <v>0.07267279456814989</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03703194514190618</v>
+        <v>0.03515577742722523</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07604517972111161</v>
+        <v>0.07267279456814989</v>
       </c>
       <c r="L156" t="n">
-        <v>0.07697183024270945</v>
+        <v>0.0737496945420088</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07580670179512937</v>
+        <v>0.0723967971495362</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1091140705420559</v>
+        <v>0.1054658120325165</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07579488402829927</v>
+        <v>0.07236318165797159</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03465115541175678</v>
+        <v>0.03492022775693517</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07688084103672821</v>
+        <v>0.07347139670626142</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03465115541175678</v>
+        <v>0.03492022775693517</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07688084103672821</v>
+        <v>0.07347139670626142</v>
       </c>
       <c r="L157" t="n">
-        <v>0.06908071353445361</v>
+        <v>0.07092421014474842</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07663974247419673</v>
+        <v>0.07319236634898164</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1050097737895089</v>
+        <v>0.1070914195915204</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07662779484179708</v>
+        <v>0.07315838145641083</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03666892064066131</v>
+        <v>0.0351337264593226</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07771650235234483</v>
+        <v>0.07426999884437296</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03666892064066131</v>
+        <v>0.0351337264593226</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07771650235234483</v>
+        <v>0.07426999884437296</v>
       </c>
       <c r="L158" t="n">
-        <v>0.06981578378321524</v>
+        <v>0.07060943138643308</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07747278315326409</v>
+        <v>0.0739879355484271</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1122618471315255</v>
+        <v>0.1092891519876763</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07746070565529486</v>
+        <v>0.07395358125485008</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.03636038870765983</v>
+        <v>0.034576362000816</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07855216366796144</v>
+        <v>0.0750686009824845</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03636038870765983</v>
+        <v>0.034576362000816</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07855216366796144</v>
+        <v>0.0750686009824845</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06982891927622425</v>
+        <v>0.06956346295828741</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07830582383233144</v>
+        <v>0.07478350474787256</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1055720005398254</v>
+        <v>0.1110309560110866</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07829361646879267</v>
+        <v>0.07474878105328933</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03612877811893921</v>
+        <v>0.03484939090892017</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07938782498357805</v>
+        <v>0.07586720312059604</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03612877811893921</v>
+        <v>0.03484939090892017</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07938782498357805</v>
+        <v>0.07586720312059604</v>
       </c>
       <c r="L160" t="n">
-        <v>0.0712943049293073</v>
+        <v>0.0728359507935909</v>
       </c>
       <c r="M160" t="n">
-        <v>0.0791388645113988</v>
+        <v>0.07557907394731801</v>
       </c>
       <c r="N160" t="n">
-        <v>0.115838438857729</v>
+        <v>0.1063720957550323</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07912652728229046</v>
+        <v>0.07554398085172859</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03673193045855214</v>
+        <v>0.03408154945224449</v>
       </c>
       <c r="G161" t="n">
-        <v>0.08022348629919467</v>
+        <v>0.07666580525870757</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03673193045855214</v>
+        <v>0.03408154945224449</v>
       </c>
       <c r="K161" t="n">
-        <v>0.08022348629919467</v>
+        <v>0.07666580525870757</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07407788301335247</v>
+        <v>0.07370223499989367</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07997190519046615</v>
+        <v>0.07637464314676345</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1125840114854212</v>
+        <v>0.1099780155163226</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07995943809578825</v>
+        <v>0.07633918065016783</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.0356473741748847</v>
+        <v>0.03419335977441407</v>
       </c>
       <c r="G162" t="n">
-        <v>0.08105914761481127</v>
+        <v>0.0774644073968191</v>
       </c>
       <c r="J162" t="n">
-        <v>0.0356473741748847</v>
+        <v>0.03419335977441407</v>
       </c>
       <c r="K162" t="n">
-        <v>0.08105914761481127</v>
+        <v>0.0774644073968191</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07130269832389896</v>
+        <v>0.07015581883932587</v>
       </c>
       <c r="M162" t="n">
-        <v>0.0808049458695335</v>
+        <v>0.07717021234620891</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1090006529228636</v>
+        <v>0.1106123548309947</v>
       </c>
       <c r="O162" t="n">
-        <v>0.08079234890928605</v>
+        <v>0.07713438044860707</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03464321357259637</v>
+        <v>0.03426899863088735</v>
       </c>
       <c r="G163" t="n">
-        <v>0.08189480893042787</v>
+        <v>0.07826300953493065</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03464321357259637</v>
+        <v>0.03426899863088735</v>
       </c>
       <c r="K163" t="n">
-        <v>0.08189480893042787</v>
+        <v>0.07826300953493065</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07791155172391315</v>
+        <v>0.06957613916305419</v>
       </c>
       <c r="M163" t="n">
-        <v>0.08163798654860085</v>
+        <v>0.07796578154565437</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1048570752530557</v>
+        <v>0.1109981042955441</v>
       </c>
       <c r="O163" t="n">
-        <v>0.08162525972278384</v>
+        <v>0.07792958024704633</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03562195758119832</v>
+        <v>0.03410177583578604</v>
       </c>
       <c r="G164" t="n">
-        <v>0.08273047024604449</v>
+        <v>0.07906161167304218</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03562195758119832</v>
+        <v>0.03410177583578604</v>
       </c>
       <c r="K164" t="n">
-        <v>0.08273047024604449</v>
+        <v>0.07906161167304218</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07608716363707696</v>
+        <v>0.07053848528039822</v>
       </c>
       <c r="M164" t="n">
-        <v>0.08247102722766821</v>
+        <v>0.07876135074509982</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1171451334039926</v>
+        <v>0.1060600968408747</v>
       </c>
       <c r="O164" t="n">
-        <v>0.08245817053628164</v>
+        <v>0.07872478004548557</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03655882876239493</v>
+        <v>0.03499825651381591</v>
       </c>
       <c r="G165" t="n">
-        <v>0.08356613156166111</v>
+        <v>0.07986021381115373</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03655882876239493</v>
+        <v>0.03499825651381591</v>
       </c>
       <c r="K165" t="n">
-        <v>0.08356613156166111</v>
+        <v>0.07986021381115373</v>
       </c>
       <c r="L165" t="n">
-        <v>0.07779050728840037</v>
+        <v>0.07295681924280317</v>
       </c>
       <c r="M165" t="n">
-        <v>0.08330406790673557</v>
+        <v>0.07955691994454528</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1174260893930051</v>
+        <v>0.111548303533561</v>
       </c>
       <c r="O165" t="n">
-        <v>0.08329108134977943</v>
+        <v>0.07951997984392482</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03624237365120365</v>
+        <v>0.03471824878587686</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08440179287727771</v>
+        <v>0.08065881594926527</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03624237365120365</v>
+        <v>0.03471824878587686</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08440179287727771</v>
+        <v>0.08065881594926527</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07343270526514606</v>
+        <v>0.06968500297277339</v>
       </c>
       <c r="M166" t="n">
-        <v>0.08413710858580292</v>
+        <v>0.08035248914399074</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1186144323731279</v>
+        <v>0.1082953672798041</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08412399216327722</v>
+        <v>0.08031517964236407</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03628003060740462</v>
+        <v>0.03515424454312849</v>
       </c>
       <c r="G167" t="n">
-        <v>0.08523745419289433</v>
+        <v>0.08145741808737679</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03628003060740462</v>
+        <v>0.03515424454312849</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08523745419289433</v>
+        <v>0.08145741808737679</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07443435143816263</v>
+        <v>0.06993924692323292</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08497014926487027</v>
+        <v>0.08114805834343619</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1091069686657456</v>
+        <v>0.1068235080549214</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08495690297677502</v>
+        <v>0.08111037944080332</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03467539320692931</v>
+        <v>0.03528427500018869</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08607311550851093</v>
+        <v>0.08225602022548834</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03467539320692931</v>
+        <v>0.03528427500018869</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08607311550851093</v>
+        <v>0.08225602022548834</v>
       </c>
       <c r="L168" t="n">
-        <v>0.07244863964744946</v>
+        <v>0.06930075114156423</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08580318994393764</v>
+        <v>0.08194362754288163</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1164922237066333</v>
+        <v>0.1069707389745765</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08578981379027281</v>
+        <v>0.08190557923924256</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03697731269376417</v>
+        <v>0.03485213235815643</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08690877682412755</v>
+        <v>0.08305462236359987</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03697731269376417</v>
+        <v>0.03485213235815643</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08690877682412755</v>
+        <v>0.08305462236359987</v>
       </c>
       <c r="L169" t="n">
-        <v>0.07001647918843393</v>
+        <v>0.06924281954283332</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08663623062300499</v>
+        <v>0.08273919674232709</v>
       </c>
       <c r="N169" t="n">
-        <v>0.118774306179146</v>
+        <v>0.1102823412001523</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08662272460377062</v>
+        <v>0.0827007790376818</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03594698376649411</v>
+        <v>0.03378814471441811</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08774443813974415</v>
+        <v>0.08385322450171141</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03594698376649411</v>
+        <v>0.03378814471441811</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08774443813974415</v>
+        <v>0.08385322450171141</v>
       </c>
       <c r="L170" t="n">
-        <v>0.0744097956206535</v>
+        <v>0.0707396221017623</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08746927130207234</v>
+        <v>0.08353476594177255</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1112591238835219</v>
+        <v>0.1034136342297162</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08745563541726839</v>
+        <v>0.08349597883612106</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03410067140152441</v>
+        <v>0.03478359996261174</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08858009945536076</v>
+        <v>0.08465182663982296</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03410067140152441</v>
+        <v>0.03478359996261174</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08858009945536076</v>
+        <v>0.08465182663982296</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07498362688590868</v>
+        <v>0.06905317233265532</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08830231198113971</v>
+        <v>0.08433033514121799</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1187366020923329</v>
+        <v>0.1069558451351232</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08828854623076619</v>
+        <v>0.08429117863456032</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03710984104601782</v>
+        <v>0.03409890217876149</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08941576077097739</v>
+        <v>0.08545042877793448</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03710984104601782</v>
+        <v>0.03409890217876149</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08941576077097739</v>
+        <v>0.08545042877793448</v>
       </c>
       <c r="L172" t="n">
-        <v>0.07257038607543928</v>
+        <v>0.07252420829188988</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08913535266020706</v>
+        <v>0.08512590434066344</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1157900929016181</v>
+        <v>0.1081725002065868</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08912145704426398</v>
+        <v>0.08508637843299956</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03682122449680794</v>
+        <v>0.0338291967154874</v>
       </c>
       <c r="G173" t="n">
-        <v>0.09025142208659399</v>
+        <v>0.08624903091604602</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03682122449680794</v>
+        <v>0.0338291967154874</v>
       </c>
       <c r="K173" t="n">
-        <v>0.09025142208659399</v>
+        <v>0.08624903091604602</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07568275777566463</v>
+        <v>0.07049016278469125</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08996839333927442</v>
+        <v>0.0859214735401089</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1084259866540682</v>
+        <v>0.1102223417214279</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08995436785776179</v>
+        <v>0.0858815782314388</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03529193995254075</v>
+        <v>0.03409144699453952</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0910870834022106</v>
+        <v>0.08704763305415755</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03529193995254075</v>
+        <v>0.03409144699453952</v>
       </c>
       <c r="K174" t="n">
-        <v>0.0910870834022106</v>
+        <v>0.08704763305415755</v>
       </c>
       <c r="L174" t="n">
-        <v>0.07795116819138687</v>
+        <v>0.06873175645099686</v>
       </c>
       <c r="M174" t="n">
-        <v>0.09080143401834177</v>
+        <v>0.08671704273955434</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1109952578102236</v>
+        <v>0.1083451057665007</v>
       </c>
       <c r="O174" t="n">
-        <v>0.09078727867125957</v>
+        <v>0.08667677802987805</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03530128910819419</v>
+        <v>0.03461067252891496</v>
       </c>
       <c r="G175" t="n">
-        <v>0.09192274471782722</v>
+        <v>0.0878462351922691</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03530128910819419</v>
+        <v>0.03461067252891496</v>
       </c>
       <c r="K175" t="n">
-        <v>0.09192274471782722</v>
+        <v>0.0878462351922691</v>
       </c>
       <c r="L175" t="n">
-        <v>0.07236838490498476</v>
+        <v>0.06822226566006309</v>
       </c>
       <c r="M175" t="n">
-        <v>0.09163447469740912</v>
+        <v>0.0875126119389998</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1136332275050708</v>
+        <v>0.1074621766407207</v>
       </c>
       <c r="O175" t="n">
-        <v>0.09162018948475736</v>
+        <v>0.08747197782831731</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03588953705115554</v>
+        <v>0.03490653610445127</v>
       </c>
       <c r="G176" t="n">
-        <v>0.09275840603344383</v>
+        <v>0.08864483733038064</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03588953705115554</v>
+        <v>0.03490653610445127</v>
       </c>
       <c r="K176" t="n">
-        <v>0.09275840603344383</v>
+        <v>0.08864483733038064</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07552111520092653</v>
+        <v>0.06805473182185656</v>
       </c>
       <c r="M176" t="n">
-        <v>0.09246751537647649</v>
+        <v>0.08830818113844525</v>
       </c>
       <c r="N176" t="n">
-        <v>0.105420439959627</v>
+        <v>0.1061019120705061</v>
       </c>
       <c r="O176" t="n">
-        <v>0.09245310029825517</v>
+        <v>0.08826717762675655</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03698405613417276</v>
+        <v>0.03385871661843307</v>
       </c>
       <c r="G177" t="n">
-        <v>0.09359406734906044</v>
+        <v>0.08944343946849216</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03698405613417276</v>
+        <v>0.03385871661843307</v>
       </c>
       <c r="K177" t="n">
-        <v>0.09359406734906044</v>
+        <v>0.08944343946849216</v>
       </c>
       <c r="L177" t="n">
-        <v>0.07377337502451814</v>
+        <v>0.06846999360596348</v>
       </c>
       <c r="M177" t="n">
-        <v>0.09330055605554384</v>
+        <v>0.08910375033789071</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1088943351333241</v>
+        <v>0.1059200943641267</v>
       </c>
       <c r="O177" t="n">
-        <v>0.09328601111175296</v>
+        <v>0.08906237742519579</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03587204254994592</v>
+        <v>0.03364011202071822</v>
       </c>
       <c r="G178" t="n">
-        <v>0.09442972866467704</v>
+        <v>0.09024204160660371</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03587204254994592</v>
+        <v>0.03364011202071822</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09442972866467704</v>
+        <v>0.09024204160660371</v>
       </c>
       <c r="L178" t="n">
-        <v>0.07492628198253201</v>
+        <v>0.06908447088220127</v>
       </c>
       <c r="M178" t="n">
-        <v>0.09413359673461119</v>
+        <v>0.08989931953733615</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1074878757893731</v>
+        <v>0.1036689310468596</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09411892192525076</v>
+        <v>0.08985757722363505</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03539122016632663</v>
+        <v>0.03317787144404198</v>
       </c>
       <c r="G179" t="n">
-        <v>0.09526538998029366</v>
+        <v>0.09104064374471524</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03539122016632663</v>
+        <v>0.03317787144404198</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09526538998029366</v>
+        <v>0.09104064374471524</v>
       </c>
       <c r="L179" t="n">
-        <v>0.0781494910118144</v>
+        <v>0.06800523753877874</v>
       </c>
       <c r="M179" t="n">
-        <v>0.09496663741367856</v>
+        <v>0.09069488873678161</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1100267606214772</v>
+        <v>0.1046737630416728</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09495183273874855</v>
+        <v>0.0906527770220743</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03575197378182692</v>
+        <v>0.03450746540160403</v>
       </c>
       <c r="G180" t="n">
-        <v>0.09610105129591028</v>
+        <v>0.09183924588282678</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03575197378182692</v>
+        <v>0.03450746540160403</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09610105129591028</v>
+        <v>0.09183924588282678</v>
       </c>
       <c r="L180" t="n">
-        <v>0.07442862952902832</v>
+        <v>0.06696400452808274</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09579967809274591</v>
+        <v>0.09149045793622707</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1180799457201387</v>
+        <v>0.1076809658664887</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09578474355224635</v>
+        <v>0.09144797682051353</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03560227714368937</v>
+        <v>0.03416871651633244</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09693671261152688</v>
+        <v>0.09263784802093833</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03560227714368937</v>
+        <v>0.03416871651633244</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09693671261152688</v>
+        <v>0.09263784802093833</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07772690405994254</v>
+        <v>0.0664943301452342</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09663271877181327</v>
+        <v>0.09228602713567251</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1056232210777459</v>
+        <v>0.10525158986358</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09661765436574414</v>
+        <v>0.09224317661895279</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03710717014657655</v>
+        <v>0.03371162475108416</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09777237392714348</v>
+        <v>0.09343645015904985</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03710717014657655</v>
+        <v>0.03371162475108416</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09777237392714348</v>
+        <v>0.09343645015904985</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07710146033658472</v>
+        <v>0.06729030661273247</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09746575945088062</v>
+        <v>0.09308159633511796</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1062245339998608</v>
+        <v>0.102522387614809</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09745056517924193</v>
+        <v>0.09303837641739204</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03438800951554015</v>
+        <v>0.03309477708331285</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09860803524276011</v>
+        <v>0.09423505229716139</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03438800951554015</v>
+        <v>0.03309477708331285</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09860803524276011</v>
+        <v>0.09423505229716139</v>
       </c>
       <c r="L183" t="n">
-        <v>0.0772917992455876</v>
+        <v>0.06804764659466717</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09829880012994796</v>
+        <v>0.09387716553456342</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1099750042129427</v>
+        <v>0.101615144119226</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09828347599273973</v>
+        <v>0.09383357621583129</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03658013703356175</v>
+        <v>0.03374712101193253</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09944369655837672</v>
+        <v>0.09503365443527294</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03658013703356175</v>
+        <v>0.03374712101193253</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09944369655837672</v>
+        <v>0.09503365443527294</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07339361883725196</v>
+        <v>0.06688715585212518</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09913184080901533</v>
+        <v>0.09467273473400888</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1167379699301824</v>
+        <v>0.1067049125848731</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09911638680623752</v>
+        <v>0.09462877601427053</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03604392597803883</v>
+        <v>0.03278864154296061</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1002793578739933</v>
+        <v>0.09583225657338447</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03604392597803883</v>
+        <v>0.03278864154296061</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1002793578739933</v>
+        <v>0.09583225657338447</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07602357019801637</v>
+        <v>0.06911129421814974</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09996488148808268</v>
+        <v>0.09546830393345433</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1115611567368864</v>
+        <v>0.1043432370597539</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09994929761973531</v>
+        <v>0.09542397581270978</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03686720138565099</v>
+        <v>0.03266410669953096</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1011150191896099</v>
+        <v>0.09663085871149601</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03686720138565099</v>
+        <v>0.03266410669953096</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1011150191896099</v>
+        <v>0.09663085871149601</v>
       </c>
       <c r="L186" t="n">
-        <v>0.07383454467390127</v>
+        <v>0.06725984327956011</v>
       </c>
       <c r="M186" t="n">
-        <v>0.10079792216715</v>
+        <v>0.09626387313289979</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1116818805851538</v>
+        <v>0.1022636304255465</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1007822084332331</v>
+        <v>0.09621917561114904</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03431253715923099</v>
+        <v>0.03225632277683642</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1019506805052265</v>
+        <v>0.09742946084960753</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03431253715923099</v>
+        <v>0.03225632277683642</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1019506805052265</v>
+        <v>0.09742946084960753</v>
       </c>
       <c r="L187" t="n">
-        <v>0.07260765537783037</v>
+        <v>0.06750720824478482</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1016309628462174</v>
+        <v>0.09705944233234524</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1179313782299718</v>
+        <v>0.1037596192315551</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1016151192467309</v>
+        <v>0.09701437540958828</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.0364074314681354</v>
+        <v>0.03248155018743973</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1027863418208432</v>
+        <v>0.09822806298771908</v>
       </c>
       <c r="J188" t="n">
-        <v>0.0364074314681354</v>
+        <v>0.03248155018743973</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1027863418208432</v>
+        <v>0.09822806298771908</v>
       </c>
       <c r="L188" t="n">
-        <v>0.07727864323945374</v>
+        <v>0.0667922088608526</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1024640035252847</v>
+        <v>0.09785501153179069</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1085478434673072</v>
+        <v>0.1028505564677258</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1024480300602287</v>
+        <v>0.09780957520802752</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03573948104670249</v>
+        <v>0.03284604616382233</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1036220031364598</v>
+        <v>0.09902666512583062</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03573948104670249</v>
+        <v>0.03284604616382233</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1036220031364598</v>
+        <v>0.09902666512583062</v>
       </c>
       <c r="L189" t="n">
-        <v>0.07536557781755376</v>
+        <v>0.06870130006393307</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1032970442043521</v>
+        <v>0.09865058073123614</v>
       </c>
       <c r="N189" t="n">
-        <v>0.115621845805103</v>
+        <v>0.1052793769168896</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1032809408737265</v>
+        <v>0.09860477500646678</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03421430097358938</v>
+        <v>0.03237364769930595</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1044576644520764</v>
+        <v>0.09982526726394216</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03421430097358938</v>
+        <v>0.03237364769930595</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1044576644520764</v>
+        <v>0.09982526726394216</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07466396674548251</v>
+        <v>0.06596601302500874</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1041300848834195</v>
+        <v>0.0994461499306816</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1173843714481077</v>
+        <v>0.09868507233885565</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1041138516872243</v>
+        <v>0.09939997480490603</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03476580290821425</v>
+        <v>0.03197446415202013</v>
       </c>
       <c r="G191" t="n">
-        <v>0.105293325767693</v>
+        <v>0.1006238694020537</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03476580290821425</v>
+        <v>0.03197446415202013</v>
       </c>
       <c r="K191" t="n">
-        <v>0.105293325767693</v>
+        <v>0.1006238694020537</v>
       </c>
       <c r="L191" t="n">
-        <v>0.07485611707389025</v>
+        <v>0.06564429951007394</v>
       </c>
       <c r="M191" t="n">
-        <v>0.1049631255624868</v>
+        <v>0.1002417191301271</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1048106697638373</v>
+        <v>0.1000694127972588</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1049467625007221</v>
+        <v>0.1001951746033453</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03424817376757244</v>
+        <v>0.03307667041823666</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1061289870833096</v>
+        <v>0.1014224715401652</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03424817376757244</v>
+        <v>0.03307667041823666</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1061289870833096</v>
+        <v>0.1014224715401652</v>
       </c>
       <c r="L192" t="n">
-        <v>0.07508683469381658</v>
+        <v>0.06685981392375215</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1057961662415542</v>
+        <v>0.1010372883295725</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1124114076461999</v>
+        <v>0.1007054896018258</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1057796733142199</v>
+        <v>0.1009903744017845</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03434574849461751</v>
+        <v>0.03313471330651287</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1069646483989262</v>
+        <v>0.1022210736782768</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03434574849461751</v>
+        <v>0.03313471330651287</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1069646483989262</v>
+        <v>0.1022210736782768</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06921190971439709</v>
+        <v>0.06660917733041535</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1066292069206215</v>
+        <v>0.101832857529018</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1070920617230803</v>
+        <v>0.1048238092271261</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1066125841277177</v>
+        <v>0.1017855742002238</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03495111129553342</v>
+        <v>0.03278851425418589</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1078003097145428</v>
+        <v>0.1030196758163883</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03495111129553342</v>
+        <v>0.03278851425418589</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1078003097145428</v>
+        <v>0.1030196758163883</v>
       </c>
       <c r="L194" t="n">
-        <v>0.074607450868485</v>
+        <v>0.06864113024462631</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1074622475996889</v>
+        <v>0.1026284267284634</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1165856238348095</v>
+        <v>0.1004872790592746</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1074454949412155</v>
+        <v>0.102580773998663</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03521843555308028</v>
+        <v>0.03317101980632828</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1086359710301594</v>
+        <v>0.1038182779544998</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03521843555308028</v>
+        <v>0.03317101980632828</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1086359710301594</v>
+        <v>0.1038182779544998</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07399763854107963</v>
+        <v>0.06794152803164061</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1082952882787562</v>
+        <v>0.1034239959279089</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1123300131698894</v>
+        <v>0.1035080307248852</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1082784057547133</v>
+        <v>0.1033759737971023</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03687017893427627</v>
+        <v>0.03241510135356843</v>
       </c>
       <c r="G196" t="n">
-        <v>0.109471632345776</v>
+        <v>0.1046168800926114</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03687017893427627</v>
+        <v>0.03241510135356843</v>
       </c>
       <c r="K196" t="n">
-        <v>0.109471632345776</v>
+        <v>0.1046168800926114</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06896624878720425</v>
+        <v>0.06832443110286843</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1091283289578236</v>
+        <v>0.1042195651273543</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1154414522446066</v>
+        <v>0.09959441862749341</v>
       </c>
       <c r="O196" t="n">
-        <v>0.109111316568211</v>
+        <v>0.1041711735955415</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03471916998112549</v>
+        <v>0.03175351783785145</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1103072936613926</v>
+        <v>0.1054154822307229</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03471916998112549</v>
+        <v>0.03175351783785145</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1103072936613926</v>
+        <v>0.1054154822307229</v>
       </c>
       <c r="L197" t="n">
-        <v>0.0711551452889333</v>
+        <v>0.06532497517195665</v>
       </c>
       <c r="M197" t="n">
-        <v>0.109961369636891</v>
+        <v>0.1050151343267998</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1061961078346314</v>
+        <v>0.102394803169274</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1099442273817089</v>
+        <v>0.1049663733939808</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03541617942332102</v>
+        <v>0.03222657662313479</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1111429549770093</v>
+        <v>0.1062140843688344</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03541617942332102</v>
+        <v>0.03222657662313479</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1111429549770093</v>
+        <v>0.1062140843688344</v>
       </c>
       <c r="L198" t="n">
-        <v>0.07492375881868008</v>
+        <v>0.06630559147899762</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1107944103159583</v>
+        <v>0.1058107035262452</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1121641325190635</v>
+        <v>0.09740218335870521</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1107771381952066</v>
+        <v>0.10576157319242</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03673898546837835</v>
+        <v>0.03211188418908971</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1119786162926259</v>
+        <v>0.107012686506946</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03673898546837835</v>
+        <v>0.03211188418908971</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1119786162926259</v>
+        <v>0.107012686506946</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06974518497152873</v>
+        <v>0.06471938190072424</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1116274509950257</v>
+        <v>0.1066062727256907</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1171919775888982</v>
+        <v>0.09733252463247183</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1116100490087044</v>
+        <v>0.1065567729908593</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03426163084108508</v>
+        <v>0.03278638811638636</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1128142776082425</v>
+        <v>0.1078112886450575</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03426163084108508</v>
+        <v>0.03278638811638636</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1128142776082425</v>
+        <v>0.1078112886450575</v>
       </c>
       <c r="L200" t="n">
-        <v>0.07628137211115635</v>
+        <v>0.06670648732417925</v>
       </c>
       <c r="M200" t="n">
-        <v>0.112460491674093</v>
+        <v>0.1074018419251361</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1172345138816652</v>
+        <v>0.1026339064034548</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1124429598222022</v>
+        <v>0.1073519727892985</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03377394681450417</v>
+        <v>0.03266386643798637</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1136499389238591</v>
+        <v>0.1086098907831691</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03377394681450417</v>
+        <v>0.03266386643798637</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1136499389238591</v>
+        <v>0.1086098907831691</v>
       </c>
       <c r="L201" t="n">
-        <v>0.07130722386026478</v>
+        <v>0.0660178553454909</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1132935323531604</v>
+        <v>0.1081974111245816</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1068785482476287</v>
+        <v>0.1005223629652902</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1132758706357</v>
+        <v>0.1081471725877377</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03501317891358163</v>
+        <v>0.03233172661266238</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1144856002394757</v>
+        <v>0.1094084929212806</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03501317891358163</v>
+        <v>0.03233172661266238</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1144856002394757</v>
+        <v>0.1094084929212806</v>
       </c>
       <c r="L202" t="n">
-        <v>0.07233663093988479</v>
+        <v>0.06650314161515594</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1141265730322277</v>
+        <v>0.108992980324027</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1166697883341543</v>
+        <v>0.09987890054888088</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1141087814491978</v>
+        <v>0.108942372386177</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03467375720801281</v>
+        <v>0.03137467117088405</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1153212615550923</v>
+        <v>0.1102070950593921</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03467375720801281</v>
+        <v>0.03137467117088405</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1153212615550923</v>
+        <v>0.1102070950593921</v>
       </c>
       <c r="L203" t="n">
-        <v>0.0750297332518248</v>
+        <v>0.06676064990498287</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1149596137112951</v>
+        <v>0.1097885495234725</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1093294192073166</v>
+        <v>0.1014907983944833</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1149416922626956</v>
+        <v>0.1097375721846162</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03442846831455111</v>
+        <v>0.03148086787326629</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1161569228707089</v>
+        <v>0.1110056971975037</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03442846831455111</v>
+        <v>0.03148086787326629</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1161569228707089</v>
+        <v>0.1110056971975037</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06785572225128111</v>
+        <v>0.06336801005708811</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1157926543903624</v>
+        <v>0.1105841187229179</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1076858027254456</v>
+        <v>0.1003375627979259</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1157746030761934</v>
+        <v>0.1105327719830555</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03353171091651903</v>
+        <v>0.0321555219626863</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1169925841863256</v>
+        <v>0.1118042993356152</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03353171091651903</v>
+        <v>0.0321555219626863</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1169925841863256</v>
+        <v>0.1118042993356152</v>
       </c>
       <c r="L205" t="n">
-        <v>0.07409579789278345</v>
+        <v>0.06426997381498453</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1166256950694298</v>
+        <v>0.1113796879223634</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1146826508324196</v>
+        <v>0.09915871805184656</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1166075138896912</v>
+        <v>0.1113279717814947</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03320075773903849</v>
+        <v>0.0315009391847398</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1178282455019422</v>
+        <v>0.1126029014737267</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03320075773903849</v>
+        <v>0.0315009391847398</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1178282455019422</v>
+        <v>0.1126029014737267</v>
       </c>
       <c r="L206" t="n">
-        <v>0.07464517850484945</v>
+        <v>0.06419998877624705</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1174587357484972</v>
+        <v>0.1121752571218088</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1158076446299811</v>
+        <v>0.1021221147765283</v>
       </c>
       <c r="O206" t="n">
-        <v>0.117440424703189</v>
+        <v>0.112123171579934</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03620632181340999</v>
+        <v>0.03190222464169783</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1186639068175588</v>
+        <v>0.1134015036118383</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03620632181340999</v>
+        <v>0.03190222464169783</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1186639068175588</v>
+        <v>0.1134015036118383</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06893876367727175</v>
+        <v>0.06537031507429544</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1182917764275645</v>
+        <v>0.1129708263212543</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1107602161140642</v>
+        <v>0.1018587692354531</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1182733355166868</v>
+        <v>0.1129183713783733</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03574674603950967</v>
+        <v>0.03122897087491139</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1194995681331754</v>
+        <v>0.1142001057499498</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03574674603950967</v>
+        <v>0.03122897087491139</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1194995681331754</v>
+        <v>0.1142001057499498</v>
       </c>
       <c r="L208" t="n">
-        <v>0.07021413791644732</v>
+        <v>0.0658080912751163</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1191248171066319</v>
+        <v>0.1137663955206997</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1038213555715475</v>
+        <v>0.1012750787833748</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1191062463301846</v>
+        <v>0.1137135711768125</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03628373444292292</v>
+        <v>0.03230476536327374</v>
       </c>
       <c r="G209" t="n">
-        <v>0.120335229448792</v>
+        <v>0.1149987078880614</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03628373444292292</v>
+        <v>0.03230476536327374</v>
       </c>
       <c r="K209" t="n">
-        <v>0.120335229448792</v>
+        <v>0.1149987078880614</v>
       </c>
       <c r="L209" t="n">
-        <v>0.07224458110309578</v>
+        <v>0.06608350586569448</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1199578577856992</v>
+        <v>0.1145619647201452</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1125050963799587</v>
+        <v>0.09998367583207496</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1199391571436824</v>
+        <v>0.1145087709752517</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03315988111452507</v>
+        <v>0.03040518256510534</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1211708907644086</v>
+        <v>0.1157973100261729</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03315988111452507</v>
+        <v>0.03040518256510534</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1211708907644086</v>
+        <v>0.1157973100261729</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07344583636380048</v>
+        <v>0.06301799468666772</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1207908984647666</v>
+        <v>0.1153575339195907</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1082722825634271</v>
+        <v>0.09705823670733277</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1207720679571802</v>
+        <v>0.115303970773691</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03376373652390303</v>
+        <v>0.03110739418172023</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1220065520800252</v>
+        <v>0.1165959121642844</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03376373652390303</v>
+        <v>0.03110739418172023</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1220065520800252</v>
+        <v>0.1165959121642844</v>
       </c>
       <c r="L211" t="n">
-        <v>0.07354959836586833</v>
+        <v>0.0648906388472168</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1216239391438339</v>
+        <v>0.1161531031190361</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1148306953962555</v>
+        <v>0.09934664425699474</v>
       </c>
       <c r="O211" t="n">
-        <v>0.121604978770678</v>
+        <v>0.1160991705721302</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03447430700217487</v>
+        <v>0.03083424469553599</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1228422133956418</v>
+        <v>0.117394514302396</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03447430700217487</v>
+        <v>0.03083424469553599</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1228422133956418</v>
+        <v>0.117394514302396</v>
       </c>
       <c r="L212" t="n">
-        <v>0.07113526550909219</v>
+        <v>0.06404704494786498</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1224569798229013</v>
+        <v>0.1169486723184816</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1021572911123742</v>
+        <v>0.09663697493817769</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1224378895841758</v>
+        <v>0.1168943703705695</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.0347066433955632</v>
+        <v>0.03081018623268902</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1236778747112584</v>
+        <v>0.1181931164405075</v>
       </c>
       <c r="J213" t="n">
-        <v>0.0347066433955632</v>
+        <v>0.03081018623268902</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1236778747112584</v>
+        <v>0.1181931164405075</v>
       </c>
       <c r="L213" t="n">
-        <v>0.0668178534995848</v>
+        <v>0.06432914943306098</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1232900205019686</v>
+        <v>0.117744241517927</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1045176104073921</v>
+        <v>0.09924009251985005</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1232708003976735</v>
+        <v>0.1176895701690087</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03416612621110862</v>
+        <v>0.03149221011602062</v>
       </c>
       <c r="G214" t="n">
-        <v>0.124513536026875</v>
+        <v>0.1189917185786191</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03416612621110862</v>
+        <v>0.03149221011602062</v>
       </c>
       <c r="K214" t="n">
-        <v>0.124513536026875</v>
+        <v>0.1189917185786191</v>
       </c>
       <c r="L214" t="n">
-        <v>0.07333475865013034</v>
+        <v>0.06196546254050042</v>
       </c>
       <c r="M214" t="n">
-        <v>0.124123061181036</v>
+        <v>0.1185398107173724</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1146797767715326</v>
+        <v>0.09918970207640926</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1241037112111713</v>
+        <v>0.118484769967448</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03610312664051409</v>
+        <v>0.03169404014568926</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1253491973424917</v>
+        <v>0.1197903207167306</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03610312664051409</v>
+        <v>0.03169404014568926</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1253491973424917</v>
+        <v>0.1197903207167306</v>
       </c>
       <c r="L215" t="n">
-        <v>0.07030813454562518</v>
+        <v>0.06199089022210549</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1249561018601033</v>
+        <v>0.1193353799168179</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1153155138767704</v>
+        <v>0.09951700615419323</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1249366220246691</v>
+        <v>0.1192799697658872</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03326149671133984</v>
+        <v>0.03166281150174304</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1261848586581082</v>
+        <v>0.1205889228548421</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03326149671133984</v>
+        <v>0.03166281150174304</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1261848586581082</v>
+        <v>0.1205889228548421</v>
       </c>
       <c r="L216" t="n">
-        <v>0.0667894534918827</v>
+        <v>0.06482311593740872</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1257891425391707</v>
+        <v>0.1201309491162634</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1104241844188848</v>
+        <v>0.1000268515251119</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1257695328381669</v>
+        <v>0.1200751695643265</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03326447006238302</v>
+        <v>0.03153712956171409</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1270205199737249</v>
+        <v>0.1213875249929536</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03326447006238302</v>
+        <v>0.03153712956171409</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1270205199737249</v>
+        <v>0.1213875249929536</v>
       </c>
       <c r="L217" t="n">
-        <v>0.07275742975212759</v>
+        <v>0.06491162113314816</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1266221832182381</v>
+        <v>0.1209265183157088</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1114691112865611</v>
+        <v>0.09677901552575324</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1266024436516647</v>
+        <v>0.1208703693627657</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03573094272025147</v>
+        <v>0.03062022411466563</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1278561812893415</v>
+        <v>0.1221861271310652</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03573094272025147</v>
+        <v>0.03062022411466563</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1278561812893415</v>
+        <v>0.1221861271310652</v>
       </c>
       <c r="L218" t="n">
-        <v>0.0738091451261948</v>
+        <v>0.06599909153207101</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1274552238973054</v>
+        <v>0.1217220875151543</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1090454998332938</v>
+        <v>0.09856404220356013</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1274353544651625</v>
+        <v>0.121665569161205</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03504593735565165</v>
+        <v>0.03081406542289868</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1286918426049581</v>
+        <v>0.1229847292691767</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03504593735565165</v>
+        <v>0.03081406542289868</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1286918426049581</v>
+        <v>0.1229847292691767</v>
       </c>
       <c r="L219" t="n">
-        <v>0.07096703923706776</v>
+        <v>0.06443984649633594</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1282882645763728</v>
+        <v>0.1225176567145997</v>
       </c>
       <c r="N219" t="n">
-        <v>0.101969106921151</v>
+        <v>0.0934401510960185</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1282682652786603</v>
+        <v>0.1224607689596442</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03297275205898186</v>
+        <v>0.03020641819757468</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1295275039205747</v>
+        <v>0.1237833314072883</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03297275205898186</v>
+        <v>0.03020641819757468</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1295275039205747</v>
+        <v>0.1237833314072883</v>
       </c>
       <c r="L220" t="n">
-        <v>0.07227873691207859</v>
+        <v>0.06412138503016321</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1291213052554401</v>
+        <v>0.1233132259140452</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1128153329277176</v>
+        <v>0.09381060705897926</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1291011760921581</v>
+        <v>0.1232559687580835</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03535831109675193</v>
+        <v>0.03125268915627315</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1303631652361913</v>
+        <v>0.1245819335453998</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03535831109675193</v>
+        <v>0.03125268915627315</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1303631652361913</v>
+        <v>0.1245819335453998</v>
       </c>
       <c r="L221" t="n">
-        <v>0.071886672226633</v>
+        <v>0.06228852438526508</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1299543459345075</v>
+        <v>0.1241087951134906</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1043752837823577</v>
+        <v>0.09739970484964006</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1299340869056559</v>
+        <v>0.1240511685565227</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.0345817560609408</v>
+        <v>0.03114989086426186</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1311988265518079</v>
+        <v>0.1253805356835113</v>
       </c>
       <c r="J222" t="n">
-        <v>0.0345817560609408</v>
+        <v>0.03114989086426186</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1311988265518079</v>
+        <v>0.1253805356835113</v>
       </c>
       <c r="L222" t="n">
-        <v>0.07195810674478637</v>
+        <v>0.0641212150343588</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1307873866135748</v>
+        <v>0.1249043643129361</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1047347017199314</v>
+        <v>0.09390559272259269</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1307669977191537</v>
+        <v>0.124846368354962</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03516305460783158</v>
+        <v>0.03083126675716968</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1320344878674246</v>
+        <v>0.1261791378216229</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03516305460783158</v>
+        <v>0.03083126675716968</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1320344878674246</v>
+        <v>0.1261791378216229</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06592417943902745</v>
+        <v>0.06302339478623364</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1316204272926422</v>
+        <v>0.1256999335123815</v>
       </c>
       <c r="N223" t="n">
-        <v>0.102917373983963</v>
+        <v>0.09472574069205825</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1315999085326515</v>
+        <v>0.1256415681534012</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.03358923708164262</v>
+        <v>0.03086814515234901</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1328701491830412</v>
+        <v>0.1269777399597344</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03358923708164262</v>
+        <v>0.03086814515234901</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1328701491830412</v>
+        <v>0.1269777399597344</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06820465751603952</v>
+        <v>0.06314973021406217</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1324534679717095</v>
+        <v>0.126495502711827</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1081980610648292</v>
+        <v>0.09313922271743602</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1324328193461493</v>
+        <v>0.1264367679518405</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03272448941411518</v>
+        <v>0.03095162433715365</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1337058104986578</v>
+        <v>0.127776342097846</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03272448941411518</v>
+        <v>0.03095162433715365</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1337058104986578</v>
+        <v>0.127776342097846</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06501624228360697</v>
+        <v>0.0625270414898047</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1332865086507769</v>
+        <v>0.1272910719112725</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1095079741119868</v>
+        <v>0.09664878037649022</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1332657301596471</v>
+        <v>0.1272319677502797</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03270535048059846</v>
+        <v>0.02983090984234368</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1345414718142744</v>
+        <v>0.1285749442359575</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03270535048059846</v>
+        <v>0.02983090984234368</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1345414718142744</v>
+        <v>0.1285749442359575</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06949476463389423</v>
+        <v>0.06492894043859207</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1341195493298443</v>
+        <v>0.1280866411107179</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1099231129779604</v>
+        <v>0.0957962061817364</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1340986409731449</v>
+        <v>0.128027167548719</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.03425459629797085</v>
+        <v>0.03124432519163341</v>
       </c>
       <c r="G227" t="n">
-        <v>0.135377133129891</v>
+        <v>0.129373546374069</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03425459629797085</v>
+        <v>0.03124432519163341</v>
       </c>
       <c r="K227" t="n">
-        <v>0.135377133129891</v>
+        <v>0.129373546374069</v>
       </c>
       <c r="L227" t="n">
-        <v>0.06515282724827845</v>
+        <v>0.06434201404913639</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1349525900089116</v>
+        <v>0.1288822103101634</v>
       </c>
       <c r="N227" t="n">
-        <v>0.09824757613302515</v>
+        <v>0.0945772495673361</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1349315517866427</v>
+        <v>0.1288223673471582</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03302695704626482</v>
+        <v>0.03070125919449633</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1362127944455076</v>
+        <v>0.1301721485121806</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03302695704626482</v>
+        <v>0.03070125919449633</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1362127944455076</v>
+        <v>0.1301721485121806</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06989662917744971</v>
+        <v>0.06078617231678102</v>
       </c>
       <c r="M228" t="n">
-        <v>0.135785630687979</v>
+        <v>0.1296777795096088</v>
       </c>
       <c r="N228" t="n">
-        <v>0.09938199343502907</v>
+        <v>0.09466459443791581</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1357644626001405</v>
+        <v>0.1296175671455975</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.03355577468771787</v>
+        <v>0.0301129910432798</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1370484557611242</v>
+        <v>0.1309707506502921</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03355577468771787</v>
+        <v>0.0301129910432798</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1370484557611242</v>
+        <v>0.1309707506502921</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06572308050528558</v>
+        <v>0.06118275046976721</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1366186713670463</v>
+        <v>0.1304733487090542</v>
       </c>
       <c r="N229" t="n">
-        <v>0.09678545314156051</v>
+        <v>0.09740626911926947</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1365973734136383</v>
+        <v>0.1304127669440367</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03181693374013495</v>
+        <v>0.03082186307951666</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1378841170767408</v>
+        <v>0.1317693527884037</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03181693374013495</v>
+        <v>0.03082186307951666</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1378841170767408</v>
+        <v>0.1317693527884037</v>
       </c>
       <c r="L230" t="n">
-        <v>0.0621718671172429</v>
+        <v>0.06395401472192513</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1374517120461137</v>
+        <v>0.1312689179084997</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1021450058635352</v>
+        <v>0.09437192395407473</v>
       </c>
       <c r="O230" t="n">
-        <v>0.137430284227136</v>
+        <v>0.131207966742476</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.03170849041600936</v>
+        <v>0.03084516439466449</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1387197783923574</v>
+        <v>0.1325679549265152</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03170849041600936</v>
+        <v>0.03084516439466449</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1387197783923574</v>
+        <v>0.1325679549265152</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06183552131519085</v>
+        <v>0.06399754217623638</v>
       </c>
       <c r="M231" t="n">
-        <v>0.138284752725181</v>
+        <v>0.1320644871079452</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1070384458906845</v>
+        <v>0.09635624128199588</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1382631950406339</v>
+        <v>0.1320031665409152</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03113085798550475</v>
+        <v>0.03004267810140236</v>
       </c>
       <c r="G232" t="n">
-        <v>0.139555439707974</v>
+        <v>0.1333665570646267</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03113085798550475</v>
+        <v>0.03004267810140236</v>
       </c>
       <c r="K232" t="n">
-        <v>0.139555439707974</v>
+        <v>0.1333665570646267</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06843363403346198</v>
+        <v>0.06077254841768515</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1391177934042484</v>
+        <v>0.1328600563073906</v>
       </c>
       <c r="N232" t="n">
-        <v>0.09885636683230048</v>
+        <v>0.09132791200827695</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1390961058541317</v>
+        <v>0.1327983663393544</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.03181754260426251</v>
+        <v>0.03050923435769801</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1403911010235906</v>
+        <v>0.1341651592027382</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03181754260426251</v>
+        <v>0.03050923435769801</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1403911010235906</v>
+        <v>0.1341651592027382</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06741847972501089</v>
+        <v>0.06289074632144886</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1399508340833158</v>
+        <v>0.1336556255068361</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1012540764546175</v>
+        <v>0.09486881398818131</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1399290166676294</v>
+        <v>0.1335935661377937</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.03126552242864242</v>
+        <v>0.02962409192234242</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1412267623392073</v>
+        <v>0.1349637613408498</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03126552242864242</v>
+        <v>0.02962409192234242</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1412267623392073</v>
+        <v>0.1349637613408498</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06614575718713792</v>
+        <v>0.06267340424838583</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1407838747623831</v>
+        <v>0.1344511947062815</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1000465679635671</v>
+        <v>0.09061358951206527</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1407619274811272</v>
+        <v>0.1343887659362329</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.03355934487403371</v>
+        <v>0.02953671646437722</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1420624236548239</v>
+        <v>0.1357623634789613</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03355934487403371</v>
+        <v>0.02953671646437722</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1420624236548239</v>
+        <v>0.1357623634789613</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06821414906938691</v>
+        <v>0.0615750856075386</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1416169154414505</v>
+        <v>0.135246763905727</v>
       </c>
       <c r="N235" t="n">
-        <v>0.103837436869472</v>
+        <v>0.09377029488581751</v>
       </c>
       <c r="O235" t="n">
-        <v>0.141594838294625</v>
+        <v>0.1351839657346722</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.03141012520392394</v>
+        <v>0.02973018634592214</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1428980849704405</v>
+        <v>0.1365609656170729</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03141012520392394</v>
+        <v>0.02973018634592214</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1428980849704405</v>
+        <v>0.1365609656170729</v>
       </c>
       <c r="L236" t="n">
-        <v>0.06519479024046998</v>
+        <v>0.06240378556190831</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1424499561205178</v>
+        <v>0.1360423331051724</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1039573349163581</v>
+        <v>0.09272663798135661</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1424277491081228</v>
+        <v>0.1359791655331114</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.03266494295068802</v>
+        <v>0.02919928630674791</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1437337462860571</v>
+        <v>0.1373595677551844</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03266494295068802</v>
+        <v>0.02919928630674791</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1437337462860571</v>
+        <v>0.1373595677551844</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06778039022903626</v>
+        <v>0.06217878578202835</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1432829967995852</v>
+        <v>0.1368379023046179</v>
       </c>
       <c r="N237" t="n">
-        <v>0.09399411903812249</v>
+        <v>0.09197505638667774</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1432606599216206</v>
+        <v>0.1367743653315507</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.032125032924203</v>
+        <v>0.03012399400469573</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1445694076016737</v>
+        <v>0.1381581698932959</v>
       </c>
       <c r="J238" t="n">
-        <v>0.032125032924203</v>
+        <v>0.03012399400469573</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1445694076016737</v>
+        <v>0.1381581698932959</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06540707854782932</v>
+        <v>0.05965254487748539</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1441160374786525</v>
+        <v>0.1376334715040633</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1003958641452685</v>
+        <v>0.09229828595679668</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1440935707351184</v>
+        <v>0.1375695651299899</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.03135021871918044</v>
+        <v>0.02966185602259193</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1454050689172903</v>
+        <v>0.1389567720314075</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03135021871918044</v>
+        <v>0.02966185602259193</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1454050689172903</v>
+        <v>0.1389567720314075</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06173866256224461</v>
+        <v>0.05904131225996853</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1449490781577199</v>
+        <v>0.1384290407035088</v>
       </c>
       <c r="N239" t="n">
-        <v>0.09834163048896855</v>
+        <v>0.08995662106132385</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1449264815486162</v>
+        <v>0.1383647649284292</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03087716982233697</v>
+        <v>0.02919183764275476</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1462407302329069</v>
+        <v>0.139755374169519</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03087716982233697</v>
+        <v>0.02919183764275476</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1462407302329069</v>
+        <v>0.139755374169519</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06608147812959586</v>
+        <v>0.06286391652864984</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1457821188367872</v>
+        <v>0.1392246099029542</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1032085714227781</v>
+        <v>0.09020019272864921</v>
       </c>
       <c r="O240" t="n">
-        <v>0.145759392362114</v>
+        <v>0.1391599647268684</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.03362517905729458</v>
+        <v>0.02981199979872833</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1470763915485235</v>
+        <v>0.1405539763076306</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03362517905729458</v>
+        <v>0.02981199979872833</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1470763915485235</v>
+        <v>0.1405539763076306</v>
       </c>
       <c r="L241" t="n">
-        <v>0.06339339492716553</v>
+        <v>0.06257069419919359</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1466151595158546</v>
+        <v>0.1400201791023997</v>
       </c>
       <c r="N241" t="n">
-        <v>0.09616688288334757</v>
+        <v>0.0913784726183352</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1465923031756118</v>
+        <v>0.1399551645253077</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.03177412236604728</v>
+        <v>0.02953796761988173</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1479120528641402</v>
+        <v>0.1413525784457421</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03177412236604728</v>
+        <v>0.02953796761988173</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1479120528641402</v>
+        <v>0.1413525784457421</v>
       </c>
       <c r="L242" t="n">
-        <v>0.06273878444212716</v>
+        <v>0.05926981150570856</v>
       </c>
       <c r="M242" t="n">
-        <v>0.147448200194922</v>
+        <v>0.1408157483018451</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1000383774962836</v>
+        <v>0.09106162762319336</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1474252139891096</v>
+        <v>0.1407503643237469</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.03079730044567579</v>
+        <v>0.02965899479986656</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1487477141797568</v>
+        <v>0.1421511805838536</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03079730044567579</v>
+        <v>0.02965899479986656</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1487477141797568</v>
+        <v>0.1421511805838536</v>
       </c>
       <c r="L243" t="n">
-        <v>0.06052626834634742</v>
+        <v>0.06211975067092237</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1482812408739893</v>
+        <v>0.1416113175012906</v>
       </c>
       <c r="N243" t="n">
-        <v>0.09714652979970861</v>
+        <v>0.09206170537520836</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1482581248026074</v>
+        <v>0.1415455641221862</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.03154415194752913</v>
+        <v>0.02934206787336015</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1495833754953734</v>
+        <v>0.1429497827219652</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03154415194752913</v>
+        <v>0.02934206787336015</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1495833754953734</v>
+        <v>0.1429497827219652</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06410165956058056</v>
+        <v>0.06166494402511</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1491142815530567</v>
+        <v>0.142406886700736</v>
       </c>
       <c r="N244" t="n">
-        <v>0.09811633383482998</v>
+        <v>0.09405411972738681</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1490910356161052</v>
+        <v>0.1423407639206254</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.0329536923007762</v>
+        <v>0.02897558942541788</v>
       </c>
       <c r="G245" t="n">
-        <v>0.15041903681099</v>
+        <v>0.1437483848600767</v>
       </c>
       <c r="J245" t="n">
-        <v>0.0329536923007762</v>
+        <v>0.02897558942541788</v>
       </c>
       <c r="K245" t="n">
-        <v>0.15041903681099</v>
+        <v>0.1437483848600767</v>
       </c>
       <c r="L245" t="n">
-        <v>0.06770779863611784</v>
+        <v>0.06010861427116229</v>
       </c>
       <c r="M245" t="n">
-        <v>0.149947322232124</v>
+        <v>0.1432024559001815</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1005773452749472</v>
+        <v>0.09294794375057636</v>
       </c>
       <c r="O245" t="n">
-        <v>0.149923946429603</v>
+        <v>0.1431359637190647</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.0321376088867527</v>
+        <v>0.02993863984794533</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1512546981266066</v>
+        <v>0.1445469869981882</v>
       </c>
       <c r="J246" t="n">
-        <v>0.0321376088867527</v>
+        <v>0.02993863984794533</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1512546981266066</v>
+        <v>0.1445469869981882</v>
       </c>
       <c r="L246" t="n">
-        <v>0.06606567251996753</v>
+        <v>0.05859700820546265</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1507803629111914</v>
+        <v>0.1439980250996269</v>
       </c>
       <c r="N246" t="n">
-        <v>0.09330161273783405</v>
+        <v>0.09102787198563717</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1507568572431008</v>
+        <v>0.1439311635175039</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.03056378280680139</v>
+        <v>0.02983229053141093</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1520903594422232</v>
+        <v>0.1453455891362998</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03056378280680139</v>
+        <v>0.02983229053141093</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1520903594422232</v>
+        <v>0.1453455891362998</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06765259141326346</v>
+        <v>0.06099034835269793</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1516134035902587</v>
+        <v>0.1447935942990724</v>
       </c>
       <c r="N247" t="n">
-        <v>0.09303213458911141</v>
+        <v>0.09034834846041595</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1515897680565985</v>
+        <v>0.1447263633159432</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.0332198932638559</v>
+        <v>0.02904000460516297</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1529260207578398</v>
+        <v>0.1461441912744113</v>
       </c>
       <c r="J248" t="n">
-        <v>0.0332198932638559</v>
+        <v>0.02904000460516297</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1529260207578398</v>
+        <v>0.1461441912744113</v>
       </c>
       <c r="L248" t="n">
-        <v>0.06088226592768367</v>
+        <v>0.05989550309987396</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1524464442693261</v>
+        <v>0.1455891634985179</v>
       </c>
       <c r="N248" t="n">
-        <v>0.09370338307271175</v>
+        <v>0.08833675422959031</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1524226788700964</v>
+        <v>0.1455215631143824</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.03075509198841861</v>
+        <v>0.02907565876885347</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1537616820734564</v>
+        <v>0.1469427934125228</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03075509198841861</v>
+        <v>0.02907565876885347</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1537616820734564</v>
+        <v>0.1469427934125228</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06611616445395302</v>
+        <v>0.05943898959165084</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1532794849483935</v>
+        <v>0.1463847326979633</v>
       </c>
       <c r="N249" t="n">
-        <v>0.09446796262653856</v>
+        <v>0.09249599434881484</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1532555896835942</v>
+        <v>0.1463167629128217</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.0315395053696652</v>
+        <v>0.02842616503265735</v>
       </c>
       <c r="G250" t="n">
-        <v>0.154597343389073</v>
+        <v>0.1477413955506344</v>
       </c>
       <c r="J250" t="n">
-        <v>0.0315395053696652</v>
+        <v>0.02842616503265735</v>
       </c>
       <c r="K250" t="n">
-        <v>0.154597343389073</v>
+        <v>0.1477413955506344</v>
       </c>
       <c r="L250" t="n">
-        <v>0.06525226428937989</v>
+        <v>0.05929314791368681</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1541125256274608</v>
+        <v>0.1471803018974087</v>
       </c>
       <c r="N250" t="n">
-        <v>0.09686894788595202</v>
+        <v>0.0924666745030932</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1540885004970919</v>
+        <v>0.1471119627112609</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.03312459854682089</v>
+        <v>0.02900741542349823</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1554330047046897</v>
+        <v>0.1485399976887459</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03312459854682089</v>
+        <v>0.02900741542349823</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1554330047046897</v>
+        <v>0.1485399976887459</v>
       </c>
       <c r="L251" t="n">
-        <v>0.06181013795557891</v>
+        <v>0.0581070309653329</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1549455663065282</v>
+        <v>0.1479758710968542</v>
       </c>
       <c r="N251" t="n">
-        <v>0.09176303956600801</v>
+        <v>0.09411005232519232</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1549214113105897</v>
+        <v>0.1479071625097002</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.03031693188093743</v>
+        <v>0.02972167979504801</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1562686660203063</v>
+        <v>0.1493385998268575</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03031693188093743</v>
+        <v>0.02972167979504801</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1562686660203063</v>
+        <v>0.1493385998268575</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06590664147754804</v>
+        <v>0.05979145417899204</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1557786069855955</v>
+        <v>0.1487714402962997</v>
       </c>
       <c r="N252" t="n">
-        <v>0.09103516278502866</v>
+        <v>0.08713541138378533</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1557543221240875</v>
+        <v>0.1487023623081394</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.03126260504150057</v>
+        <v>0.02983477270839625</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1571043273359229</v>
+        <v>0.150137201964969</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03126260504150057</v>
+        <v>0.02983477270839625</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1571043273359229</v>
+        <v>0.150137201964969</v>
       </c>
       <c r="L253" t="n">
-        <v>0.06575527650950683</v>
+        <v>0.06071162199485983</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1566116476646629</v>
+        <v>0.1495670094957451</v>
       </c>
       <c r="N253" t="n">
-        <v>0.09501388222922119</v>
+        <v>0.08956431165471124</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1565872329375853</v>
+        <v>0.1494975621065787</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.03123570577923537</v>
+        <v>0.02929144618646227</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1579399886515395</v>
+        <v>0.1509358041030805</v>
       </c>
       <c r="J254" t="n">
-        <v>0.03123570577923537</v>
+        <v>0.02929144618646227</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1579399886515395</v>
+        <v>0.1509358041030805</v>
       </c>
       <c r="L254" t="n">
-        <v>0.05937315932065956</v>
+        <v>0.06189582083999839</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1574446883437302</v>
+        <v>0.1503625786951906</v>
       </c>
       <c r="N254" t="n">
-        <v>0.09512663383303416</v>
+        <v>0.08811759610084235</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1574201437510831</v>
+        <v>0.1502927619050179</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.03252395815448883</v>
+        <v>0.02907048745095285</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1587756499671561</v>
+        <v>0.1517344062411921</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03252395815448883</v>
+        <v>0.02907048745095285</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1587756499671561</v>
+        <v>0.1517344062411921</v>
       </c>
       <c r="L255" t="n">
-        <v>0.05982266978802689</v>
+        <v>0.05797667009165608</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1582777290227976</v>
+        <v>0.151158147894636</v>
       </c>
       <c r="N255" t="n">
-        <v>0.08952146459197113</v>
+        <v>0.0919908505583012</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1582530545645809</v>
+        <v>0.1510879617034572</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.03314537456866912</v>
+        <v>0.02970768080852365</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1596113112827727</v>
+        <v>0.1525330083793036</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03314537456866912</v>
+        <v>0.02970768080852365</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1596113112827727</v>
+        <v>0.1525330083793036</v>
       </c>
       <c r="L256" t="n">
-        <v>0.06204295295162604</v>
+        <v>0.05933805347084406</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1591107697018649</v>
+        <v>0.1519537170940815</v>
       </c>
       <c r="N256" t="n">
-        <v>0.08971878205564948</v>
+        <v>0.09130800177925114</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1590859653780787</v>
+        <v>0.1518831615018964</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.03157927909599223</v>
+        <v>0.02862899282728035</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1604469725983893</v>
+        <v>0.1533316105174151</v>
       </c>
       <c r="J257" t="n">
-        <v>0.03157927909599223</v>
+        <v>0.02862899282728035</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1604469725983893</v>
+        <v>0.1533316105174151</v>
       </c>
       <c r="L257" t="n">
-        <v>0.0642042916450089</v>
+        <v>0.05964051466112388</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1599438103809323</v>
+        <v>0.1527492862935269</v>
       </c>
       <c r="N257" t="n">
-        <v>0.09906886808617898</v>
+        <v>0.09284068596290823</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1599188761915765</v>
+        <v>0.1526783613003357</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.03046248508219783</v>
+        <v>0.02815900254471078</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1612826339140059</v>
+        <v>0.1541302126555267</v>
       </c>
       <c r="J258" t="n">
-        <v>0.03046248508219783</v>
+        <v>0.02815900254471078</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1612826339140059</v>
+        <v>0.1541302126555267</v>
       </c>
       <c r="L258" t="n">
-        <v>0.0662070429517066</v>
+        <v>0.06026209930776108</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1607768510599996</v>
+        <v>0.1535448554929724</v>
       </c>
       <c r="N258" t="n">
-        <v>0.09724445719667113</v>
+        <v>0.08629307359889121</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1607517870050743</v>
+        <v>0.1534735610987749</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.03272209864359643</v>
+        <v>0.02931088651440777</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1621182952296225</v>
+        <v>0.1549288147936382</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03272209864359643</v>
+        <v>0.02931088651440777</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1621182952296225</v>
+        <v>0.1549288147936382</v>
       </c>
       <c r="L259" t="n">
-        <v>0.06269813900272078</v>
+        <v>0.05979230840696859</v>
       </c>
       <c r="M259" t="n">
-        <v>0.161609891739067</v>
+        <v>0.1543404246924178</v>
       </c>
       <c r="N259" t="n">
-        <v>0.09050430803663956</v>
+        <v>0.08800549739842001</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1615846978185721</v>
+        <v>0.1542687608972141</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.03316037680374667</v>
+        <v>0.02816699981983513</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1629539565452391</v>
+        <v>0.1557274169317498</v>
       </c>
       <c r="J260" t="n">
-        <v>0.03316037680374667</v>
+        <v>0.02816699981983513</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1629539565452391</v>
+        <v>0.1557274169317498</v>
       </c>
       <c r="L260" t="n">
-        <v>0.05850729644742869</v>
+        <v>0.05794150203298928</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1624429324181343</v>
+        <v>0.1551359938918633</v>
       </c>
       <c r="N260" t="n">
-        <v>0.09579059319945182</v>
+        <v>0.08824155442237513</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1624176086320699</v>
+        <v>0.1550639606956534</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.03019210037742671</v>
+        <v>0.02899192299265151</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1637896178608557</v>
+        <v>0.1565260190698613</v>
       </c>
       <c r="J261" t="n">
-        <v>0.03019210037742671</v>
+        <v>0.02899192299265151</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1637896178608557</v>
+        <v>0.1565260190698613</v>
       </c>
       <c r="L261" t="n">
-        <v>0.0650718604251587</v>
+        <v>0.05805224151058719</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1632759730972017</v>
+        <v>0.1559315630913087</v>
       </c>
       <c r="N261" t="n">
-        <v>0.09472804664931295</v>
+        <v>0.09100902799408461</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1632505194455677</v>
+        <v>0.1558591604940927</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.03000486226685943</v>
+        <v>0.02858298116653393</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1646252791764724</v>
+        <v>0.1573246212079729</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03000486226685943</v>
+        <v>0.02858298116653393</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1646252791764724</v>
+        <v>0.1573246212079729</v>
       </c>
       <c r="L262" t="n">
-        <v>0.05988269433486218</v>
+        <v>0.06018883165460001</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1641090137762691</v>
+        <v>0.1567271322907542</v>
       </c>
       <c r="N262" t="n">
-        <v>0.09704912519225539</v>
+        <v>0.09081455840951264</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1640834302590655</v>
+        <v>0.1566543602925319</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.03258275884381256</v>
+        <v>0.02872376096459379</v>
       </c>
       <c r="G263" t="n">
-        <v>0.165460940492089</v>
+        <v>0.1581232233460844</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03258275884381256</v>
+        <v>0.02872376096459379</v>
       </c>
       <c r="K263" t="n">
-        <v>0.165460940492089</v>
+        <v>0.1581232233460844</v>
       </c>
       <c r="L263" t="n">
-        <v>0.06584763848609576</v>
+        <v>0.05888996072968231</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1649420544553364</v>
+        <v>0.1575227014901996</v>
       </c>
       <c r="N263" t="n">
-        <v>0.09986306718335169</v>
+        <v>0.09207623067386245</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1649163410725633</v>
+        <v>0.1574495600909711</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.03111015399798765</v>
+        <v>0.028269775499057</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1662966018077056</v>
+        <v>0.1589218254841959</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03111015399798765</v>
+        <v>0.028269775499057</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1662966018077056</v>
+        <v>0.1589218254841959</v>
       </c>
       <c r="L264" t="n">
-        <v>0.06122063198732711</v>
+        <v>0.05955789943838266</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1657750951344038</v>
+        <v>0.1583182706896451</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1005869615879814</v>
+        <v>0.08798315041012628</v>
       </c>
       <c r="O264" t="n">
-        <v>0.165749251886061</v>
+        <v>0.1582447598894104</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1059.xlsx
+++ b/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1059.xlsx
@@ -4882,7 +4882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="S81" sqref="S81"/>
@@ -8805,7 +8805,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.06746816462443581</v>
+        <v>0.1006139320975862</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9252,10 +9252,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.05061393209758616</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001746803361320112</v>
+        <v>0.005061355249309544</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9270,29 +9270,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>-0.0002749999999999975</v>
+        <v>0</v>
       </c>
       <c r="G65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>-0.0002749999999999975</v>
+        <v>-0.0003099999999999978</v>
       </c>
       <c r="K65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.01836642597334326</v>
+        <v>0.01656579597595667</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0.0003887045127015546</v>
+        <v>0.0003681260384997077</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.02509623622467289</v>
+        <v>-2.499999999999725e-05</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.0003280529150706039</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9312,29 +9312,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.01030621712841712</v>
+        <v>0.009534698318798336</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006870759887859107</v>
+        <v>0.0005561715176697933</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.01030621712841712</v>
+        <v>0.007161947496018679</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0006870759887859107</v>
+        <v>0.0004774595854274973</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.03601259994773187</v>
+        <v>0.02945177893047529</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001143248566769278</v>
+        <v>0.000795856447829063</v>
       </c>
       <c r="N66" s="171" t="n">
         <v>0.05455703527102795</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001069737766534577</v>
+        <v>0.001059351962975989</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9352,10 +9352,10 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.01816121240506933</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001746803361320112</v>
+        <v>0.001112343035339587</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
@@ -9365,16 +9365,16 @@
         <v>0.001746803361320112</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.03806968507636119</v>
+        <v>0.03601259994773187</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001591138398890906</v>
+        <v>0.001200410995107742</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.05652942658116489</v>
+        <v>0.05483794820598459</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001590399596878496</v>
+        <v>0.001590295216943234</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9394,29 +9394,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01792980606421041</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002395806414334612</v>
+        <v>0.001687118416436514</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01792980606421041</v>
+        <v>0.01891153100878305</v>
       </c>
       <c r="K68" s="171" t="n">
         <v>0.002395806414334612</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.0392639074633844</v>
+        <v>0.03933831104591218</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002386707598336358</v>
+        <v>0.002387569343487189</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.05728250115508648</v>
+        <v>0.06106168884464841</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002385599395317745</v>
+        <v>0.002385442825414851</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9441,29 +9441,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01955544042142113</v>
+        <v>0.0308831288469745</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003194408552446149</v>
+        <v>0.002224686070679173</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01955544042142113</v>
+        <v>0.01970834851216485</v>
       </c>
       <c r="K69" s="171" t="n">
         <v>0.003194408552446149</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.04256974701227739</v>
+        <v>0.04014297559827021</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003182276797781811</v>
+        <v>0.003183425791316252</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.06377822435395458</v>
+        <v>0.06530224501847759</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003180799193756993</v>
+        <v>0.003180590433886468</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9478,62 +9478,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0006870759887859107</v>
+        <v>0.001687118416436514</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01030621712841712</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.02012990547058958</v>
+        <v>0.03644359093644176</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003993010690557687</v>
+        <v>0.002780857588348967</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02012990547058958</v>
+        <v>0.02107688203771692</v>
       </c>
       <c r="K70" s="171" t="n">
         <v>0.003993010690557687</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04252261913198199</v>
+        <v>0.04446669792982413</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003977845997227264</v>
+        <v>0.003979282239145314</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.06638627980859896</v>
+        <v>0.06406460823163845</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003975998992196241</v>
+        <v>0.003975738042358084</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02100105266820586</v>
+        <v>0.04149206577244127</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004791612828669223</v>
+        <v>0.00333702910601876</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02100105266820586</v>
+        <v>0.0216849039644674</v>
       </c>
       <c r="K71" s="171" t="n">
         <v>0.004791612828669223</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04537242628077626</v>
+        <v>0.04527575630479164</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004773415196672716</v>
+        <v>0.004775138686974378</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.07260263897171293</v>
+        <v>0.07317905160114019</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004771198790635489</v>
+        <v>0.004770885650829702</v>
       </c>
     </row>
     <row r="72">
@@ -9548,29 +9548,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.02290144112731379</v>
+        <v>0.04572541325551524</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.00559021496678076</v>
+        <v>0.003893200623688553</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02290144112731379</v>
+        <v>0.02242924168875179</v>
       </c>
       <c r="K72" s="171" t="n">
         <v>0.00559021496678076</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04956576848567554</v>
+        <v>0.0453580443340828</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005568984396118169</v>
+        <v>0.005570995134803441</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.07556031298701815</v>
+        <v>0.07338850724148444</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005566398589074737</v>
+        <v>0.005566033259301319</v>
       </c>
     </row>
     <row r="73">
@@ -9594,29 +9594,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02291967392943461</v>
+        <v>0.04884049328620589</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006388817104892298</v>
+        <v>0.004449372141358346</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02291967392943461</v>
+        <v>0.02375939332640811</v>
       </c>
       <c r="K73" s="171" t="n">
         <v>0.006388817104892298</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04914595456606544</v>
+        <v>0.05022768656329107</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006364553595563622</v>
+        <v>0.006366851582632504</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.07646720327309586</v>
+        <v>0.07520946533170536</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006361598387513986</v>
+        <v>0.006361180867772936</v>
       </c>
     </row>
     <row r="74">
@@ -9631,29 +9631,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02388457734347746</v>
+        <v>0.05061393209758616</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007187419243003835</v>
+        <v>0.005061355249309544</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02388457734347746</v>
+        <v>0.02355239395953219</v>
       </c>
       <c r="K74" s="171" t="n">
         <v>0.007187419243003835</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.05030210402616334</v>
+        <v>0.05142072677701964</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007160122795009075</v>
+        <v>0.007162708030461566</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.07836006924970951</v>
+        <v>0.07499392566377278</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007156798185953234</v>
+        <v>0.007156328476244552</v>
       </c>
     </row>
     <row r="75">
@@ -9675,29 +9675,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.02445958460967809</v>
+        <v>0.05124516877195633</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007986021381115373</v>
+        <v>0.005561715176697933</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02445958460967809</v>
+        <v>0.02432304017153505</v>
       </c>
       <c r="K75" s="171" t="n">
         <v>0.007986021381115373</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.0513574328088765</v>
+        <v>0.05211492525115269</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007955691994454528</v>
+        <v>0.007958564478290629</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.08113124006886413</v>
+        <v>0.08247595211279307</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007951997984392481</v>
+        <v>0.007951476084716169</v>
       </c>
     </row>
     <row r="76">
@@ -9717,29 +9717,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02456991156769271</v>
+        <v>0.05193486225656946</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.00878462351922691</v>
+        <v>0.006117886694367726</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02456991156769271</v>
+        <v>0.02536160449130447</v>
       </c>
       <c r="K76" s="171" t="n">
         <v>0.00878462351922691</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05452936700119471</v>
+        <v>0.05247432507375557</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008751261193899981</v>
+        <v>0.008754420926119692</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.08008413877445508</v>
+        <v>0.08282233051984733</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.00874719778283173</v>
+        <v>0.008746623693187787</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9754,28 +9754,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02598926536595253</v>
+        <v>0.05261207473045341</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009583225657338447</v>
+        <v>0.00667405821203752</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02598926536595253</v>
+        <v>0.02627561361031186</v>
       </c>
       <c r="K77" t="n">
         <v>0.009583225657338447</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05231787594506973</v>
+        <v>0.05483890958238924</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009546830393345432</v>
+        <v>0.009550277373948755</v>
       </c>
       <c r="N77" t="n">
-        <v>0.08028506954310299</v>
+        <v>0.08214243725950104</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009542397581270979</v>
+        <v>0.009541771301659403</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9794,28 +9794,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02586824961305272</v>
+        <v>0.05327691334593873</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01038182779544998</v>
+        <v>0.007230229729707312</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02586824961305272</v>
+        <v>0.02578968119612142</v>
       </c>
       <c r="K78" t="n">
         <v>0.01038182779544998</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05441254220573988</v>
+        <v>0.05683977191845796</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01034239959279089</v>
+        <v>0.01034613382177782</v>
       </c>
       <c r="N78" t="n">
-        <v>0.08225010847366265</v>
+        <v>0.08709556484797759</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01033759737971023</v>
+        <v>0.01033691891013102</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9836,28 +9836,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02722106025070593</v>
+        <v>0.05392948525535586</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01118042993356152</v>
+        <v>0.007786401247377107</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02722106025070593</v>
+        <v>0.0265002609062308</v>
       </c>
       <c r="K79" t="n">
         <v>0.01118042993356152</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05746127643043447</v>
+        <v>0.05663725953578461</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01113796879223634</v>
+        <v>0.01114199026960688</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0830169970998646</v>
+        <v>0.08584242933147573</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01113279717814947</v>
+        <v>0.01113206651860264</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9867,28 +9867,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02782207577634373</v>
+        <v>0.05456989761103528</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01197903207167306</v>
+        <v>0.0083425727650469</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02782207577634373</v>
+        <v>0.02766491513006103</v>
       </c>
       <c r="K80" t="n">
         <v>0.01197903207167306</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05675130421842017</v>
+        <v>0.05533197603183837</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01193353799168179</v>
+        <v>0.01193784671743594</v>
       </c>
       <c r="N80" t="n">
-        <v>0.08684534411744538</v>
+        <v>0.08641807067320845</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01192799697658872</v>
+        <v>0.01192721412707425</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9904,28 +9904,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02748312857958767</v>
+        <v>0.0551982575653075</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0127776342097846</v>
+        <v>0.008898744282716692</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02748312857958767</v>
+        <v>0.02797635090036012</v>
       </c>
       <c r="K81" t="n">
         <v>0.0127776342097846</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05860789208571598</v>
+        <v>0.05761705662672842</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01272910719112724</v>
+        <v>0.01273370316526501</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08910345891146859</v>
+        <v>0.08608532940902119</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01272319677502797</v>
+        <v>0.01272236173554587</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9938,28 +9938,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02820735701011458</v>
+        <v>0.05581467227050298</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01357623634789613</v>
+        <v>0.009454915800386486</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02820735701011458</v>
+        <v>0.02772793304353485</v>
       </c>
       <c r="K82" t="n">
         <v>0.01357623634789613</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05641936186469232</v>
+        <v>0.05912673604200996</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0135246763905727</v>
+        <v>0.01352955961309407</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08557006080094404</v>
+        <v>0.08593031387144273</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01351839657346722</v>
+        <v>0.01351750934401749</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9969,28 +9969,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02879268785855467</v>
+        <v>0.05641924887895221</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01437483848600767</v>
+        <v>0.01001108731805628</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02879268785855467</v>
+        <v>0.02760726281871936</v>
       </c>
       <c r="K83" t="n">
         <v>0.01437483848600767</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05678468598008884</v>
+        <v>0.05943019799963037</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01432024559001815</v>
+        <v>0.01432541606092313</v>
       </c>
       <c r="N83" t="n">
-        <v>0.09228406568495906</v>
+        <v>0.09191756294119563</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01431359637190647</v>
+        <v>0.0143126569524891</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10005,28 +10005,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02944784281997419</v>
+        <v>0.05701209454298568</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01517344062411921</v>
+        <v>0.01056725883572607</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02944784281997419</v>
+        <v>0.02823393525551871</v>
       </c>
       <c r="K84" t="n">
         <v>0.01517344062411921</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05775713527396162</v>
+        <v>0.05901701655886141</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0151158147894636</v>
+        <v>0.0151212725087522</v>
       </c>
       <c r="N84" t="n">
-        <v>0.09170987464325153</v>
+        <v>0.09000924089005052</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01510879617034571</v>
+        <v>0.01510780456096072</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10045,28 +10045,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02846461678728546</v>
+        <v>0.05759331641493387</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01597204276223075</v>
+        <v>0.01112343035339587</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02846461678728546</v>
+        <v>0.02817384807553912</v>
       </c>
       <c r="K85" t="n">
         <v>0.01597204276223075</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05869861718175157</v>
+        <v>0.06175409942948695</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01591138398890906</v>
+        <v>0.01591712895658126</v>
       </c>
       <c r="N85" t="n">
-        <v>0.09232147744403396</v>
+        <v>0.09415659710945651</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01590399596878496</v>
+        <v>0.01590295216943234</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10087,28 +10087,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02841266675525789</v>
+        <v>0.05816302164712729</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01677064490034228</v>
+        <v>0.01167960187106566</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02841266675525789</v>
+        <v>0.02899079234059108</v>
       </c>
       <c r="K86" t="n">
         <v>0.01677064490034228</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0615898807636959</v>
+        <v>0.06217078521235034</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01670695318835451</v>
+        <v>0.01671298540441032</v>
       </c>
       <c r="N86" t="n">
-        <v>0.09347151850929541</v>
+        <v>0.09009778964700377</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01669919576722421</v>
+        <v>0.01669809977790396</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10118,28 +10118,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02920429453517294</v>
+        <v>0.0587213173918964</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01756924703845382</v>
+        <v>0.01223577338873545</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02920429453517294</v>
+        <v>0.02861948966889537</v>
       </c>
       <c r="K87" t="n">
         <v>0.01756924703845382</v>
       </c>
       <c r="L87" t="n">
-        <v>0.06248768616021602</v>
+        <v>0.06147482673788401</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01750252238779996</v>
+        <v>0.01750884185223938</v>
       </c>
       <c r="N87" t="n">
-        <v>0.09378212167684841</v>
+        <v>0.09257566890829094</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01749439556566346</v>
+        <v>0.01749324738637557</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10153,28 +10153,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02991125063254234</v>
+        <v>0.0592683108015717</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01836784917656535</v>
+        <v>0.01279194490640525</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02991125063254234</v>
+        <v>0.02917769951866786</v>
       </c>
       <c r="K88" t="n">
         <v>0.01836784917656535</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05974852195314828</v>
+        <v>0.06123412706877873</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01829809158724541</v>
+        <v>0.01830469830006845</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0953807274663051</v>
+        <v>0.09152720658723335</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01828959536410271</v>
+        <v>0.01828839499484719</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10187,4780 +10187,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02951647639784839</v>
+        <v>0.05980410902848367</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01916645131467689</v>
+        <v>0.01334811642407504</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02951647639784839</v>
+        <v>0.02882790053231586</v>
       </c>
       <c r="K89" t="n">
         <v>0.01916645131467689</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05966838162030244</v>
+        <v>0.06216545629342152</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01909366078669086</v>
+        <v>0.01910055474789751</v>
       </c>
       <c r="N89" t="n">
-        <v>0.09158105310882164</v>
+        <v>0.0945439844376546</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01908479516254196</v>
+        <v>0.01908354260331881</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03041145689451841</v>
+        <v>0.06032881922496279</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01996505345278843</v>
+        <v>0.01390428794174483</v>
       </c>
       <c r="J90" t="n">
-        <v>0.03041145689451841</v>
+        <v>0.0298568015402578</v>
       </c>
       <c r="K90" t="n">
         <v>0.01996505345278843</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06360466329672679</v>
+        <v>0.06073232163939513</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01988922998613632</v>
+        <v>0.01989641119572658</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09195119005725777</v>
+        <v>0.09538809352108479</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01987999496098121</v>
+        <v>0.01987869021179042</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02973146873959423</v>
+        <v>0.06084254854333954</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02076365559089997</v>
+        <v>0.01446045945941462</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02973146873959423</v>
+        <v>0.03023315528119183</v>
       </c>
       <c r="K91" t="n">
         <v>0.02076365559089997</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06263414889646912</v>
+        <v>0.06291974224230745</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02068479918558177</v>
+        <v>0.02069226764355564</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09471784698010727</v>
+        <v>0.09357901391183732</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02067519475942045</v>
+        <v>0.02067383782026204</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.0300713965939948</v>
+        <v>0.06134540413594443</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02156225772901151</v>
+        <v>0.01501663097708442</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0300713965939948</v>
+        <v>0.03066456269981926</v>
       </c>
       <c r="K92" t="n">
         <v>0.02156225772901151</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06069109979514639</v>
+        <v>0.06175962441526855</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02148036838502723</v>
+        <v>0.0214881240913847</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09566190518179918</v>
+        <v>0.09411760968252381</v>
       </c>
       <c r="O92" t="n">
-        <v>0.0214703945578597</v>
+        <v>0.02146898542873366</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02994213477291813</v>
+        <v>0.06183749315510791</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02236085986712304</v>
+        <v>0.01557280249475421</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02994213477291813</v>
+        <v>0.03085386567484334</v>
       </c>
       <c r="K93" t="n">
         <v>0.02236085986712304</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06271772605295303</v>
+        <v>0.06292282467281202</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02227593758447268</v>
+        <v>0.02228398053921376</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09379327479295246</v>
+        <v>0.09214783167237983</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02226559435629895</v>
+        <v>0.02226413303720528</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02983989604186904</v>
+        <v>0.06231892275316048</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02315946200523458</v>
+        <v>0.01612897401242401</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02983989604186904</v>
+        <v>0.03061388296541225</v>
       </c>
       <c r="K94" t="n">
         <v>0.02315946200523458</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06081341306927696</v>
+        <v>0.06546026292604606</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02307150678391813</v>
+        <v>0.02307983698704283</v>
       </c>
       <c r="N94" t="n">
-        <v>0.0925644926357812</v>
+        <v>0.09775625400915666</v>
       </c>
       <c r="O94" t="n">
-        <v>0.0230607941547382</v>
+        <v>0.02305928064567689</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03049031770157819</v>
+        <v>0.06278980008243265</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02395806414334612</v>
+        <v>0.0166851455300938</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03049031770157819</v>
+        <v>0.03014405978575714</v>
       </c>
       <c r="K95" t="n">
         <v>0.02395806414334612</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06388205179598533</v>
+        <v>0.06370849080108215</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02386707598336358</v>
+        <v>0.02387569343487189</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09813906243986575</v>
+        <v>0.09226186788875917</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02385599395317745</v>
+        <v>0.02385442825414851</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03144372741864973</v>
+        <v>0.06325023229525488</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02475666628145766</v>
+        <v>0.01724131704776359</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03144372741864973</v>
+        <v>0.03148131495379006</v>
       </c>
       <c r="K96" t="n">
         <v>0.02475666628145766</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06238895283563248</v>
+        <v>0.06303480306695175</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02466264518280904</v>
+        <v>0.02467154988270095</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09823936835918251</v>
+        <v>0.09288709048586408</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02465119375161669</v>
+        <v>0.02464957586262013</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03055170782059433</v>
+        <v>0.06370032654395764</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02555526841956919</v>
+        <v>0.01779748856543338</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03055170782059433</v>
+        <v>0.03085980698798127</v>
       </c>
       <c r="K97" t="n">
         <v>0.02555526841956919</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06302641645783341</v>
+        <v>0.06587310434124988</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02545821438225449</v>
+        <v>0.02546740633053001</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09728397862345972</v>
+        <v>0.09754024777437637</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02544639355005594</v>
+        <v>0.02544472347109174</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03047047345585747</v>
+        <v>0.06414018998087144</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02635387055768073</v>
+        <v>0.01835366008310318</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03047047345585747</v>
+        <v>0.03069229920767624</v>
       </c>
       <c r="K98" t="n">
         <v>0.02635387055768073</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06328715126481585</v>
+        <v>0.06278488966075857</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02625378358169994</v>
+        <v>0.02626326277835908</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09443182032314151</v>
+        <v>0.09529269418512804</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02624159334849519</v>
+        <v>0.02623987107956336</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.0318049961415434</v>
+        <v>0.06456992975832677</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02715247269579226</v>
+        <v>0.01890983160077297</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0318049961415434</v>
+        <v>0.03212225895474151</v>
       </c>
       <c r="K99" t="n">
         <v>0.02715247269579226</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06445211361918241</v>
+        <v>0.06572470970041411</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02704935278114539</v>
+        <v>0.02705911922618814</v>
       </c>
       <c r="N99" t="n">
-        <v>0.09507039250261295</v>
+        <v>0.09638879782931509</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02703679314693444</v>
+        <v>0.02703501868803497</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03172170667502763</v>
+        <v>0.06498965302865412</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02795107483390381</v>
+        <v>0.01946600311844277</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03172170667502763</v>
+        <v>0.03188465831240725</v>
       </c>
       <c r="K100" t="n">
         <v>0.02795107483390381</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06295493969748608</v>
+        <v>0.06550789716645794</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02784492198059085</v>
+        <v>0.0278549756740172</v>
       </c>
       <c r="N100" t="n">
-        <v>0.09958229446080719</v>
+        <v>0.1007383333492681</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02783199294537369</v>
+        <v>0.02783016629650659</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03097644830119031</v>
+        <v>0.06539946694418394</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02874967697201534</v>
+        <v>0.02002217463611256</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03097644830119031</v>
+        <v>0.03131290164333994</v>
       </c>
       <c r="K101" t="n">
         <v>0.02874967697201534</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06345995408738622</v>
+        <v>0.06504544393485712</v>
       </c>
       <c r="M101" t="n">
-        <v>0.0286404911800363</v>
+        <v>0.02865083212184626</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09719534844240413</v>
+        <v>0.09838552901184566</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02862719274381293</v>
+        <v>0.02862531390497821</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03232290087155304</v>
+        <v>0.06579947865724674</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02954827911012688</v>
+        <v>0.02057834615378235</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03232290087155304</v>
+        <v>0.03062757115414508</v>
       </c>
       <c r="K102" t="n">
         <v>0.02954827911012688</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06763116061944793</v>
+        <v>0.0661127011897247</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02943606037948176</v>
+        <v>0.02944668856967533</v>
       </c>
       <c r="N102" t="n">
-        <v>0.0978990993690671</v>
+        <v>0.09935678549058674</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02942239254225218</v>
+        <v>0.02942046151344983</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03120869942550913</v>
+        <v>0.06618979532017299</v>
       </c>
       <c r="G103" t="n">
-        <v>0.03034688124823841</v>
+        <v>0.02113451767145215</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03120869942550913</v>
+        <v>0.03141962442079067</v>
       </c>
       <c r="K103" t="n">
         <v>0.03034688124823841</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0672224023013531</v>
+        <v>0.06507404913185938</v>
       </c>
       <c r="M103" t="n">
-        <v>0.0302316295789272</v>
+        <v>0.03024254501750439</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1013488471171583</v>
+        <v>0.1011368895693476</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03021759234069143</v>
+        <v>0.03021560912192144</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.0323915571615022</v>
+        <v>0.06657052408529321</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03114548338634995</v>
+        <v>0.02169068918912194</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0323915571615022</v>
+        <v>0.0311823965790423</v>
       </c>
       <c r="K104" t="n">
         <v>0.03114548338634995</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06609626504276483</v>
+        <v>0.06711283419685021</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03102719877837265</v>
+        <v>0.03103840146533346</v>
       </c>
       <c r="N104" t="n">
-        <v>0.09647532366455863</v>
+        <v>0.09689364040307918</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03101279213913068</v>
+        <v>0.03101075673039306</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03219149643430738</v>
+        <v>0.06694177210493786</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03194408552446149</v>
+        <v>0.02224686070679173</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03219149643430738</v>
+        <v>0.03222430803575646</v>
       </c>
       <c r="K105" t="n">
         <v>0.03194408552446149</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06483966397140775</v>
+        <v>0.06666292791939554</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03182276797781811</v>
+        <v>0.03183425791316252</v>
       </c>
       <c r="N105" t="n">
-        <v>0.09994008271457749</v>
+        <v>0.09919803035493518</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03180799193756993</v>
+        <v>0.03180590433886468</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03208331983060805</v>
+        <v>0.06730364653143742</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03274268766257302</v>
+        <v>0.02280303222446153</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03208331983060805</v>
+        <v>0.03165336750171259</v>
       </c>
       <c r="K106" t="n">
         <v>0.03274268766257302</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06645504434674604</v>
+        <v>0.06566008407148122</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03261833717726356</v>
+        <v>0.03263011436099159</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1022504138944889</v>
+        <v>0.09892438290583944</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03260319173600917</v>
+        <v>0.03260105194733629</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03154871728418174</v>
+        <v>0.06765625451712236</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03354128980068456</v>
+        <v>0.02335920374213132</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03154871728418174</v>
+        <v>0.03140473629640213</v>
       </c>
       <c r="K107" t="n">
         <v>0.03354128980068456</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06633301328282062</v>
+        <v>0.0658514390071018</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03341390637670902</v>
+        <v>0.03342597080882065</v>
       </c>
       <c r="N107" t="n">
-        <v>0.09767749345775983</v>
+        <v>0.09836784103960849</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03339839153444842</v>
+        <v>0.03339619955580791</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03250419732264094</v>
+        <v>0.06799970321432322</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0343398919387961</v>
+        <v>0.02391537525980111</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03250419732264094</v>
+        <v>0.03267827442267121</v>
       </c>
       <c r="K108" t="n">
         <v>0.0343398919387961</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06427826321323787</v>
+        <v>0.06591199756296232</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03420947557615447</v>
+        <v>0.0342218272566497</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1010106753013673</v>
+        <v>0.09926861107243978</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03419359133288767</v>
+        <v>0.03419134716427953</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03206409573524563</v>
+        <v>0.06833409977537044</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03513849407690764</v>
+        <v>0.0244715467774709</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03206409573524563</v>
+        <v>0.03251500573153923</v>
       </c>
       <c r="K109" t="n">
         <v>0.03513849407690764</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06758193836244306</v>
+        <v>0.06848329118006158</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03500504477559992</v>
+        <v>0.03501768370447877</v>
       </c>
       <c r="N109" t="n">
-        <v>0.09917943890460751</v>
+        <v>0.1026036116230278</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03498879113132692</v>
+        <v>0.03498649477275115</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03286396086089854</v>
+        <v>0.06865955135259451</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03593709621501918</v>
+        <v>0.0250277182951407</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03286396086089854</v>
+        <v>0.03258354136559941</v>
       </c>
       <c r="K110" t="n">
         <v>0.03593709621501918</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06512728748371993</v>
+        <v>0.06701038845806945</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03580061397504537</v>
+        <v>0.03581354015230784</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1018962832926731</v>
+        <v>0.09947504506477567</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03578399092976617</v>
+        <v>0.03578164238122276</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03210019636213025</v>
+        <v>0.06897616509832592</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03673569835313071</v>
+        <v>0.02558388981281049</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03210019636213025</v>
+        <v>0.0314305591318176</v>
       </c>
       <c r="K111" t="n">
         <v>0.03673569835313071</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06866656042439359</v>
+        <v>0.06569928502177896</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03659618317449082</v>
+        <v>0.0366093966001369</v>
       </c>
       <c r="N111" t="n">
-        <v>0.09811239860934251</v>
+        <v>0.1046256994583236</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03657919072820542</v>
+        <v>0.03657678998969438</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03260855120259766</v>
+        <v>0.06928404816489518</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03753430049124225</v>
+        <v>0.02614006133048028</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03260855120259766</v>
+        <v>0.03308614460047832</v>
       </c>
       <c r="K112" t="n">
         <v>0.03753430049124225</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06661056284686809</v>
+        <v>0.06832796173262351</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03739175237393628</v>
+        <v>0.03740525304796596</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1021440251738686</v>
+        <v>0.1040883798461528</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03737439052664467</v>
+        <v>0.037371937598166</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03339398945844352</v>
+        <v>0.06958330770463274</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03833290262935379</v>
+        <v>0.02669623284815008</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03339398945844352</v>
+        <v>0.0324248026313375</v>
       </c>
       <c r="K113" t="n">
         <v>0.03833290262935379</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06628734449941653</v>
+        <v>0.06664476245108866</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03818732157338173</v>
+        <v>0.03820110949579502</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1004341531036529</v>
+        <v>0.1013409921684918</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03816959032508391</v>
+        <v>0.03816708520663761</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.0328536710821436</v>
+        <v>0.0698740508698691</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03913150476746532</v>
+        <v>0.02725240436581987</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0328536710821436</v>
+        <v>0.03227619082980838</v>
       </c>
       <c r="K114" t="n">
         <v>0.03913150476746532</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06857612514448921</v>
+        <v>0.06492507402086461</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03898289077282718</v>
+        <v>0.03899696594362408</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1022018160233447</v>
+        <v>0.1014111520289884</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03896479012352316</v>
+        <v>0.03896223281510923</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.0325528793699803</v>
+        <v>0.07015638481293474</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03993010690557686</v>
+        <v>0.02780857588348966</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0325528793699803</v>
+        <v>0.03333226824746711</v>
       </c>
       <c r="K115" t="n">
         <v>0.03993010690557686</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06882215731827737</v>
+        <v>0.06884812224970707</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03977845997227264</v>
+        <v>0.03979282239145315</v>
       </c>
       <c r="N115" t="n">
-        <v>0.09960986404194533</v>
+        <v>0.1006996509994925</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03975998992196241</v>
+        <v>0.03975738042358085</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03364339714851354</v>
+        <v>0.07043041668616015</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0407287090436884</v>
+        <v>0.02836474740115946</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03364339714851354</v>
+        <v>0.0334273063821728</v>
       </c>
       <c r="K116" t="n">
         <v>0.0407287090436884</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06845842254080009</v>
+        <v>0.06711245120463982</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0405740291717181</v>
+        <v>0.04058867883928221</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1054699405952463</v>
+        <v>0.1055132073849852</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04055518972040166</v>
+        <v>0.04055252803205247</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.033280920166598</v>
+        <v>0.07069625364187583</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04152731118179993</v>
+        <v>0.02892091891882925</v>
       </c>
       <c r="J117" t="n">
-        <v>0.033280920166598</v>
+        <v>0.03255060417510218</v>
       </c>
       <c r="K117" t="n">
         <v>0.04152731118179993</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06690105232409149</v>
+        <v>0.06985967330022153</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04136959837116354</v>
+        <v>0.04138453528711127</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1032226405621869</v>
+        <v>0.1052790134249483</v>
       </c>
       <c r="O117" t="n">
-        <v>0.0413503895188409</v>
+        <v>0.04134767564052409</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03334871425894041</v>
+        <v>0.07095400283241224</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04232591331991148</v>
+        <v>0.02947709043649904</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03334871425894041</v>
+        <v>0.03361383912177057</v>
       </c>
       <c r="K118" t="n">
         <v>0.04232591331991148</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06639465969556096</v>
+        <v>0.06566732241430845</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04216516757060899</v>
+        <v>0.04218039173494034</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1034199257480889</v>
+        <v>0.1050173992168106</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04214558931728016</v>
+        <v>0.0421428232489957</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.0325843629994033</v>
+        <v>0.07120377141009987</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04312451545802301</v>
+        <v>0.03003326195416884</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0325843629994033</v>
+        <v>0.03211005074656524</v>
       </c>
       <c r="K119" t="n">
         <v>0.04312451545802301</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06999148656980425</v>
+        <v>0.06877287074285374</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04296073677005445</v>
+        <v>0.04297624818276941</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1007464764926483</v>
+        <v>0.1046671751741344</v>
       </c>
       <c r="O119" t="n">
-        <v>0.0429407891157194</v>
+        <v>0.04293797085746732</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03355700322196188</v>
+        <v>0.07144566652726921</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04392311759613455</v>
+        <v>0.03058943347183863</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03355700322196188</v>
+        <v>0.03243391835738203</v>
       </c>
       <c r="K120" t="n">
         <v>0.04392311759613455</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06844914776733702</v>
+        <v>0.06667557280321182</v>
       </c>
       <c r="M120" t="n">
-        <v>0.0437563059694999</v>
+        <v>0.04377210463059846</v>
       </c>
       <c r="N120" t="n">
-        <v>0.100061461828475</v>
+        <v>0.1034107142963976</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04373598891415865</v>
+        <v>0.04373311846593893</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03254997445550749</v>
+        <v>0.07167979533625077</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04472171973424608</v>
+        <v>0.03114560498950843</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03254997445550749</v>
+        <v>0.03264164866167213</v>
       </c>
       <c r="K121" t="n">
         <v>0.04472171973424608</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06650326233155474</v>
+        <v>0.06740801187836801</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04455187516894536</v>
+        <v>0.04456796107842752</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1067914858659866</v>
+        <v>0.1071164615151151</v>
       </c>
       <c r="O121" t="n">
-        <v>0.0445311887125979</v>
+        <v>0.04452826607441055</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03307495168506157</v>
+        <v>0.07190626498937497</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04552032187235762</v>
+        <v>0.03170177650717822</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03307495168506157</v>
+        <v>0.03337490130448691</v>
       </c>
       <c r="K122" t="n">
         <v>0.04552032187235762</v>
       </c>
       <c r="L122" t="n">
-        <v>0.07077845940950417</v>
+        <v>0.06810543378616016</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0453474443683908</v>
+        <v>0.04536381752625659</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1055320173393737</v>
+        <v>0.1037149860705764</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04532638851103715</v>
+        <v>0.04532341368288217</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03242543391528974</v>
+        <v>0.07212518263897234</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04631892401046916</v>
+        <v>0.03225794802484801</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03242543391528974</v>
+        <v>0.03341766337314785</v>
       </c>
       <c r="K123" t="n">
         <v>0.04631892401046916</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06960928701091526</v>
+        <v>0.06809759992115325</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04614301356783625</v>
+        <v>0.04615967397408566</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1068201462240275</v>
+        <v>0.1050462035898513</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04612158830947639</v>
+        <v>0.04611856129135378</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03344430550416642</v>
+        <v>0.0723366554373734</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0471175261485807</v>
+        <v>0.0328141195425178</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03344430550416642</v>
+        <v>0.03387814827209365</v>
       </c>
       <c r="K124" t="n">
         <v>0.0471175261485807</v>
       </c>
       <c r="L124" t="n">
-        <v>0.07026376656024627</v>
+        <v>0.06876990748832812</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04693858276728171</v>
+        <v>0.04695553042191471</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1049228168296117</v>
+        <v>0.1044858005102356</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04691678810791564</v>
+        <v>0.0469137088998254</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03256066080419914</v>
+        <v>0.07254079053690855</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04791612828669223</v>
+        <v>0.0333702910601876</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03256066080419914</v>
+        <v>0.03255254284586712</v>
       </c>
       <c r="K125" t="n">
         <v>0.04791612828669223</v>
       </c>
       <c r="L125" t="n">
-        <v>0.07112767976126702</v>
+        <v>0.0673134798100338</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04773415196672717</v>
+        <v>0.04775138686974378</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1015684406550875</v>
+        <v>0.1071898506033804</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04771198790635489</v>
+        <v>0.04770885650829702</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.0342086226700074</v>
+        <v>0.07273769508990836</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04871473042480377</v>
+        <v>0.03392646257785739</v>
       </c>
       <c r="J126" t="n">
-        <v>0.0342086226700074</v>
+        <v>0.03399962835815734</v>
       </c>
       <c r="K126" t="n">
         <v>0.04871473042480377</v>
       </c>
       <c r="L126" t="n">
-        <v>0.07106984109521614</v>
+        <v>0.07051182693420707</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04852972116617262</v>
+        <v>0.04854724331757284</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1026354567143174</v>
+        <v>0.1014301695940932</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04850718770479414</v>
+        <v>0.04850400411676864</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03429381703892277</v>
+        <v>0.07292747624870324</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04951333256291531</v>
+        <v>0.03448263409552719</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03429381703892277</v>
+        <v>0.0337248860653598</v>
       </c>
       <c r="K127" t="n">
         <v>0.04951333256291531</v>
       </c>
       <c r="L127" t="n">
-        <v>0.07114845049794205</v>
+        <v>0.06896618361597112</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04932529036561807</v>
+        <v>0.04934309976540191</v>
       </c>
       <c r="N127" t="n">
-        <v>0.101772316110615</v>
+        <v>0.1035532022193069</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04930238750323339</v>
+        <v>0.04929915172524026</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03339144081216258</v>
+        <v>0.07311024116562373</v>
       </c>
       <c r="G128" t="n">
-        <v>0.05031193470102685</v>
+        <v>0.03503880561319698</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03339144081216258</v>
+        <v>0.03338354904079334</v>
       </c>
       <c r="K128" t="n">
         <v>0.05031193470102685</v>
       </c>
       <c r="L128" t="n">
-        <v>0.07097014260453682</v>
+        <v>0.07001419275265963</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05012085956506353</v>
+        <v>0.05013895621323097</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1052491404755035</v>
+        <v>0.1037623137803273</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05009758730167264</v>
+        <v>0.05009429933371187</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.0331587103368975</v>
+        <v>0.07328609699300032</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05111053683913838</v>
+        <v>0.03559497713086677</v>
       </c>
       <c r="J129" t="n">
-        <v>0.0331587103368975</v>
+        <v>0.03319948489240157</v>
       </c>
       <c r="K129" t="n">
         <v>0.05111053683913838</v>
       </c>
       <c r="L129" t="n">
-        <v>0.07119838674244555</v>
+        <v>0.07143107426074685</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05091642876450898</v>
+        <v>0.05093481266106003</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1091140705420559</v>
+        <v>0.1022231302520619</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05089278710011189</v>
+        <v>0.05088944694218349</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03281566165387312</v>
+        <v>0.07345515088316344</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05190913897724992</v>
+        <v>0.03615114864853657</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03281566165387312</v>
+        <v>0.03350146593602026</v>
       </c>
       <c r="K130" t="n">
         <v>0.05190913897724992</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06776322744524868</v>
+        <v>0.06977963126720718</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05171199796395443</v>
+        <v>0.05173066910888909</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1022865313660166</v>
+        <v>0.1064880472489917</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05168798689855113</v>
+        <v>0.05168459455065511</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03459219727404834</v>
+        <v>0.07361750998844363</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05270774111536145</v>
+        <v>0.03670732016620636</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03459219727404834</v>
+        <v>0.03309044127635376</v>
       </c>
       <c r="K131" t="n">
         <v>0.05270774111536145</v>
       </c>
       <c r="L131" t="n">
-        <v>0.06890900342268191</v>
+        <v>0.0694405779369657</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05250756716339988</v>
+        <v>0.05252652555671816</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1073007609029491</v>
+        <v>0.1074025631047816</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05248318669699038</v>
+        <v>0.05247974215912672</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03393807752455173</v>
+        <v>0.07377328146117133</v>
       </c>
       <c r="G132" t="n">
-        <v>0.053506343253473</v>
+        <v>0.03726349168387615</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03393807752455173</v>
+        <v>0.03350045402599229</v>
       </c>
       <c r="K132" t="n">
         <v>0.053506343253473</v>
       </c>
       <c r="L132" t="n">
-        <v>0.0706507797966423</v>
+        <v>0.0707305797477418</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05330313636284534</v>
+        <v>0.05332238200454722</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1057011850676995</v>
+        <v>0.1018972360337635</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05327838649542963</v>
+        <v>0.05327488976759833</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03350563459535745</v>
+        <v>0.07392257245367706</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05430494539158453</v>
+        <v>0.03781966320154594</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03350563459535745</v>
+        <v>0.03398482730369687</v>
       </c>
       <c r="K133" t="n">
         <v>0.05430494539158453</v>
       </c>
       <c r="L133" t="n">
-        <v>0.07202519989546374</v>
+        <v>0.06882741028923295</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05409870556229078</v>
+        <v>0.05411823845237628</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1026945173321684</v>
+        <v>0.1061474896910518</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05407358629386887</v>
+        <v>0.05407003737606995</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03413299834873851</v>
+        <v>0.07406549011829129</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05510354752969607</v>
+        <v>0.03837583471921574</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03413299834873851</v>
+        <v>0.03350200086112297</v>
       </c>
       <c r="K134" t="n">
         <v>0.05510354752969607</v>
       </c>
       <c r="L134" t="n">
-        <v>0.07050807082086749</v>
+        <v>0.06915416289478518</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05489427476173624</v>
+        <v>0.05491409490020534</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1056932350481582</v>
+        <v>0.1032271413673887</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05486878609230812</v>
+        <v>0.05486518498454157</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03429153824747505</v>
+        <v>0.07420214160734452</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05590214966780761</v>
+        <v>0.03893200623688553</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03429153824747505</v>
+        <v>0.03457573406537838</v>
       </c>
       <c r="K135" t="n">
         <v>0.05590214966780761</v>
       </c>
       <c r="L135" t="n">
-        <v>0.07021532846349979</v>
+        <v>0.07257238768298219</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05568984396118169</v>
+        <v>0.05570995134803441</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1032664443604166</v>
+        <v>0.1042104801307946</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05566398589074737</v>
+        <v>0.05566033259301319</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03446894629084282</v>
+        <v>0.07433263407316722</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05670075180591914</v>
+        <v>0.03948817775455532</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03446894629084282</v>
+        <v>0.03374433441667599</v>
       </c>
       <c r="K136" t="n">
         <v>0.05670075180591914</v>
       </c>
       <c r="L136" t="n">
-        <v>0.0690261349330103</v>
+        <v>0.07043560895476433</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05648541316062714</v>
+        <v>0.05650580779586347</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1046100267651832</v>
+        <v>0.1038117048230939</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05645918568918663</v>
+        <v>0.0564554802014848</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.0342410831857162</v>
+        <v>0.07445707466808987</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05749935394403068</v>
+        <v>0.04004434927222512</v>
       </c>
       <c r="J137" t="n">
-        <v>0.0342410831857162</v>
+        <v>0.03391224700873262</v>
       </c>
       <c r="K137" t="n">
         <v>0.05749935394403068</v>
       </c>
       <c r="L137" t="n">
-        <v>0.07126889456380384</v>
+        <v>0.06907619828408504</v>
       </c>
       <c r="M137" t="n">
-        <v>0.0572809823600726</v>
+        <v>0.05730166424369253</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1052708496640698</v>
+        <v>0.1048793388457097</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05725438548762587</v>
+        <v>0.05725062780995642</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03457154147215126</v>
+        <v>0.07457557054444297</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05829795608214221</v>
+        <v>0.04060052078989491</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03457154147215126</v>
+        <v>0.03371685423376977</v>
       </c>
       <c r="K138" t="n">
         <v>0.05829795608214221</v>
       </c>
       <c r="L138" t="n">
-        <v>0.07112954721237047</v>
+        <v>0.07229866449268615</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05807655155951805</v>
+        <v>0.0580975206915216</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1078135531314198</v>
+        <v>0.1102457053583664</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05804958528606512</v>
+        <v>0.05804577541842804</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03405507835734481</v>
+        <v>0.074688228854557</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05909655822025375</v>
+        <v>0.0411566923075647</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03405507835734481</v>
+        <v>0.0343719645706082</v>
       </c>
       <c r="K139" t="n">
         <v>0.05909655822025375</v>
       </c>
       <c r="L139" t="n">
-        <v>0.07308101088024532</v>
+        <v>0.07050876207914328</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05887212075896351</v>
+        <v>0.05889337713935067</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1039861798565724</v>
+        <v>0.1052180544430323</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05884478508450437</v>
+        <v>0.05884092302689965</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.07479515675076247</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0598951603583653</v>
+        <v>0.0417128638252345</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.03441179760875662</v>
       </c>
       <c r="K140" t="n">
         <v>0.0598951603583653</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06920924818714022</v>
+        <v>0.07261968060342347</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05966768995840895</v>
+        <v>0.05968923358717972</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1044433388889797</v>
+        <v>0.1044584036446902</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05963998488294362</v>
+        <v>0.05963607063537127</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03437909835254348</v>
+        <v>0.0748964613853898</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06069376249647682</v>
+        <v>0.04226903534290429</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03437909835254348</v>
+        <v>0.03498075404102535</v>
       </c>
       <c r="K141" t="n">
         <v>0.06069376249647682</v>
       </c>
       <c r="L141" t="n">
-        <v>0.07114712999616368</v>
+        <v>0.0702257542085071</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06046325915785441</v>
+        <v>0.06048509003500879</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1058668615080056</v>
+        <v>0.110448717273399</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06043518468138286</v>
+        <v>0.06043121824384289</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03415629980028446</v>
+        <v>0.07499224991076951</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06149236463458837</v>
+        <v>0.04282520686057409</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03415629980028446</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="K142" t="n">
         <v>0.06149236463458837</v>
       </c>
       <c r="L142" t="n">
-        <v>0.07279579572848827</v>
+        <v>0.07200770887081237</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06125882835729986</v>
+        <v>0.06128094648283785</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1061873817986976</v>
+        <v>0.1048054783197454</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06123038447982211</v>
+        <v>0.0612263658523145</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03397284054746173</v>
+        <v>0.07508262947923214</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06229096677269991</v>
+        <v>0.04338137837824388</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03397284054746173</v>
+        <v>0.03432295490299338</v>
       </c>
       <c r="K143" t="n">
         <v>0.06229096677269991</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06862784999212601</v>
+        <v>0.07199048717735643</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06205439755674531</v>
+        <v>0.06207680293066691</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1095806401338505</v>
+        <v>0.1056978001438157</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06202558427826136</v>
+        <v>0.06202151346078612</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03368269351920279</v>
+        <v>0.0751677072431081</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06308956891081144</v>
+        <v>0.04393754989591368</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03368269351920279</v>
+        <v>0.0337556779512669</v>
       </c>
       <c r="K144" t="n">
         <v>0.06308956891081144</v>
       </c>
       <c r="L144" t="n">
-        <v>0.07238144133186689</v>
+        <v>0.07307523140826366</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06284996675619077</v>
+        <v>0.06287265937849597</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1091821339038657</v>
+        <v>0.1091565402887176</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06282078407670061</v>
+        <v>0.06281666106925773</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03407769349467836</v>
+        <v>0.07524759035472789</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06388817104892298</v>
+        <v>0.04449372141358347</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03407769349467836</v>
+        <v>0.03530444593082555</v>
       </c>
       <c r="K145" t="n">
         <v>0.06388817104892298</v>
       </c>
       <c r="L145" t="n">
-        <v>0.07030273351675656</v>
+        <v>0.06879242135449598</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06364553595563623</v>
+        <v>0.06366851582632503</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1050888030179296</v>
+        <v>0.1062161529734943</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06361598387513985</v>
+        <v>0.06361180867772935</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03519033166375864</v>
+        <v>0.075322385966422</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06468677318703452</v>
+        <v>0.04504989293125326</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03519033166375864</v>
+        <v>0.03509203930362402</v>
       </c>
       <c r="K146" t="n">
         <v>0.06468677318703452</v>
       </c>
       <c r="L146" t="n">
-        <v>0.07341597738744685</v>
+        <v>0.07111819855284393</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06444110515508168</v>
+        <v>0.06446437227415409</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1074136693740774</v>
+        <v>0.1111592082227959</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06441118367357911</v>
+        <v>0.06440695628620097</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03425213471598153</v>
+        <v>0.07539220123052096</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06548537532514605</v>
+        <v>0.04560606444892305</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03425213471598153</v>
+        <v>0.03415711472617555</v>
       </c>
       <c r="K147" t="n">
         <v>0.06548537532514605</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07163298534546017</v>
+        <v>0.07277288062448045</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06523667435452712</v>
+        <v>0.06526022872198317</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1100464483444711</v>
+        <v>0.1072384160088337</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06520638347201835</v>
+        <v>0.06520210389467258</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03462108073036489</v>
+        <v>0.07545714329935518</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06628397746325759</v>
+        <v>0.04616223596659284</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03462108073036489</v>
+        <v>0.03412062580814908</v>
       </c>
       <c r="K148" t="n">
         <v>0.06628397746325759</v>
       </c>
       <c r="L148" t="n">
-        <v>0.07181657952428872</v>
+        <v>0.07301193755412447</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06603224355397258</v>
+        <v>0.06605608516981223</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1082761585343553</v>
+        <v>0.1091140705420559</v>
       </c>
       <c r="O148" t="n">
-        <v>0.0660015832704576</v>
+        <v>0.06599725150314421</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03408725293076149</v>
+        <v>0.07551731932525522</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06708257960136912</v>
+        <v>0.04671840748426264</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03408725293076149</v>
+        <v>0.0342115074864162</v>
       </c>
       <c r="K149" t="n">
         <v>0.06708257960136912</v>
       </c>
       <c r="L149" t="n">
-        <v>0.07057293202032247</v>
+        <v>0.07226924756490918</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06682781275341804</v>
+        <v>0.0668519416176413</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1058327153394305</v>
+        <v>0.1068433915736846</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06679678306889685</v>
+        <v>0.06679239911161583</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03505350666289936</v>
+        <v>0.0755728364605515</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06788118173948067</v>
+        <v>0.04727457900193243</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03505350666289936</v>
+        <v>0.03528266988811624</v>
       </c>
       <c r="K150" t="n">
         <v>0.06788118173948067</v>
       </c>
       <c r="L150" t="n">
-        <v>0.07162984990998528</v>
+        <v>0.07140644505194199</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06762338195286348</v>
+        <v>0.06764779806547035</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1104507896541538</v>
+        <v>0.1122229920442763</v>
       </c>
       <c r="O150" t="n">
-        <v>0.0675919828673361</v>
+        <v>0.06758754672008745</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03513536350430034</v>
+        <v>0.0756238018575745</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0686797838775922</v>
+        <v>0.04783075051960223</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03513536350430034</v>
+        <v>0.03527119675291276</v>
       </c>
       <c r="K151" t="n">
         <v>0.0686797838775922</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07000401452639252</v>
+        <v>0.07202519989546374</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06841895115230893</v>
+        <v>0.06844365451329941</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1063161493726663</v>
+        <v>0.1101425728021421</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06838718266577534</v>
+        <v>0.06838269432855906</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03547649686622119</v>
+        <v>0.0756703226686548</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06947838601570373</v>
+        <v>0.04838692203727202</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03547649686622119</v>
+        <v>0.03521797052025728</v>
       </c>
       <c r="K152" t="n">
         <v>0.06947838601570373</v>
       </c>
       <c r="L152" t="n">
-        <v>0.07030041730247769</v>
+        <v>0.0726519987245266</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06921452035175439</v>
+        <v>0.06923951096112847</v>
       </c>
       <c r="N152" t="n">
-        <v>0.10792815173758</v>
+        <v>0.1064767626894101</v>
       </c>
       <c r="O152" t="n">
-        <v>0.0691823824642146</v>
+        <v>0.06917784193703068</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.0345481939627566</v>
+        <v>0.07571250604612279</v>
       </c>
       <c r="G153" t="n">
-        <v>0.07027698815381528</v>
+        <v>0.04894309355494181</v>
       </c>
       <c r="J153" t="n">
-        <v>0.0345481939627566</v>
+        <v>0.03491995276636066</v>
       </c>
       <c r="K153" t="n">
         <v>0.07027698815381528</v>
       </c>
       <c r="L153" t="n">
-        <v>0.06986646770884972</v>
+        <v>0.07341752807501029</v>
       </c>
       <c r="M153" t="n">
-        <v>0.07001008955119985</v>
+        <v>0.07003536740895754</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1072237959801845</v>
+        <v>0.1047439775561992</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06997758226265384</v>
+        <v>0.0699729895455023</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03467126768419902</v>
+        <v>0.07575045914230902</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07107559029192681</v>
+        <v>0.0494992650726116</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03467126768419902</v>
+        <v>0.0340022189982115</v>
       </c>
       <c r="K154" t="n">
         <v>0.07107559029192681</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07344271445800202</v>
+        <v>0.07218787465289109</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07080565875064529</v>
+        <v>0.0708312238567866</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1106768542365094</v>
+        <v>0.1071167726589558</v>
       </c>
       <c r="O154" t="n">
-        <v>0.0707727820610931</v>
+        <v>0.07076813715397391</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03491453276689599</v>
+        <v>0.07578428910954389</v>
       </c>
       <c r="G155" t="n">
-        <v>0.07187419243003836</v>
+        <v>0.05005543659028139</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03491453276689599</v>
+        <v>0.03534578381748066</v>
       </c>
       <c r="K155" t="n">
         <v>0.07187419243003836</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07123680260414775</v>
+        <v>0.06979316111597819</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07160122795009075</v>
+        <v>0.07162708030461568</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1086623681549506</v>
+        <v>0.1074004719475556</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07156798185953234</v>
+        <v>0.07156328476244553</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03515577742722523</v>
+        <v>0.07581410310015796</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07267279456814989</v>
+        <v>0.05061160810795119</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03515577742722523</v>
+        <v>0.03551442613868246</v>
       </c>
       <c r="K156" t="n">
         <v>0.07267279456814989</v>
       </c>
       <c r="L156" t="n">
-        <v>0.0737496945420088</v>
+        <v>0.07335052092949018</v>
       </c>
       <c r="M156" t="n">
-        <v>0.0723967971495362</v>
+        <v>0.07242293675244474</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1054658120325165</v>
+        <v>0.1123936160260745</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07236318165797159</v>
+        <v>0.07235843237091714</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03492022775693517</v>
+        <v>0.07584000826648171</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07347139670626142</v>
+        <v>0.05116777962562098</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03492022775693517</v>
+        <v>0.03516652104675924</v>
       </c>
       <c r="K157" t="n">
         <v>0.07347139670626142</v>
       </c>
       <c r="L157" t="n">
-        <v>0.07092421014474842</v>
+        <v>0.07083664056933597</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07319236634898164</v>
+        <v>0.0732187932002738</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1070914195915204</v>
+        <v>0.1068911822719212</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07315838145641083</v>
+        <v>0.07315357997938876</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0351337264593226</v>
+        <v>0.07586211176084559</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07426999884437296</v>
+        <v>0.05172395114329078</v>
       </c>
       <c r="J158" t="n">
-        <v>0.0351337264593226</v>
+        <v>0.0342930419216101</v>
       </c>
       <c r="K158" t="n">
         <v>0.07426999884437296</v>
       </c>
       <c r="L158" t="n">
-        <v>0.07060943138643308</v>
+        <v>0.07407344817071784</v>
       </c>
       <c r="M158" t="n">
-        <v>0.0739879355484271</v>
+        <v>0.07401464964810285</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1092891519876763</v>
+        <v>0.1070987013253965</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07395358125485008</v>
+        <v>0.07394872758786038</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.034576362000816</v>
+        <v>0.07588052073558013</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0750686009824845</v>
+        <v>0.05228012266096057</v>
       </c>
       <c r="J159" t="n">
-        <v>0.034576362000816</v>
+        <v>0.03515181226309926</v>
       </c>
       <c r="K159" t="n">
         <v>0.0750686009824845</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06956346295828741</v>
+        <v>0.06925376669042071</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07478350474787256</v>
+        <v>0.07481050609593191</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1110309560110866</v>
+        <v>0.1111997458264299</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07474878105328933</v>
+        <v>0.07474387519633199</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03484939090892017</v>
+        <v>0.07589534234301576</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07586720312059604</v>
+        <v>0.05283629417863037</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03484939090892017</v>
+        <v>0.03401092198315317</v>
       </c>
       <c r="K160" t="n">
         <v>0.07586720312059604</v>
       </c>
       <c r="L160" t="n">
-        <v>0.0728359507935909</v>
+        <v>0.07260410056723612</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07557907394731801</v>
+        <v>0.07560636254376098</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1063720957550323</v>
+        <v>0.1090557279726485</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07554398085172859</v>
+        <v>0.07553902280480361</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03408154945224449</v>
+        <v>0.075906683735483</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07666580525870757</v>
+        <v>0.05339246569630016</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03408154945224449</v>
+        <v>0.03545074446742778</v>
       </c>
       <c r="K161" t="n">
         <v>0.07666580525870757</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07370223499989367</v>
+        <v>0.07183993263214977</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07637464314676345</v>
+        <v>0.07640221899159004</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1099780155163226</v>
+        <v>0.1070732689677713</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07633918065016783</v>
+        <v>0.07633417041327523</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03419335977441407</v>
+        <v>0.07591465206531234</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0774644073968191</v>
+        <v>0.05394863721396995</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03419335977441407</v>
+        <v>0.03511798251924764</v>
       </c>
       <c r="K162" t="n">
         <v>0.0774644073968191</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07015581883932587</v>
+        <v>0.07274218665819604</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07717021234620891</v>
+        <v>0.0771980754394191</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1106123548309947</v>
+        <v>0.1060840376041997</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07713438044860707</v>
+        <v>0.07712931802174684</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03426899863088735</v>
+        <v>0.07591935448483428</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07826300953493065</v>
+        <v>0.05450480873163974</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03426899863088735</v>
+        <v>0.03394356021310786</v>
       </c>
       <c r="K163" t="n">
         <v>0.07826300953493065</v>
       </c>
       <c r="L163" t="n">
-        <v>0.06957613916305419</v>
+        <v>0.07341438904644884</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07796578154565437</v>
+        <v>0.07799393188724817</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1109981042955441</v>
+        <v>0.1112994141010558</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07792958024704633</v>
+        <v>0.07792446563021846</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03410177583578604</v>
+        <v>0.07592089814637923</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07906161167304218</v>
+        <v>0.05506098024930954</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03410177583578604</v>
+        <v>0.03527649005762933</v>
       </c>
       <c r="K164" t="n">
         <v>0.07906161167304218</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07053848528039822</v>
+        <v>0.07103011315724089</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07876135074509982</v>
+        <v>0.07878978833507724</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1060600968408747</v>
+        <v>0.1093084525712713</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07872478004548557</v>
+        <v>0.07871961323869008</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03499825651381591</v>
+        <v>0.07542089814637924</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07986021381115373</v>
+        <v>0.05506098024930954</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03499825651381591</v>
+        <v>0.03439676560167247</v>
       </c>
       <c r="K165" t="n">
         <v>0.07986021381115373</v>
       </c>
       <c r="L165" t="n">
-        <v>0.07295681924280317</v>
+        <v>0.07101048429158568</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07955691994454528</v>
+        <v>0.07958564478290631</v>
       </c>
       <c r="N165" t="n">
-        <v>0.111548303533561</v>
+        <v>0.1061093930612483</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07951997984392482</v>
+        <v>0.07951476084716169</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03471824878587686</v>
+        <v>0.07479456727029606</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08065881594926527</v>
+        <v>0.0550964495040745</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03471824878587686</v>
+        <v>0.03411546539279403</v>
       </c>
       <c r="K166" t="n">
         <v>0.08065881594926527</v>
       </c>
       <c r="L166" t="n">
-        <v>0.06968500297277339</v>
+        <v>0.07282157355082342</v>
       </c>
       <c r="M166" t="n">
-        <v>0.08035248914399074</v>
+        <v>0.08038150123073536</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1082953672798041</v>
+        <v>0.1094989762024781</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08031517964236407</v>
+        <v>0.08030990845563331</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03515424454312849</v>
+        <v>0.07416650187732679</v>
       </c>
       <c r="G167" t="n">
-        <v>0.08145741808737679</v>
+        <v>0.05513101893685141</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03515424454312849</v>
+        <v>0.03411872070639875</v>
       </c>
       <c r="K167" t="n">
         <v>0.08145741808737679</v>
       </c>
       <c r="L167" t="n">
-        <v>0.06993924692323292</v>
+        <v>0.06997645986595236</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08114805834343619</v>
+        <v>0.08117735767856442</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1068235080549214</v>
+        <v>0.1059347390471526</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08111037944080332</v>
+        <v>0.08110505606410494</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03528427500018869</v>
+        <v>0.07353670196747153</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08225602022548834</v>
+        <v>0.05516468854764028</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03528427500018869</v>
+        <v>0.03391018704649731</v>
       </c>
       <c r="K168" t="n">
         <v>0.08225602022548834</v>
       </c>
       <c r="L168" t="n">
-        <v>0.06930075114156423</v>
+        <v>0.07147359956512567</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08194362754288163</v>
+        <v>0.08197321412639348</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1069707389745765</v>
+        <v>0.1105340633645645</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08190557923924256</v>
+        <v>0.08190020367257655</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03485213235815643</v>
+        <v>0.0729051675407302</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08305462236359987</v>
+        <v>0.05519745833644108</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03485213235815643</v>
+        <v>0.0337195689341285</v>
       </c>
       <c r="K169" t="n">
         <v>0.08305462236359987</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06924281954283332</v>
+        <v>0.07271751915243577</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08273919674232709</v>
+        <v>0.08276907057422254</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1102823412001523</v>
+        <v>0.1062322759250601</v>
       </c>
       <c r="O169" t="n">
-        <v>0.0827007790376818</v>
+        <v>0.08269535128104817</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03378814471441811</v>
+        <v>0.07227189859710287</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08385322450171141</v>
+        <v>0.05522932830325384</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03378814471441811</v>
+        <v>0.0342851184157449</v>
       </c>
       <c r="K170" t="n">
         <v>0.08385322450171141</v>
       </c>
       <c r="L170" t="n">
-        <v>0.0707396221017623</v>
+        <v>0.07156040940556199</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08353476594177255</v>
+        <v>0.08356492702205161</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1034136342297162</v>
+        <v>0.1038979629932952</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08349597883612106</v>
+        <v>0.08349049888951979</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03478359996261174</v>
+        <v>0.07163689513658951</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08465182663982296</v>
+        <v>0.05526029844807855</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03478359996261174</v>
+        <v>0.03415902142057799</v>
       </c>
       <c r="K171" t="n">
         <v>0.08465182663982296</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06905317233265532</v>
+        <v>0.07173254630761708</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08433033514121799</v>
+        <v>0.08436078346988067</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1069558451351232</v>
+        <v>0.1056041865310635</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08429117863456032</v>
+        <v>0.0842856464979914</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03409890217876149</v>
+        <v>0.0710001571591901</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08545042877793448</v>
+        <v>0.05529036877091521</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03409890217876149</v>
+        <v>0.0337844290066915</v>
       </c>
       <c r="K172" t="n">
         <v>0.08545042877793448</v>
       </c>
       <c r="L172" t="n">
-        <v>0.07252420829188988</v>
+        <v>0.06980037712779408</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08512590434066344</v>
+        <v>0.08515663991770975</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1081725002065868</v>
+        <v>0.1095713143968739</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08508637843299956</v>
+        <v>0.08508079410646302</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0338291967154874</v>
+        <v>0.07036168466490468</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08624903091604602</v>
+        <v>0.05531953927176382</v>
       </c>
       <c r="J173" t="n">
-        <v>0.0338291967154874</v>
+        <v>0.0336881890216435</v>
       </c>
       <c r="K173" t="n">
         <v>0.08624903091604602</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07049016278469125</v>
+        <v>0.07132273445514661</v>
       </c>
       <c r="M173" t="n">
-        <v>0.0859214735401089</v>
+        <v>0.08595249636553881</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1102223417214279</v>
+        <v>0.1073721977418748</v>
       </c>
       <c r="O173" t="n">
-        <v>0.0858815782314388</v>
+        <v>0.08587594171493464</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03409144699453952</v>
+        <v>0.06972147765373318</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08704763305415755</v>
+        <v>0.05534780995062437</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03409144699453952</v>
+        <v>0.03460615984474946</v>
       </c>
       <c r="K174" t="n">
         <v>0.08704763305415755</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06873175645099686</v>
+        <v>0.06810248864887286</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08671704273955434</v>
+        <v>0.08674835281336786</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1083451057665007</v>
+        <v>0.1053470980488987</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08667677802987805</v>
+        <v>0.08667108932340625</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03461067252891496</v>
+        <v>0.0690795361256757</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0878462351922691</v>
+        <v>0.05537518080749689</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03461067252891496</v>
+        <v>0.03463494871415702</v>
       </c>
       <c r="K175" t="n">
         <v>0.0878462351922691</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06822226566006309</v>
+        <v>0.07154040828537983</v>
       </c>
       <c r="M175" t="n">
-        <v>0.0875126119389998</v>
+        <v>0.08754420926119692</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1074621766407207</v>
+        <v>0.1055695402445767</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08747197782831731</v>
+        <v>0.08746623693187787</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03490653610445127</v>
+        <v>0.06843586008073217</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08864483733038064</v>
+        <v>0.05540165184238135</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03490653610445127</v>
+        <v>0.0346291187092585</v>
       </c>
       <c r="K176" t="n">
         <v>0.08864483733038064</v>
       </c>
       <c r="L176" t="n">
-        <v>0.06805473182185656</v>
+        <v>0.0722108744757288</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08830818113844525</v>
+        <v>0.08834006570902599</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1061019120705061</v>
+        <v>0.1088878611173644</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08826717762675655</v>
+        <v>0.08826138454034949</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03385871661843307</v>
+        <v>0.0677904495189026</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08944343946849216</v>
+        <v>0.05542722305527777</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03385871661843307</v>
+        <v>0.03336395274477695</v>
       </c>
       <c r="K177" t="n">
         <v>0.08944343946849216</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06846999360596348</v>
+        <v>0.06941487766584198</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08910375033789071</v>
+        <v>0.08913592215685505</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1059200943641267</v>
+        <v>0.1021662950562608</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08906237742519579</v>
+        <v>0.0890565321488211</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03364011202071822</v>
+        <v>0.06714330444018703</v>
       </c>
       <c r="G178" t="n">
-        <v>0.09024204160660371</v>
+        <v>0.05545189444618613</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03364011202071822</v>
+        <v>0.03452264181410365</v>
       </c>
       <c r="K178" t="n">
         <v>0.09024204160660371</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06908447088220127</v>
+        <v>0.06825592766434466</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08989931953733615</v>
+        <v>0.08993177860468411</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1036689310468596</v>
+        <v>0.1069413353658006</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08985757722363505</v>
+        <v>0.08985167975729272</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03317787144404198</v>
+        <v>0.06649442484458537</v>
       </c>
       <c r="G179" t="n">
-        <v>0.09104064374471524</v>
+        <v>0.05547566601510643</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03317787144404198</v>
+        <v>0.0329772631931269</v>
       </c>
       <c r="K179" t="n">
         <v>0.09104064374471524</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06800523753877874</v>
+        <v>0.06774646307287144</v>
       </c>
       <c r="M179" t="n">
-        <v>0.09069488873678161</v>
+        <v>0.09072763505251318</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1046737630416728</v>
+        <v>0.1064370542924735</v>
       </c>
       <c r="O179" t="n">
-        <v>0.0906527770220743</v>
+        <v>0.09064682736576433</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03450746540160403</v>
+        <v>0.06584381073209773</v>
       </c>
       <c r="G180" t="n">
-        <v>0.09183924588282678</v>
+        <v>0.05549853776203871</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03450746540160403</v>
+        <v>0.03310129283565785</v>
       </c>
       <c r="K180" t="n">
         <v>0.09183924588282678</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06696400452808274</v>
+        <v>0.06858863904017951</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09149045793622707</v>
+        <v>0.09152349150034224</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1076809658664887</v>
+        <v>0.1050185284070012</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09144797682051353</v>
+        <v>0.09144197497423595</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03416871651633244</v>
+        <v>0.06519146210272403</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09263784802093833</v>
+        <v>0.0555205096869829</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03416871651633244</v>
+        <v>0.03313021522250015</v>
       </c>
       <c r="K181" t="n">
         <v>0.09263784802093833</v>
       </c>
       <c r="L181" t="n">
-        <v>0.0664943301452342</v>
+        <v>0.07145545319473329</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09228602713567251</v>
+        <v>0.09231934794817132</v>
       </c>
       <c r="N181" t="n">
-        <v>0.10525158986358</v>
+        <v>0.10254202397246</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09224317661895279</v>
+        <v>0.09223712258270757</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03371162475108416</v>
+        <v>0.06453737895646432</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09343645015904985</v>
+        <v>0.05554158178993907</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03371162475108416</v>
+        <v>0.03337624974052765</v>
       </c>
       <c r="K182" t="n">
         <v>0.09343645015904985</v>
       </c>
       <c r="L182" t="n">
-        <v>0.06729030661273247</v>
+        <v>0.06756250595207244</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09308159633511796</v>
+        <v>0.09311520439600036</v>
       </c>
       <c r="N182" t="n">
-        <v>0.102522387614809</v>
+        <v>0.1029501189152677</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09303837641739204</v>
+        <v>0.09303227019117918</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03309477708331285</v>
+        <v>0.06388156129331854</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09423505229716139</v>
+        <v>0.05556175407090717</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03309477708331285</v>
+        <v>0.03334578782144144</v>
       </c>
       <c r="K183" t="n">
         <v>0.09423505229716139</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06804764659466717</v>
+        <v>0.06794588772751287</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09387716553456342</v>
+        <v>0.09391106084382943</v>
       </c>
       <c r="N183" t="n">
-        <v>0.101615144119226</v>
+        <v>0.1026031261881598</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09383357621583129</v>
+        <v>0.0938274177996508</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03374712101193253</v>
+        <v>0.06322400911328677</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09503365443527294</v>
+        <v>0.05558102652988724</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03374712101193253</v>
+        <v>0.03389756176051462</v>
       </c>
       <c r="K184" t="n">
         <v>0.09503365443527294</v>
       </c>
       <c r="L184" t="n">
-        <v>0.06688715585212518</v>
+        <v>0.06821481252635408</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09467273473400888</v>
+        <v>0.09470691729165849</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1067049125848731</v>
+        <v>0.1056720321023238</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09462877601427053</v>
+        <v>0.09462256540812242</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03278864154296061</v>
+        <v>0.06256472241636896</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09583225657338447</v>
+        <v>0.05559939916687926</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03278864154296061</v>
+        <v>0.03355553803536486</v>
       </c>
       <c r="K185" t="n">
         <v>0.09583225657338447</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06911129421814974</v>
+        <v>0.06980988407585281</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09546830393345433</v>
+        <v>0.09550277373948755</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1043432370597539</v>
+        <v>0.1020111403906902</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09542397581270978</v>
+        <v>0.09541771301659403</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03266410669953096</v>
+        <v>0.0619037012025651</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09663085871149601</v>
+        <v>0.05561687198188323</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03266410669953096</v>
+        <v>0.03298061426401572</v>
       </c>
       <c r="K186" t="n">
         <v>0.09663085871149601</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06725984327956011</v>
+        <v>0.06977795691469427</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09626387313289979</v>
+        <v>0.09629863018731662</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1022636304255465</v>
+        <v>0.1028991935167742</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09621917561114904</v>
+        <v>0.09621286062506566</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03225632277683642</v>
+        <v>0.06124094547187522</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09742946084960753</v>
+        <v>0.05563344497489914</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03225632277683642</v>
+        <v>0.03360432484688916</v>
       </c>
       <c r="K187" t="n">
         <v>0.09742946084960753</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06750720824478482</v>
+        <v>0.0662362005971944</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09705944233234524</v>
+        <v>0.09709448663514568</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1037596192315551</v>
+        <v>0.1057493572585155</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09701437540958828</v>
+        <v>0.09700800823353728</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03248155018743973</v>
+        <v>0.0605764552242993</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09822806298771908</v>
+        <v>0.055649118145927</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03248155018743973</v>
+        <v>0.03292118323194171</v>
       </c>
       <c r="K188" t="n">
         <v>0.09822806298771908</v>
       </c>
       <c r="L188" t="n">
-        <v>0.0667922088608526</v>
+        <v>0.0666605011966474</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09785501153179069</v>
+        <v>0.09789034308297474</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1028505564677258</v>
+        <v>0.1025719798348787</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09780957520802752</v>
+        <v>0.0978031558420089</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03284604616382233</v>
+        <v>0.05991023045983734</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09902666512583062</v>
+        <v>0.05566389149496681</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03284604616382233</v>
+        <v>0.03243999184312266</v>
       </c>
       <c r="K189" t="n">
         <v>0.09902666512583062</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06870130006393307</v>
+        <v>0.06703991535030138</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09865058073123614</v>
+        <v>0.09868619953080382</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1052793769168896</v>
+        <v>0.1013709040120565</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09860477500646678</v>
+        <v>0.09859830345048051</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03237364769930595</v>
+        <v>0.05924227117848935</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09982526726394216</v>
+        <v>0.05567776502201858</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03237364769930595</v>
+        <v>0.03243857324287922</v>
       </c>
       <c r="K190" t="n">
         <v>0.09982526726394216</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06596601302500874</v>
+        <v>0.06899381110192546</v>
       </c>
       <c r="M190" t="n">
-        <v>0.0994461499306816</v>
+        <v>0.09948205597863287</v>
       </c>
       <c r="N190" t="n">
-        <v>0.09868507233885565</v>
+        <v>0.1056987375798186</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09939997480490603</v>
+        <v>0.09939345105895213</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03197446415202013</v>
+        <v>0.05857257738025537</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1006238694020537</v>
+        <v>0.05569073872708229</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03197446415202013</v>
+        <v>0.03204247170526719</v>
       </c>
       <c r="K191" t="n">
         <v>0.1006238694020537</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06564429951007394</v>
+        <v>0.06650250533049223</v>
       </c>
       <c r="M191" t="n">
-        <v>0.1002417191301271</v>
+        <v>0.1002779124264619</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1000694127972588</v>
+        <v>0.1055381636491362</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1001951746033453</v>
+        <v>0.1001885986674237</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03307667041823666</v>
+        <v>0.05790114906513533</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1014224715401652</v>
+        <v>0.05570281261015797</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03307667041823666</v>
+        <v>0.03282007795397213</v>
       </c>
       <c r="K192" t="n">
         <v>0.1014224715401652</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06685981392375215</v>
+        <v>0.06564608796724691</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1010372883295725</v>
+        <v>0.101073768874291</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1007054896018258</v>
+        <v>0.09904973323738958</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1009903744017845</v>
+        <v>0.1009837462758954</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03313471330651287</v>
+        <v>0.05722798623312925</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1022210736782768</v>
+        <v>0.05571398667124557</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03313471330651287</v>
+        <v>0.03215147779915493</v>
       </c>
       <c r="K193" t="n">
         <v>0.1022210736782768</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06660917733041535</v>
+        <v>0.06756990054242423</v>
       </c>
       <c r="M193" t="n">
-        <v>0.101832857529018</v>
+        <v>0.1018696253221201</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1048238092271261</v>
+        <v>0.104805801616363</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1017855742002238</v>
+        <v>0.101778893884367</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03278851425418589</v>
+        <v>0.05655308888423713</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1030196758163883</v>
+        <v>0.05572426091034513</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03278851425418589</v>
+        <v>0.03283155807552478</v>
       </c>
       <c r="K194" t="n">
         <v>0.1030196758163883</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06864113024462631</v>
+        <v>0.06612598401219563</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1026284267284634</v>
+        <v>0.1026654817699491</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1004872790592746</v>
+        <v>0.1016655492335094</v>
       </c>
       <c r="O194" t="n">
-        <v>0.102580773998663</v>
+        <v>0.1025740414928386</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03317101980632828</v>
+        <v>0.05587645701845902</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1038182779544998</v>
+        <v>0.05573363532745666</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03317101980632828</v>
+        <v>0.03201465800898338</v>
       </c>
       <c r="K195" t="n">
         <v>0.1038182779544998</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06794152803164061</v>
+        <v>0.06502050309914942</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1034239959279089</v>
+        <v>0.1034613382177782</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1035080307248852</v>
+        <v>0.09978321978687921</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1033759737971023</v>
+        <v>0.1033691891013102</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03241510135356843</v>
+        <v>0.05519809063579482</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1046168800926114</v>
+        <v>0.05574210992258012</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03241510135356843</v>
+        <v>0.03252122420866828</v>
       </c>
       <c r="K196" t="n">
         <v>0.1046168800926114</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06832443110286843</v>
+        <v>0.06587789717630266</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1042195651273543</v>
+        <v>0.1042571946656072</v>
       </c>
       <c r="N196" t="n">
-        <v>0.09959441862749341</v>
+        <v>0.1035057939605015</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1041711735955415</v>
+        <v>0.1041643367097818</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03175351783785145</v>
+        <v>0.05451798973624461</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1054154822307229</v>
+        <v>0.05574968469571552</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03175351783785145</v>
+        <v>0.03296437598618034</v>
       </c>
       <c r="K197" t="n">
         <v>0.1054154822307229</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06532497517195665</v>
+        <v>0.06516197635379428</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1050151343267998</v>
+        <v>0.1050530511134363</v>
       </c>
       <c r="N197" t="n">
-        <v>0.102394803169274</v>
+        <v>0.1025692650292614</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1049663733939808</v>
+        <v>0.1049594843182534</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03222657662313479</v>
+        <v>0.0538361543198084</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1062140843688344</v>
+        <v>0.05575635964686289</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03222657662313479</v>
+        <v>0.03173529942302064</v>
       </c>
       <c r="K198" t="n">
         <v>0.1062140843688344</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06630559147899762</v>
+        <v>0.06762508503854758</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1058107035262452</v>
+        <v>0.1058489075612654</v>
       </c>
       <c r="N198" t="n">
-        <v>0.09740218335870521</v>
+        <v>0.09758705507836052</v>
       </c>
       <c r="O198" t="n">
-        <v>0.10576157319242</v>
+        <v>0.1057546319267251</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03211188418908971</v>
+        <v>0.05315258438648612</v>
       </c>
       <c r="G199" t="n">
-        <v>0.107012686506946</v>
+        <v>0.05576213477602221</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03211188418908971</v>
+        <v>0.03141301328639216</v>
       </c>
       <c r="K199" t="n">
         <v>0.107012686506946</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06471938190072424</v>
+        <v>0.06779271704188089</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1066062727256907</v>
+        <v>0.1066447640090944</v>
       </c>
       <c r="N199" t="n">
-        <v>0.09733252463247183</v>
+        <v>0.09945563277164304</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1065567729908593</v>
+        <v>0.1065497795351967</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03278638811638636</v>
+        <v>0.05246727993627781</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1078112886450575</v>
+        <v>0.05576701008319346</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03278638811638636</v>
+        <v>0.03199098511294869</v>
       </c>
       <c r="K200" t="n">
         <v>0.1078112886450575</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06670648732417925</v>
+        <v>0.06823974817068726</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1074018419251361</v>
+        <v>0.1074406204569235</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1026339064034548</v>
+        <v>0.1020877261467562</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1073519727892985</v>
+        <v>0.1073449271436683</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03266386643798637</v>
+        <v>0.05178024096918349</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1086098907831691</v>
+        <v>0.0557709855683767</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03266386643798637</v>
+        <v>0.03202518300103917</v>
       </c>
       <c r="K201" t="n">
         <v>0.1086098907831691</v>
       </c>
       <c r="L201" t="n">
-        <v>0.0660178553454909</v>
+        <v>0.06698550150881102</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1081974111245816</v>
+        <v>0.1082364769047526</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1005223629652902</v>
+        <v>0.1028919731654189</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1081471725877377</v>
+        <v>0.1081400747521399</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03233172661266238</v>
+        <v>0.05109146748520314</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1094084929212806</v>
+        <v>0.05577406123157185</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03233172661266238</v>
+        <v>0.03214470252368751</v>
       </c>
       <c r="K202" t="n">
         <v>0.1094084929212806</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06650314161515594</v>
+        <v>0.06538892495397716</v>
       </c>
       <c r="M202" t="n">
-        <v>0.108992980324027</v>
+        <v>0.1090323333525816</v>
       </c>
       <c r="N202" t="n">
-        <v>0.09987890054888088</v>
+        <v>0.09923808464164013</v>
       </c>
       <c r="O202" t="n">
-        <v>0.108942372386177</v>
+        <v>0.1089352223606115</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03137467117088405</v>
+        <v>0.05040095948433673</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1102070950593921</v>
+        <v>0.05577623707277896</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03137467117088405</v>
+        <v>0.03116647716512724</v>
       </c>
       <c r="K203" t="n">
         <v>0.1102070950593921</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06676064990498287</v>
+        <v>0.06696361145592922</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1097885495234725</v>
+        <v>0.1098281898004107</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1014907983944833</v>
+        <v>0.09738864588539731</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1097375721846162</v>
+        <v>0.1097303699690831</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03148086787326629</v>
+        <v>0.04970871696658428</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1110056971975037</v>
+        <v>0.05577751309199803</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03148086787326629</v>
+        <v>0.03162005642744589</v>
       </c>
       <c r="K204" t="n">
         <v>0.1110056971975037</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06336801005708811</v>
+        <v>0.06579040304172917</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1105841187229179</v>
+        <v>0.1106240462482398</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1003375627979259</v>
+        <v>0.1003018434991185</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1105327719830555</v>
+        <v>0.1105255175775548</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.0321555219626863</v>
+        <v>0.04901473993194584</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1118042993356152</v>
+        <v>0.05577788928922905</v>
       </c>
       <c r="J205" t="n">
-        <v>0.0321555219626863</v>
+        <v>0.03148282586785954</v>
       </c>
       <c r="K205" t="n">
         <v>0.1118042993356152</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06426997381498453</v>
+        <v>0.06474682713670174</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1113796879223634</v>
+        <v>0.1114199026960688</v>
       </c>
       <c r="N205" t="n">
-        <v>0.09915871805184656</v>
+        <v>0.09788608583363095</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1113279717814947</v>
+        <v>0.1113206651860264</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.0315009391847398</v>
+        <v>0.04831902838042135</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1126029014737267</v>
+        <v>0.05577736566447202</v>
       </c>
       <c r="J206" t="n">
-        <v>0.0315009391847398</v>
+        <v>0.03234300927562438</v>
       </c>
       <c r="K206" t="n">
         <v>0.1126029014737267</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06419998877624705</v>
+        <v>0.06438544839921437</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1121752571218088</v>
+        <v>0.1122157591438979</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1021221147765283</v>
+        <v>0.09753659067782955</v>
       </c>
       <c r="O206" t="n">
-        <v>0.112123171579934</v>
+        <v>0.112115812794498</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03190222464169783</v>
+        <v>0.04762158231201082</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1134015036118383</v>
+        <v>0.05577594221772693</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03190222464169783</v>
+        <v>0.03169571123205905</v>
       </c>
       <c r="K207" t="n">
         <v>0.1134015036118383</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06537031507429544</v>
+        <v>0.06615561119552371</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1129708263212543</v>
+        <v>0.1130116155917269</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1018587692354531</v>
+        <v>0.09826391944975893</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1129183713783733</v>
+        <v>0.1129109604029696</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03122897087491139</v>
+        <v>0.04692240172671427</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1142001057499498</v>
+        <v>0.0557736189489938</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03122897087491139</v>
+        <v>0.03179839555950864</v>
       </c>
       <c r="K208" t="n">
         <v>0.1142001057499498</v>
       </c>
       <c r="L208" t="n">
-        <v>0.0658080912751163</v>
+        <v>0.06417500476997134</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1137663955206997</v>
+        <v>0.113807472039556</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1012750787833748</v>
+        <v>0.09777748725704827</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1137135711768125</v>
+        <v>0.1137061080114412</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03230476536327374</v>
+        <v>0.04622148662453168</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1149987078880614</v>
+        <v>0.05577039585827263</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03230476536327374</v>
+        <v>0.0311850314282545</v>
       </c>
       <c r="K209" t="n">
         <v>0.1149987078880614</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06608350586569448</v>
+        <v>0.06366303515254434</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1145619647201452</v>
+        <v>0.1146033284873851</v>
       </c>
       <c r="N209" t="n">
-        <v>0.09998367583207496</v>
+        <v>0.09777495576629014</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1145087709752517</v>
+        <v>0.1145012556199128</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03040518256510534</v>
+        <v>0.04551883700546307</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1157973100261729</v>
+        <v>0.05576627294556338</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03040518256510534</v>
+        <v>0.03088452741525001</v>
       </c>
       <c r="K210" t="n">
         <v>0.1157973100261729</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06301799468666772</v>
+        <v>0.0644315708711766</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1153575339195907</v>
+        <v>0.1153991849352141</v>
       </c>
       <c r="N210" t="n">
-        <v>0.09705823670733277</v>
+        <v>0.09463233955705391</v>
       </c>
       <c r="O210" t="n">
-        <v>0.115303970773691</v>
+        <v>0.1152964032283845</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03110739418172023</v>
+        <v>0.04481445286950839</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1165959121642844</v>
+        <v>0.05576125021086609</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03110739418172023</v>
+        <v>0.03135768152264941</v>
       </c>
       <c r="K211" t="n">
         <v>0.1165959121642844</v>
       </c>
       <c r="L211" t="n">
-        <v>0.0648906388472168</v>
+        <v>0.06353865602037931</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1161531031190361</v>
+        <v>0.1161950413830432</v>
       </c>
       <c r="N211" t="n">
-        <v>0.09934664425699474</v>
+        <v>0.09373963966306409</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1160991705721302</v>
+        <v>0.1160915508368561</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03083424469553599</v>
+        <v>0.04410833421666772</v>
       </c>
       <c r="G212" t="n">
-        <v>0.117394514302396</v>
+        <v>0.05575532765418077</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03083424469553599</v>
+        <v>0.03117382669085914</v>
       </c>
       <c r="K212" t="n">
         <v>0.117394514302396</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06404704494786498</v>
+        <v>0.06322658443439125</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1169486723184816</v>
+        <v>0.1169908978308723</v>
       </c>
       <c r="N212" t="n">
-        <v>0.09663697493817769</v>
+        <v>0.09881137125242623</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1168943703705695</v>
+        <v>0.1168866984453277</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03081018623268902</v>
+        <v>0.04340048104694101</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1181931164405075</v>
+        <v>0.05574850527550739</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03081018623268902</v>
+        <v>0.03180260852938827</v>
       </c>
       <c r="K213" t="n">
         <v>0.1181931164405075</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06432914943306098</v>
+        <v>0.06508200599299316</v>
       </c>
       <c r="M213" t="n">
-        <v>0.117744241517927</v>
+        <v>0.1177867542787013</v>
       </c>
       <c r="N213" t="n">
-        <v>0.09924009251985005</v>
+        <v>0.09882205331421512</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1176895701690087</v>
+        <v>0.1176818460537993</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03149221011602062</v>
+        <v>0.04269089336032825</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1189917185786191</v>
+        <v>0.05574078307484596</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03149221011602062</v>
+        <v>0.03038669028141729</v>
       </c>
       <c r="K214" t="n">
         <v>0.1189917185786191</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06196546254050042</v>
+        <v>0.06549904745532639</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1185398107173724</v>
+        <v>0.1185826107265304</v>
       </c>
       <c r="N214" t="n">
-        <v>0.09918970207640926</v>
+        <v>0.09405634108639038</v>
       </c>
       <c r="O214" t="n">
-        <v>0.118484769967448</v>
+        <v>0.1184769936622709</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03169404014568926</v>
+        <v>0.04197957115682949</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1197903207167306</v>
+        <v>0.05573216105219648</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03169404014568926</v>
+        <v>0.03123607330877616</v>
       </c>
       <c r="K215" t="n">
         <v>0.1197903207167306</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06199089022210549</v>
+        <v>0.06410810974924055</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1193353799168179</v>
+        <v>0.1193784671743594</v>
       </c>
       <c r="N215" t="n">
-        <v>0.09951700615419323</v>
+        <v>0.09827041544823856</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1192799697658872</v>
+        <v>0.1192721412707425</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03166281150174304</v>
+        <v>0.04126651443644466</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1205889228548421</v>
+        <v>0.05572263920755895</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03166281150174304</v>
+        <v>0.03067802752021702</v>
       </c>
       <c r="K216" t="n">
         <v>0.1205889228548421</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06482311593740872</v>
+        <v>0.06361826757216574</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1201309491162634</v>
+        <v>0.1201743236221885</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1000268515251119</v>
+        <v>0.09360501230491264</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1200751695643265</v>
+        <v>0.1200672888792142</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03153712956171409</v>
+        <v>0.04055172319917383</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1213875249929536</v>
+        <v>0.05571221754093336</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03153712956171409</v>
+        <v>0.0316506910234992</v>
       </c>
       <c r="K217" t="n">
         <v>0.1213875249929536</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06491162113314816</v>
+        <v>0.06473526476515126</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1209265183157088</v>
+        <v>0.1209701800700176</v>
       </c>
       <c r="N217" t="n">
-        <v>0.09677901552575324</v>
+        <v>0.1001374726797673</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1208703693627657</v>
+        <v>0.1208624364876858</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03062022411466563</v>
+        <v>0.03983519744501694</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1221861271310652</v>
+        <v>0.05570089605231972</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03062022411466563</v>
+        <v>0.03020674300290156</v>
       </c>
       <c r="K218" t="n">
         <v>0.1221861271310652</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06599909153207101</v>
+        <v>0.06445941733440799</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1217220875151543</v>
+        <v>0.1217660365178466</v>
       </c>
       <c r="N218" t="n">
-        <v>0.09856404220356013</v>
+        <v>0.09325493040590332</v>
       </c>
       <c r="O218" t="n">
-        <v>0.121665569161205</v>
+        <v>0.1216575840961574</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03081406542289868</v>
+        <v>0.03911693717397403</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1229847292691767</v>
+        <v>0.05568867474171805</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03081406542289868</v>
+        <v>0.03012305811347996</v>
       </c>
       <c r="K219" t="n">
         <v>0.1229847292691767</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06443984649633594</v>
+        <v>0.06251617381061766</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1225176567145997</v>
+        <v>0.1225618929656757</v>
       </c>
       <c r="N219" t="n">
-        <v>0.0934401510960185</v>
+        <v>0.09832933153912266</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1224607689596442</v>
+        <v>0.122452731704629</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03020641819757468</v>
+        <v>0.0383969423860451</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1237833314072883</v>
+        <v>0.05567555360912832</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03020641819757468</v>
+        <v>0.03141247654378809</v>
       </c>
       <c r="K220" t="n">
         <v>0.1237833314072883</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06412138503016321</v>
+        <v>0.06408121504644454</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1233132259140452</v>
+        <v>0.1233577494135048</v>
       </c>
       <c r="N220" t="n">
-        <v>0.09381060705897926</v>
+        <v>0.09447662257152073</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1232559687580835</v>
+        <v>0.1232478793131006</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03125268915627315</v>
+        <v>0.03767521308123013</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1245819335453998</v>
+        <v>0.05566153265455055</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03125268915627315</v>
+        <v>0.03065412917637601</v>
       </c>
       <c r="K221" t="n">
         <v>0.1245819335453998</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06228852438526508</v>
+        <v>0.06370642950244565</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1241087951134906</v>
+        <v>0.1241536058613338</v>
       </c>
       <c r="N221" t="n">
-        <v>0.09739970484964006</v>
+        <v>0.09904242942118408</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1240511685565227</v>
+        <v>0.1240430269215722</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03114989086426186</v>
+        <v>0.03695174925952911</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1253805356835113</v>
+        <v>0.05564661187798472</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03114989086426186</v>
+        <v>0.03078315325995219</v>
       </c>
       <c r="K222" t="n">
         <v>0.1253805356835113</v>
       </c>
       <c r="L222" t="n">
-        <v>0.0641212150343588</v>
+        <v>0.06467351626884396</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1249043643129361</v>
+        <v>0.1249494623091629</v>
       </c>
       <c r="N222" t="n">
-        <v>0.09390559272259269</v>
+        <v>0.09431647314980696</v>
       </c>
       <c r="O222" t="n">
-        <v>0.124846368354962</v>
+        <v>0.1248381745300439</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03083126675716968</v>
+        <v>0.03622655092094208</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1261791378216229</v>
+        <v>0.05563079127943083</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03083126675716968</v>
+        <v>0.03118359440254463</v>
       </c>
       <c r="K223" t="n">
         <v>0.1261791378216229</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06302339478623364</v>
+        <v>0.06261840616977604</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1256999335123815</v>
+        <v>0.1257453187569919</v>
       </c>
       <c r="N223" t="n">
-        <v>0.09472574069205825</v>
+        <v>0.09541742495322042</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1256415681534012</v>
+        <v>0.1256333221385155</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.03086814515234901</v>
+        <v>0.03549961806546902</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1269777399597344</v>
+        <v>0.0556140708588889</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03086814515234901</v>
+        <v>0.03076321417711228</v>
       </c>
       <c r="K224" t="n">
         <v>0.1269777399597344</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06314973021406217</v>
+        <v>0.06369662161946776</v>
       </c>
       <c r="M224" t="n">
-        <v>0.126495502711827</v>
+        <v>0.126541175204821</v>
       </c>
       <c r="N224" t="n">
-        <v>0.09313922271743602</v>
+        <v>0.09361548546950804</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1264367679518405</v>
+        <v>0.1264284697469871</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03095162433715365</v>
+        <v>0.03477095069310991</v>
       </c>
       <c r="G225" t="n">
-        <v>0.127776342097846</v>
+        <v>0.05559645061635892</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03095162433715365</v>
+        <v>0.03107261373831231</v>
       </c>
       <c r="K225" t="n">
         <v>0.127776342097846</v>
       </c>
       <c r="L225" t="n">
-        <v>0.0625270414898047</v>
+        <v>0.06135764448136194</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1272910719112725</v>
+        <v>0.1273370316526501</v>
       </c>
       <c r="N225" t="n">
-        <v>0.09664878037649022</v>
+        <v>0.09461597525643922</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1272319677502797</v>
+        <v>0.1272236173554587</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02983090984234368</v>
+        <v>0.03404054880386478</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1285749442359575</v>
+        <v>0.05557793055184088</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02983090984234368</v>
+        <v>0.03075784655619901</v>
       </c>
       <c r="K226" t="n">
         <v>0.1285749442359575</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06492894043859207</v>
+        <v>0.06121477471490161</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1280866411107179</v>
+        <v>0.1281328881004791</v>
       </c>
       <c r="N226" t="n">
-        <v>0.0957962061817364</v>
+        <v>0.0949591124065291</v>
       </c>
       <c r="O226" t="n">
-        <v>0.128027167548719</v>
+        <v>0.1280187649639303</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.03124432519163341</v>
+        <v>0.03330841239773362</v>
       </c>
       <c r="G227" t="n">
-        <v>0.129373546374069</v>
+        <v>0.05555851066533481</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03124432519163341</v>
+        <v>0.0311282158094784</v>
       </c>
       <c r="K227" t="n">
         <v>0.129373546374069</v>
       </c>
       <c r="L227" t="n">
-        <v>0.06434201404913639</v>
+        <v>0.06437967986773882</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1288822103101634</v>
+        <v>0.1289287445483082</v>
       </c>
       <c r="N227" t="n">
-        <v>0.0945772495673361</v>
+        <v>0.09410977004991888</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1288223673471582</v>
+        <v>0.1288139125724019</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03070125919449633</v>
+        <v>0.03257454147471642</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1301721485121806</v>
+        <v>0.05553819095684068</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03070125919449633</v>
+        <v>0.02958584877380495</v>
       </c>
       <c r="K228" t="n">
         <v>0.1301721485121806</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06078617231678102</v>
+        <v>0.06439117302692615</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1296777795096088</v>
+        <v>0.1297246009961373</v>
       </c>
       <c r="N228" t="n">
-        <v>0.09466459443791581</v>
+        <v>0.09807100297279758</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1296175671455975</v>
+        <v>0.1296090601808736</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.0301129910432798</v>
+        <v>0.03183893603481319</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1309707506502921</v>
+        <v>0.0555169714263585</v>
       </c>
       <c r="J229" t="n">
-        <v>0.0301129910432798</v>
+        <v>0.02993255631331666</v>
       </c>
       <c r="K229" t="n">
         <v>0.1309707506502921</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06118275046976721</v>
+        <v>0.06190312332914355</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1304733487090542</v>
+        <v>0.1305204574439663</v>
       </c>
       <c r="N229" t="n">
-        <v>0.09740626911926947</v>
+        <v>0.09187489081142353</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1304127669440367</v>
+        <v>0.1304042077893452</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03082186307951666</v>
+        <v>0.03110159607802393</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1317693527884037</v>
+        <v>0.05549485207388827</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03082186307951666</v>
+        <v>0.03087458286111497</v>
       </c>
       <c r="K230" t="n">
         <v>0.1317693527884037</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06395401472192513</v>
+        <v>0.06237739749157648</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1312689179084997</v>
+        <v>0.1313163138917954</v>
       </c>
       <c r="N230" t="n">
-        <v>0.09437192395407473</v>
+        <v>0.09649243009840358</v>
       </c>
       <c r="O230" t="n">
-        <v>0.131207966742476</v>
+        <v>0.1311993553978168</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.03084516439466449</v>
+        <v>0.03036252160434863</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1325679549265152</v>
+        <v>0.05547183289942999</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03084516439466449</v>
+        <v>0.03075319670111205</v>
       </c>
       <c r="K231" t="n">
         <v>0.1325679549265152</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06399754217623638</v>
+        <v>0.06324016334536522</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1320644871079452</v>
+        <v>0.1321121703396245</v>
       </c>
       <c r="N231" t="n">
-        <v>0.09635624128199588</v>
+        <v>0.09226777736864888</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1320031665409152</v>
+        <v>0.1319945030062884</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03004267810140236</v>
+        <v>0.02962171261378732</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1333665570646267</v>
+        <v>0.05544791390298367</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03004267810140236</v>
+        <v>0.03002662461602303</v>
       </c>
       <c r="K232" t="n">
         <v>0.1333665570646267</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06077254841768515</v>
+        <v>0.06271543550546563</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1328600563073906</v>
+        <v>0.1329080267874535</v>
       </c>
       <c r="N232" t="n">
-        <v>0.09132791200827695</v>
+        <v>0.09396350143002291</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1327983663393544</v>
+        <v>0.13278965061476</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.03050923435769801</v>
+        <v>0.02887916910633995</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1341651592027382</v>
+        <v>0.05542309508454929</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03050923435769801</v>
+        <v>0.03034453502021002</v>
       </c>
       <c r="K233" t="n">
         <v>0.1341651592027382</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06289074632144886</v>
+        <v>0.06272220805842074</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1336556255068361</v>
+        <v>0.1337038832352826</v>
       </c>
       <c r="N233" t="n">
-        <v>0.09486881398818131</v>
+        <v>0.09032653487417019</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1335935661377937</v>
+        <v>0.1335847982232317</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02962409192234242</v>
+        <v>0.02813489108200656</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1349637613408498</v>
+        <v>0.05539737644412685</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02962409192234242</v>
+        <v>0.02976035805038173</v>
       </c>
       <c r="K234" t="n">
         <v>0.1349637613408498</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06267340424838583</v>
+        <v>0.06166843226715107</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1344511947062815</v>
+        <v>0.1344997396831117</v>
       </c>
       <c r="N234" t="n">
-        <v>0.09061358951206527</v>
+        <v>0.09127233923966599</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1343887659362329</v>
+        <v>0.1343799458317033</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02953671646437722</v>
+        <v>0.02738887854078714</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1357623634789613</v>
+        <v>0.05537075798171637</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02953671646437722</v>
+        <v>0.02992145598377972</v>
       </c>
       <c r="K235" t="n">
         <v>0.1357623634789613</v>
       </c>
       <c r="L235" t="n">
-        <v>0.0615750856075386</v>
+        <v>0.06030713116620517</v>
       </c>
       <c r="M235" t="n">
-        <v>0.135246763905727</v>
+        <v>0.1352955961309407</v>
       </c>
       <c r="N235" t="n">
-        <v>0.09377029488581751</v>
+        <v>0.09652509812680826</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1351839657346722</v>
+        <v>0.1351750934401749</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02973018634592214</v>
+        <v>0.02664113148268168</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1365609656170729</v>
+        <v>0.05534323969731784</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02973018634592214</v>
+        <v>0.03061463906265552</v>
       </c>
       <c r="K236" t="n">
         <v>0.1365609656170729</v>
       </c>
       <c r="L236" t="n">
-        <v>0.06240378556190831</v>
+        <v>0.05966770499836727</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1360423331051724</v>
+        <v>0.1360914525787698</v>
       </c>
       <c r="N236" t="n">
-        <v>0.09272663798135661</v>
+        <v>0.09431733574135398</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1359791655331114</v>
+        <v>0.1359702410486465</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02919928630674791</v>
+        <v>0.0258916499076902</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1373595677551844</v>
+        <v>0.05531482159093127</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02919928630674791</v>
+        <v>0.03001918535221196</v>
       </c>
       <c r="K237" t="n">
         <v>0.1373595677551844</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06217878578202835</v>
+        <v>0.06277298212885388</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1368379023046179</v>
+        <v>0.1368873090265988</v>
       </c>
       <c r="N237" t="n">
-        <v>0.09197505638667774</v>
+        <v>0.09355244731146667</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1367743653315507</v>
+        <v>0.1367653886571181</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.03012399400469573</v>
+        <v>0.02514043381581268</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1381581698932959</v>
+        <v>0.05528550366255663</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03012399400469573</v>
+        <v>0.03055580951271045</v>
       </c>
       <c r="K238" t="n">
         <v>0.1381581698932959</v>
       </c>
       <c r="L238" t="n">
-        <v>0.05965254487748539</v>
+        <v>0.06287017265731307</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1376334715040633</v>
+        <v>0.1376831654744279</v>
       </c>
       <c r="N238" t="n">
-        <v>0.09229828595679668</v>
+        <v>0.09066538315176775</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1375695651299899</v>
+        <v>0.1375605362655898</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02966185602259193</v>
+        <v>0.02438748320704914</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1389567720314075</v>
+        <v>0.05525528591219396</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02966185602259193</v>
+        <v>0.02897871976924699</v>
       </c>
       <c r="K239" t="n">
         <v>0.1389567720314075</v>
       </c>
       <c r="L239" t="n">
-        <v>0.05904131225996853</v>
+        <v>0.06179681456637653</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1384290407035088</v>
+        <v>0.1384790219222569</v>
       </c>
       <c r="N239" t="n">
-        <v>0.08995662106132385</v>
+        <v>0.09166091818655236</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1383647649284292</v>
+        <v>0.1383556838740614</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02919183764275476</v>
+        <v>0.02363279808139956</v>
       </c>
       <c r="G240" t="n">
-        <v>0.139755374169519</v>
+        <v>0.05522416833984325</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02919183764275476</v>
+        <v>0.02904858106325703</v>
       </c>
       <c r="K240" t="n">
         <v>0.139755374169519</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06286391652864984</v>
+        <v>0.06254011232873138</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1392246099029542</v>
+        <v>0.139274878370086</v>
       </c>
       <c r="N240" t="n">
-        <v>0.09020019272864921</v>
+        <v>0.09523524818146423</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1391599647268684</v>
+        <v>0.139150831482533</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02981199979872833</v>
+        <v>0.02287637843886395</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1405539763076306</v>
+        <v>0.05519215094550446</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02981199979872833</v>
+        <v>0.02917381834470059</v>
       </c>
       <c r="K241" t="n">
         <v>0.1405539763076306</v>
       </c>
       <c r="L241" t="n">
-        <v>0.06257069419919359</v>
+        <v>0.06009290281998991</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1400201791023997</v>
+        <v>0.1400707348179151</v>
       </c>
       <c r="N241" t="n">
-        <v>0.0913784726183352</v>
+        <v>0.08945758648549296</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1399551645253077</v>
+        <v>0.1399459790910046</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02953796761988173</v>
+        <v>0.02211822427944229</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1413525784457421</v>
+        <v>0.05515923372917763</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02953796761988173</v>
+        <v>0.02987348888294093</v>
       </c>
       <c r="K242" t="n">
         <v>0.1413525784457421</v>
       </c>
       <c r="L242" t="n">
-        <v>0.05926981150570856</v>
+        <v>0.06252269203971811</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1408157483018451</v>
+        <v>0.1408665912657441</v>
       </c>
       <c r="N242" t="n">
-        <v>0.09106162762319336</v>
+        <v>0.09220967109055694</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1407503643237469</v>
+        <v>0.1407411266994762</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02965899479986656</v>
+        <v>0.02135833560313462</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1421511805838536</v>
+        <v>0.05512541669086276</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02965899479986656</v>
+        <v>0.0298625583081258</v>
       </c>
       <c r="K243" t="n">
         <v>0.1421511805838536</v>
       </c>
       <c r="L243" t="n">
-        <v>0.06211975067092237</v>
+        <v>0.06037246126887688</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1416113175012906</v>
+        <v>0.1416624477135732</v>
       </c>
       <c r="N243" t="n">
-        <v>0.09206170537520836</v>
+        <v>0.08905467468772371</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1415455641221862</v>
+        <v>0.1415362743079478</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02934206787336015</v>
+        <v>0.0205967124099409</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1429497827219652</v>
+        <v>0.05509069983055983</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02934206787336015</v>
+        <v>0.02962614582860337</v>
       </c>
       <c r="K244" t="n">
         <v>0.1429497827219652</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06166494402511</v>
+        <v>0.0592644714629397</v>
       </c>
       <c r="M244" t="n">
-        <v>0.142406886700736</v>
+        <v>0.1424583041614023</v>
       </c>
       <c r="N244" t="n">
-        <v>0.09405411972738681</v>
+        <v>0.0925949966132748</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1423407639206254</v>
+        <v>0.1423314219164195</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02897558942541788</v>
+        <v>0.01983335469986117</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1437483848600767</v>
+        <v>0.05505508314826885</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02897558942541788</v>
+        <v>0.02931314935474173</v>
       </c>
       <c r="K245" t="n">
         <v>0.1437483848600767</v>
       </c>
       <c r="L245" t="n">
-        <v>0.06010861427116229</v>
+        <v>0.06005155489952801</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1432024559001815</v>
+        <v>0.1432541606092314</v>
       </c>
       <c r="N245" t="n">
-        <v>0.09294794375057636</v>
+        <v>0.09341423501776014</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1431359637190647</v>
+        <v>0.1431265695248911</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.02993863984794533</v>
+        <v>0.0190682624728954</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1445469869981882</v>
+        <v>0.05501856664398983</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02993863984794533</v>
+        <v>0.02969553513393115</v>
       </c>
       <c r="K246" t="n">
         <v>0.1445469869981882</v>
       </c>
       <c r="L246" t="n">
-        <v>0.05859700820546265</v>
+        <v>0.05833447297455799</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1439980250996269</v>
+        <v>0.1440500170570604</v>
       </c>
       <c r="N246" t="n">
-        <v>0.09102787198563717</v>
+        <v>0.08922220636219008</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1439311635175039</v>
+        <v>0.1439217171333627</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02983229053141093</v>
+        <v>0.01830143572904359</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1453455891362998</v>
+        <v>0.05498115031772275</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02983229053141093</v>
+        <v>0.02975888009566074</v>
       </c>
       <c r="K247" t="n">
         <v>0.1453455891362998</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06099034835269793</v>
+        <v>0.05851505877702481</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1447935942990724</v>
+        <v>0.1448458735048895</v>
       </c>
       <c r="N247" t="n">
-        <v>0.09034834846041595</v>
+        <v>0.09100619943142141</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1447263633159432</v>
+        <v>0.1447168647418343</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02904000460516297</v>
+        <v>0.01753287446830575</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1461441912744113</v>
+        <v>0.05494283416946763</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02904000460516297</v>
+        <v>0.02856835641827496</v>
       </c>
       <c r="K248" t="n">
         <v>0.1461441912744113</v>
       </c>
       <c r="L248" t="n">
-        <v>0.05989550309987396</v>
+        <v>0.05866408046016625</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1455891634985179</v>
+        <v>0.1456417299527185</v>
       </c>
       <c r="N248" t="n">
-        <v>0.08833675422959031</v>
+        <v>0.09329010603765286</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1455215631143824</v>
+        <v>0.1455120123503059</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02907565876885347</v>
+        <v>0.01676257869068189</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1469427934125228</v>
+        <v>0.05490361819922446</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02907565876885347</v>
+        <v>0.02912805340232244</v>
       </c>
       <c r="K249" t="n">
         <v>0.1469427934125228</v>
       </c>
       <c r="L249" t="n">
-        <v>0.05943898959165084</v>
+        <v>0.06102339796216449</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1463847326979633</v>
+        <v>0.1464375864005476</v>
       </c>
       <c r="N249" t="n">
-        <v>0.09249599434881484</v>
+        <v>0.08859375974226669</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1463167629128217</v>
+        <v>0.1463071599587775</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.02842616503265735</v>
+        <v>0.01599054839617198</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1477413955506344</v>
+        <v>0.05486350240699323</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02842616503265735</v>
+        <v>0.02858652047377294</v>
       </c>
       <c r="K250" t="n">
         <v>0.1477413955506344</v>
       </c>
       <c r="L250" t="n">
-        <v>0.05929314791368681</v>
+        <v>0.05971964161538965</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1471803018974087</v>
+        <v>0.1472334428483767</v>
       </c>
       <c r="N250" t="n">
-        <v>0.0924666745030932</v>
+        <v>0.09376165499144962</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1471119627112609</v>
+        <v>0.1471023075672492</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.02900741542349823</v>
+        <v>0.01521678358477605</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1485399976887459</v>
+        <v>0.05482248679277395</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02900741542349823</v>
+        <v>0.02846259605594814</v>
       </c>
       <c r="K251" t="n">
         <v>0.1485399976887459</v>
       </c>
       <c r="L251" t="n">
-        <v>0.0581070309653329</v>
+        <v>0.06074616413577308</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1479758710968542</v>
+        <v>0.1480292992962057</v>
       </c>
       <c r="N251" t="n">
-        <v>0.09411005232519232</v>
+        <v>0.09400512954479884</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1479071625097002</v>
+        <v>0.1478974551757208</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02972167979504801</v>
+        <v>0.01444128425649407</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1493385998268575</v>
+        <v>0.05478057135656662</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02972167979504801</v>
+        <v>0.02908617200911957</v>
       </c>
       <c r="K252" t="n">
         <v>0.1493385998268575</v>
       </c>
       <c r="L252" t="n">
-        <v>0.05979145417899204</v>
+        <v>0.06035865978791485</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1487714402962997</v>
+        <v>0.1488251557440348</v>
       </c>
       <c r="N252" t="n">
-        <v>0.08713541138378533</v>
+        <v>0.09130786003693081</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1487023623081394</v>
+        <v>0.1486926027841924</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02983477270839625</v>
+        <v>0.01366405041132608</v>
       </c>
       <c r="G253" t="n">
-        <v>0.150137201964969</v>
+        <v>0.05473775609837125</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02983477270839625</v>
+        <v>0.0286952933477055</v>
       </c>
       <c r="K253" t="n">
         <v>0.150137201964969</v>
       </c>
       <c r="L253" t="n">
-        <v>0.06071162199485983</v>
+        <v>0.06141707985096848</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1495670094957451</v>
+        <v>0.1496210121918638</v>
       </c>
       <c r="N253" t="n">
-        <v>0.08956431165471124</v>
+        <v>0.09112808705146491</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1494975621065787</v>
+        <v>0.149487750392664</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02929144618646227</v>
+        <v>0.01288508204927205</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1509358041030805</v>
+        <v>0.05469404101818783</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02929144618646227</v>
+        <v>0.02939704881943805</v>
       </c>
       <c r="K254" t="n">
         <v>0.1509358041030805</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06189582083999839</v>
+        <v>0.06077632626615481</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1503625786951906</v>
+        <v>0.1504168686396929</v>
       </c>
       <c r="N254" t="n">
-        <v>0.08811759610084235</v>
+        <v>0.08924216243058641</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1502927619050179</v>
+        <v>0.1502828980011356</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02907048745095285</v>
+        <v>0.012104379170332</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1517344062411921</v>
+        <v>0.05464942611601635</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02907048745095285</v>
+        <v>0.02918355939174036</v>
       </c>
       <c r="K255" t="n">
         <v>0.1517344062411921</v>
       </c>
       <c r="L255" t="n">
-        <v>0.05797667009165608</v>
+        <v>0.05878685339389386</v>
       </c>
       <c r="M255" t="n">
-        <v>0.151158147894636</v>
+        <v>0.151212725087522</v>
       </c>
       <c r="N255" t="n">
-        <v>0.0919908505583012</v>
+        <v>0.0937126944384305</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1510879617034572</v>
+        <v>0.1510780456096072</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02970768080852365</v>
+        <v>0.01132194177450591</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1525330083793036</v>
+        <v>0.05460391139185683</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02970768080852365</v>
+        <v>0.02959188616256932</v>
       </c>
       <c r="K256" t="n">
         <v>0.1525330083793036</v>
       </c>
       <c r="L256" t="n">
-        <v>0.05933805347084406</v>
+        <v>0.05840096449984084</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1519537170940815</v>
+        <v>0.152008581535351</v>
       </c>
       <c r="N256" t="n">
-        <v>0.09130800177925114</v>
+        <v>0.09295511276330126</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1518831615018964</v>
+        <v>0.1518731932180789</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.02862899282728035</v>
+        <v>0.01053776986179377</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1533316105174151</v>
+        <v>0.05455749684570926</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02862899282728035</v>
+        <v>0.02830022145247503</v>
       </c>
       <c r="K257" t="n">
         <v>0.1533316105174151</v>
       </c>
       <c r="L257" t="n">
-        <v>0.05964051466112388</v>
+        <v>0.05855247243223632</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1527492862935269</v>
+        <v>0.1528044379831801</v>
       </c>
       <c r="N257" t="n">
-        <v>0.09284068596290823</v>
+        <v>0.08765045432379936</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1526783613003357</v>
+        <v>0.1526683408265505</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02815900254471078</v>
+        <v>0.009751863432195612</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1541302126555267</v>
+        <v>0.05451018247757362</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02815900254471078</v>
+        <v>0.02855334815460579</v>
       </c>
       <c r="K258" t="n">
         <v>0.1541302126555267</v>
       </c>
       <c r="L258" t="n">
-        <v>0.06026209930776108</v>
+        <v>0.05744815428687608</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1535448554929724</v>
+        <v>0.1536002944310091</v>
       </c>
       <c r="N258" t="n">
-        <v>0.08629307359889121</v>
+        <v>0.09257983724041802</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1534735610987749</v>
+        <v>0.1534634884350221</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02931088651440777</v>
+        <v>0.008964222485711416</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1549288147936382</v>
+        <v>0.05446196828744995</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02931088651440777</v>
+        <v>0.02866704718356976</v>
       </c>
       <c r="K259" t="n">
         <v>0.1549288147936382</v>
       </c>
       <c r="L259" t="n">
-        <v>0.05979230840696859</v>
+        <v>0.05894075562643211</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1543404246924178</v>
+        <v>0.1543961508788382</v>
       </c>
       <c r="N259" t="n">
-        <v>0.08800549739842001</v>
+        <v>0.08994944112404862</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1542687608972141</v>
+        <v>0.1542586360434937</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02816699981983513</v>
+        <v>0.008174847022341204</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1557274169317498</v>
+        <v>0.05441285427533822</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02816699981983513</v>
+        <v>0.02850500132985193</v>
       </c>
       <c r="K260" t="n">
         <v>0.1557274169317498</v>
       </c>
       <c r="L260" t="n">
-        <v>0.05794150203298928</v>
+        <v>0.05877653657960072</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1551359938918633</v>
+        <v>0.1551920073266673</v>
       </c>
       <c r="N260" t="n">
-        <v>0.08824155442237513</v>
+        <v>0.08839696426070176</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1550639606956534</v>
+        <v>0.1550537836519653</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02899192299265151</v>
+        <v>0.007383737042084955</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1565260190698613</v>
+        <v>0.05436284044123846</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02899192299265151</v>
+        <v>0.02862662339244793</v>
       </c>
       <c r="K261" t="n">
         <v>0.1565260190698613</v>
       </c>
       <c r="L261" t="n">
-        <v>0.05805224151058719</v>
+        <v>0.06050247906474798</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1559315630913087</v>
+        <v>0.1559878637744963</v>
       </c>
       <c r="N261" t="n">
-        <v>0.09100902799408461</v>
+        <v>0.09159977479163078</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1558591604940927</v>
+        <v>0.1558489312604369</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.02858298116653393</v>
+        <v>0.006590892544942661</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1573246212079729</v>
+        <v>0.05431192678515064</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02858298116653393</v>
+        <v>0.02776262727777401</v>
       </c>
       <c r="K262" t="n">
         <v>0.1573246212079729</v>
       </c>
       <c r="L262" t="n">
-        <v>0.06018883165460001</v>
+        <v>0.05862072791762704</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1567271322907542</v>
+        <v>0.1567837202223254</v>
       </c>
       <c r="N262" t="n">
-        <v>0.09081455840951264</v>
+        <v>0.0895527508975994</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1566543602925319</v>
+        <v>0.1566440788689085</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02872376096459379</v>
+        <v>0.005796313530914345</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1581232233460844</v>
+        <v>0.05426011330707476</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02872376096459379</v>
+        <v>0.02753325594000632</v>
       </c>
       <c r="K263" t="n">
         <v>0.1581232233460844</v>
       </c>
       <c r="L263" t="n">
-        <v>0.05888996072968231</v>
+        <v>0.0595304334459342</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1575227014901996</v>
+        <v>0.1575795766701545</v>
       </c>
       <c r="N263" t="n">
-        <v>0.09207623067386245</v>
+        <v>0.08553562040881191</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1574495600909711</v>
+        <v>0.1574392264773802</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.028269775499057</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1589218254841959</v>
+        <v>0.05420740000701083</v>
       </c>
       <c r="J264" t="n">
-        <v>0.028269775499057</v>
+        <v>0.02922248551781377</v>
       </c>
       <c r="K264" t="n">
         <v>0.1589218254841959</v>
       </c>
       <c r="L264" t="n">
-        <v>0.05955789943838266</v>
+        <v>0.05720198894850562</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1583182706896451</v>
+        <v>0.1583754331179835</v>
       </c>
       <c r="N264" t="n">
-        <v>0.08798315041012628</v>
+        <v>0.09052715605513723</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1582447598894104</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1582343740858518</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05420740000701083</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005636380870981693</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05417193075224588</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006274394228444349</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05413736131946896</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006914040072387988</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05410369170868011</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007555318402812587</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.0540709219198793</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008198229219718162</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05403905195306653</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008842772523104718</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05400808180824183</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009488948312972229</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05397801148540517</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01013675658932073</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05394884098455656</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01078619735215017</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05392057030569599</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01143727060146061</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05389319944882348</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01208997633725201</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05386672841393902</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01274431455952438</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05384115720104261</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01340028526827775</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05381648581013426</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01405788846351205</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05379271424121394</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01471712414522735</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05376984249428168</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.0153779923134236</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05374787056933746</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01604049296810083</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05372679846638131</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01670462610925903</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05370662618541319</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01737039173689821</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05368735372643313</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01803778985101837</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05366898108944112</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01870682045161947</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05365150827443715</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01937748353870157</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05363493528142124</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02004977911226462</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05361926211039337</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02072370717230865</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05360448876135356</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02139926771883366</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05359061523430179</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02207646075183964</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05357764152923809</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02275528627132657</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05356556764616243</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.0234357442772945</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05355439358507481</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02411783476974337</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05354411934597524</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02480155774867324</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05353474492886373</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02548691321408406</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05352627033374026</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02617390116597586</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05351869556060485</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02686252160434864</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05351202060945749</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02755277452920239</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05350624548029818</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.0282446599405371</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05350137017312689</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02893817783835279</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05349739468794368</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02963332822264945</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05349431902474853</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.03033011109342706</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05349214318354141</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.03102852645068566</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05349086716432233</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.03172857429442524</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05349049096709133</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.0324302546246458</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05349101459184837</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03313356744134729</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05349243803859344</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03383851274452979</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05349476130732658</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03454509053419325</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05349798439804777</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03525330081033767</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05350210731075699</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03596314357296307</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05350713004545426</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03667461882206945</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05351305260213961</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03738772655765678</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05351987498081299</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03810246677972509</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05352759718147442</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.0388188394882744</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.0535362192041239</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03953684468330465</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05354574104876143</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.04025648236481588</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05355616271538702</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.04097775253280807</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05356748420400064</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.04170065518728125</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05357970551460232</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.04242519032823538</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05359282664719206</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.0431513579556705</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05360684760176984</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.04387915806958657</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05362176837833566</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.04460859066998364</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05363758897688955</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.04533965575686168</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05365430939743147</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.04607235333022067</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05367192963996146</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.04680668339006064</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05369044970447948</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04754264593638158</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05370986959098557</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.0482802409691835</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.0537301892994797</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.04901946848846638</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05375140882996187</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04976032849423022</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05377352818243211</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.05050282098647506</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05379654735689039</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.05124694596520085</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05382046635333673</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.05199270343040761</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05384528517177109</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.05274009338209537</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05387100381219352</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.05348911582026408</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.053897622274604</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.05423977074491376</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05392514055900252</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.0549920581560444</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05395355866538911</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.05574597805365604</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05398287659376374</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.05650153043774864</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05401309434412641</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.05725871530832222</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05404421191647715</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.05801753266537675</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05407622931081592</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.05877798250891225</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05410914652714274</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.05954006483892874</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05414296356545761</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.06030377965542617</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05417768042576054</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.06106912695840462</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05421329710805153</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.06183610674786402</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05424981361233056</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.06260471902380439</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05428722993859762</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.06337496378622572</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05432554608685276</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.06414684103512804</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05436476205709594</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.06492035077051132</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05440487784932715</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.06569549299237556</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05444589346354644</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.06647226770072079</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05448780889975375</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.06725067489554698</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05453062415794912</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.06803071457685417</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05457433923813255</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.0688123867446423</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05461895414030402</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.06959569139891141</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05466446886446356</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.0703806285396615</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05471088341061112</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.07116719816689253</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05475819777874674</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.07195540028060456</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05480641196887043</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.07274523488079757</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05485552598098215</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.07353670196747153</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05490553981508193</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.07432980154062646</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05495645347116974</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.07512453360026237</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05500826694924561</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.07592089814637924</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05506098024930954</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.07542089814637924</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05506098024930954</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.07648732957249701</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.0566486067353992</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.07753644552098815</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05823623322148885</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.07856763130599327</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.0598238597075785</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.07958027224165304</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06141148619366815</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.08057375364210809</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06299911267975782</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.08154746082149907</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06458673916584748</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.08250077909396661</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06617436565193713</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.08343309377365135</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06776199213802678</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.08434379017469396</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06934961862411644</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.08523225361123501</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07093724511020609</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.08609786939741529</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07252487159629574</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.08694002284737526</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.0741124980823854</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.08775809927525571</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07570012456847505</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.08855148399519722</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.0772877510545647</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.08931956232134045</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07887537754065437</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.09006171956782602</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08046300402674401</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.09077734104879459</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08205063051283368</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.09146581207838683</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08363825699892331</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.09212651797074331</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08522588348501299</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.09275884404000476</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08681350997110264</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.09336217560031176</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08840113645719229</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.09393589796580495</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08998876294328195</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.09447939645062506</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.0915763894293716</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.09499205636891259</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09316401591546125</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.09547326303480833</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09475164240155091</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.09592240176245281</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09633926888764058</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.09633887095838758</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09792689537373021</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.09674188402562875</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09951452185981988</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.09714689936393747</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1011021483459095</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.09755062740677839</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1026897748319992</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.09794977858761619</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1042774013180888</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.09834106333991552</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1058650278041785</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.09872119209714106</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1074526542902681</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.09908687529275748</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1090402807763578</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.09943482336022938</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1106279072624475</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.09976174673302152</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1122155337485371</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.1000643558445985</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1138031602346267</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.100339361128425</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1153907867207164</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.1005834730179657</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1169784132068061</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.1007934019466852</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1185660396928957</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.1009658583480482</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1201536661789854</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.1010975526555194</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1217412926650751</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.1012278641951723</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1233289191511647</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.1012254967226449</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1249165456372543</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.1012138066236272</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.126504172123344</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.1011461386352494</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1280917986094337</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.1010257168892432</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1296794250955233</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.1008561304856404</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1312670515816129</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.1006409685244728</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1328546780677027</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.1003838201057721</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1344423045537923</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.1000882743295701</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1360299310398819</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.0997579202958985</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1376175575259716</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.09939634710478915</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1392051840120613</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.09900714385627377</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1407928104981509</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.09859389965038412</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1423804369842405</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.09816020358715197</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1439680634703302</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.09770964476660909</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1455556899564199</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.09724581228878723</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1471433164425095</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.09677229525371814</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1487309429285992</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.09629268276143363</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.09581056391196541</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1519061959007785</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.09532952780534529</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1534938223868681</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.094853163541605</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1550814488729578</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.09438506022077628</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1566690753590475</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.09392880694289096</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1582567018451371</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.09348799280798076</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1598443283312267</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.09306620691607742</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1614319548173164</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.09266703836721277</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1630195813034061</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.09229407626141853</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1646072077894957</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.09194901516079496</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1661948342755854</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.09161162492889799</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1677824607616751</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.09127552841728176</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1693700872477647</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.09094074309450398</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1709577137338543</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.09060728642912236</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.172545340219944</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.09027517588969453</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1741329667060337</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.08994442894477819</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1757205931921233</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.08961506306293107</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1773082196782129</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.08928709571271079</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1788958461643027</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.08896054436267511</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1804834726503923</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.08863542648138165</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1820710991364819</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.0883117595373881</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1836587256225716</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.08798956099925218</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1852463521086612</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.08766884833553157</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1868339785947509</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.08734963901478393</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1884216050808405</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.08703195050556695</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1900092315669302</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.08671580027643833</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1915968580530199</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.08640120579595578</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1931844845391095</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.08608818453267691</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1947721110251991</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.08577675395515946</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1963597375112889</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.08546693153196114</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1979473639973785</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.08515873473163957</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1995349904834681</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.08485218102275247</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2011226169695578</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.08454728787385751</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2027102434556474</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.08424407275351239</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2042978699417371</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.08394255313027482</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2058854964278267</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.08364274647270242</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2074731229139164</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.08334467024935294</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2090607494000061</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.08304834192878402</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2106483758860957</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.08275377897955336</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2122360023721853</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
